--- a/SuppXLS/Scen_A_SYS_SAD_40TS.xlsx
+++ b/SuppXLS/Scen_A_SYS_SAD_40TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B81792-4AF2-4F6E-8BED-236D746DEA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93E687-583B-44F2-AC9E-B87832354D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="147">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eirgird 15 min overall Ireland  consumption for 2018 is used , however because it is all electricity, the minimum electricity multiplied 0.8 was substracted from the value to help find the space heating usage, and some space heating is in all timeslices </t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1419,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -2199,13 +2202,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>176234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>29910</xdr:rowOff>
@@ -2248,7 +2251,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2832,13 +2835,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>419174</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>493864</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>152809</xdr:rowOff>
@@ -3156,9 +3159,9 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="rsdsol" displayName="rsdsol" ref="B2:AI42" totalsRowShown="0">
-  <autoFilter ref="B2:AI42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="rsdsol" displayName="rsdsol" ref="B2:AJ42" totalsRowShown="0">
+  <autoFilter ref="B2:AJ42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Year"/>
@@ -3166,6 +3169,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pset_PN"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pset_CI"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="IE"/>
+    <tableColumn id="35" xr3:uid="{0F038900-2105-496C-99AE-4942CD0A55D9}" name="Column1"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="National"/>
     <tableColumn id="9" xr3:uid="{9F3B4971-0FBA-4B6E-B334-0459DB7E0A3B}" name="IE-CW"/>
     <tableColumn id="10" xr3:uid="{1F09552D-FB42-4A50-A1B5-D58715CFB305}" name="IE-KK"/>
@@ -3199,14 +3203,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rsd_sh" displayName="rsd_sh" ref="B2:AG42" totalsRowShown="0">
-  <autoFilter ref="B2:AG42" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rsd_sh" displayName="rsd_sh" ref="B2:AH42" totalsRowShown="0">
+  <autoFilter ref="B2:AH42" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_CN"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="IE"/>
+    <tableColumn id="33" xr3:uid="{453599B1-5B52-4CBE-B32A-E02F6F17A42C}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="National"/>
     <tableColumn id="7" xr3:uid="{F1E57632-207A-498B-A749-02746CCC663A}" name="IE-CW"/>
     <tableColumn id="8" xr3:uid="{94AC34AA-F618-4838-8770-45D1AE053F94}" name="IE-KK"/>
@@ -3240,15 +3245,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="rsd_rtft" displayName="rsd_rtft" ref="B2:AH42" totalsRowShown="0">
-  <autoFilter ref="B2:AH42" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="rsd_rtft" displayName="rsd_rtft" ref="B2:AI42" totalsRowShown="0">
+  <autoFilter ref="B2:AI42" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TimeSlice"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Attribute"/>
     <tableColumn id="7" xr3:uid="{A089AEDA-8E96-495A-8524-E07DDD68F013}" name="LimType"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pset_PN"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IE"/>
+    <tableColumn id="34" xr3:uid="{BED3435E-C578-4AE3-91B4-589F204511F4}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="National"/>
     <tableColumn id="8" xr3:uid="{016098A7-14D9-400A-AD55-05EB872BE66E}" name="IE-CW"/>
     <tableColumn id="9" xr3:uid="{CEFE8EE9-B5A7-44EF-AD81-AFC88C9E8923}" name="IE-KK"/>
@@ -3282,14 +3288,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="rsd_oe_dem" displayName="rsd_oe_dem" ref="B2:AG42" totalsRowShown="0">
-  <autoFilter ref="B2:AG42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="rsd_oe_dem" displayName="rsd_oe_dem" ref="B2:AH42" totalsRowShown="0">
+  <autoFilter ref="B2:AH42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TimeSlice"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Attribute"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Cset_CN"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="IE" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{451262A6-8223-48A7-8823-77B11C270865}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="National"/>
     <tableColumn id="7" xr3:uid="{5D862A35-F3CC-45AC-A0F1-5816D491FB4F}" name="IE-CW"/>
     <tableColumn id="8" xr3:uid="{B863B34E-D491-487F-A3A5-869CDAC18D16}" name="IE-KK"/>
@@ -31374,7 +31381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -35168,20 +35175,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:AI42"/>
+  <dimension ref="B1:AJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AI42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -35204,88 +35211,91 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -35307,9 +35317,6 @@
       <c r="H3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I3">
-        <v>5.9999999999999995E-4</v>
-      </c>
       <c r="J3">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -35388,8 +35395,11 @@
       <c r="AI3">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -35411,9 +35421,6 @@
       <c r="H4">
         <v>5.6349999999999997E-2</v>
       </c>
-      <c r="I4">
-        <v>5.6349999999999997E-2</v>
-      </c>
       <c r="J4">
         <v>5.6349999999999997E-2</v>
       </c>
@@ -35492,8 +35499,11 @@
       <c r="AI4">
         <v>5.6349999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ4">
+        <v>5.6349999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -35515,9 +35525,6 @@
       <c r="H5">
         <v>0.23627999999999999</v>
       </c>
-      <c r="I5">
-        <v>0.23627999999999999</v>
-      </c>
       <c r="J5">
         <v>0.23627999999999999</v>
       </c>
@@ -35596,8 +35603,11 @@
       <c r="AI5">
         <v>0.23627999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ5">
+        <v>0.23627999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -35619,9 +35629,6 @@
       <c r="H6">
         <v>1.7829999999999999E-2</v>
       </c>
-      <c r="I6">
-        <v>1.7829999999999999E-2</v>
-      </c>
       <c r="J6">
         <v>1.7829999999999999E-2</v>
       </c>
@@ -35700,8 +35707,11 @@
       <c r="AI6">
         <v>1.7829999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ6">
+        <v>1.7829999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -35723,9 +35733,6 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -35804,8 +35811,11 @@
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -35827,9 +35837,6 @@
       <c r="H8">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I8">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J8">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -35908,8 +35915,11 @@
       <c r="AI8">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -35931,9 +35941,6 @@
       <c r="H9">
         <v>4.7419999999999997E-2</v>
       </c>
-      <c r="I9">
-        <v>4.7419999999999997E-2</v>
-      </c>
       <c r="J9">
         <v>4.7419999999999997E-2</v>
       </c>
@@ -36012,8 +36019,11 @@
       <c r="AI9">
         <v>4.7419999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ9">
+        <v>4.7419999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -36035,9 +36045,6 @@
       <c r="H10">
         <v>0.22863</v>
       </c>
-      <c r="I10">
-        <v>0.22863</v>
-      </c>
       <c r="J10">
         <v>0.22863</v>
       </c>
@@ -36116,8 +36123,11 @@
       <c r="AI10">
         <v>0.22863</v>
       </c>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>0.22863</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -36139,9 +36149,6 @@
       <c r="H11">
         <v>1.503E-2</v>
       </c>
-      <c r="I11">
-        <v>1.503E-2</v>
-      </c>
       <c r="J11">
         <v>1.503E-2</v>
       </c>
@@ -36220,8 +36227,11 @@
       <c r="AI11">
         <v>1.503E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>1.503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -36243,9 +36253,6 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
@@ -36324,8 +36331,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -36347,9 +36357,6 @@
       <c r="H13">
         <v>5.28E-3</v>
       </c>
-      <c r="I13">
-        <v>5.28E-3</v>
-      </c>
       <c r="J13">
         <v>5.28E-3</v>
       </c>
@@ -36428,8 +36435,11 @@
       <c r="AI13">
         <v>5.28E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>5.28E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -36451,9 +36461,6 @@
       <c r="H14">
         <v>0.15382999999999999</v>
       </c>
-      <c r="I14">
-        <v>0.15382999999999999</v>
-      </c>
       <c r="J14">
         <v>0.15382999999999999</v>
       </c>
@@ -36532,8 +36539,11 @@
       <c r="AI14">
         <v>0.15382999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>0.15382999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -36555,9 +36565,6 @@
       <c r="H15">
         <v>0.3609</v>
       </c>
-      <c r="I15">
-        <v>0.3609</v>
-      </c>
       <c r="J15">
         <v>0.3609</v>
       </c>
@@ -36636,8 +36643,11 @@
       <c r="AI15">
         <v>0.3609</v>
       </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>0.3609</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -36659,9 +36669,6 @@
       <c r="H16">
         <v>7.6520000000000005E-2</v>
       </c>
-      <c r="I16">
-        <v>7.6520000000000005E-2</v>
-      </c>
       <c r="J16">
         <v>7.6520000000000005E-2</v>
       </c>
@@ -36740,8 +36747,11 @@
       <c r="AI16">
         <v>7.6520000000000005E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ16">
+        <v>7.6520000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -36763,9 +36773,6 @@
       <c r="H17">
         <v>1.23E-3</v>
       </c>
-      <c r="I17">
-        <v>1.23E-3</v>
-      </c>
       <c r="J17">
         <v>1.23E-3</v>
       </c>
@@ -36844,8 +36851,11 @@
       <c r="AI17">
         <v>1.23E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ17">
+        <v>1.23E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -36867,9 +36877,6 @@
       <c r="H18">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="I18">
-        <v>6.9899999999999997E-3</v>
-      </c>
       <c r="J18">
         <v>6.9899999999999997E-3</v>
       </c>
@@ -36948,8 +36955,11 @@
       <c r="AI18">
         <v>6.9899999999999997E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>6.9899999999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -36971,9 +36981,6 @@
       <c r="H19">
         <v>0.15962999999999999</v>
       </c>
-      <c r="I19">
-        <v>0.15962999999999999</v>
-      </c>
       <c r="J19">
         <v>0.15962999999999999</v>
       </c>
@@ -37052,8 +37059,11 @@
       <c r="AI19">
         <v>0.15962999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>0.15962999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -37075,9 +37085,6 @@
       <c r="H20">
         <v>0.3644</v>
       </c>
-      <c r="I20">
-        <v>0.3644</v>
-      </c>
       <c r="J20">
         <v>0.3644</v>
       </c>
@@ -37156,8 +37163,11 @@
       <c r="AI20">
         <v>0.3644</v>
       </c>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ20">
+        <v>0.3644</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -37179,9 +37189,6 @@
       <c r="H21">
         <v>7.893E-2</v>
       </c>
-      <c r="I21">
-        <v>7.893E-2</v>
-      </c>
       <c r="J21">
         <v>7.893E-2</v>
       </c>
@@ -37260,8 +37267,11 @@
       <c r="AI21">
         <v>7.893E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <v>7.893E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -37283,9 +37293,6 @@
       <c r="H22">
         <v>1.57E-3</v>
       </c>
-      <c r="I22">
-        <v>1.57E-3</v>
-      </c>
       <c r="J22">
         <v>1.57E-3</v>
       </c>
@@ -37364,8 +37371,11 @@
       <c r="AI22">
         <v>1.57E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ22">
+        <v>1.57E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -37387,9 +37397,6 @@
       <c r="H23">
         <v>1.529E-2</v>
       </c>
-      <c r="I23">
-        <v>1.529E-2</v>
-      </c>
       <c r="J23">
         <v>1.529E-2</v>
       </c>
@@ -37468,8 +37475,11 @@
       <c r="AI23">
         <v>1.529E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ23">
+        <v>1.529E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -37491,9 +37501,6 @@
       <c r="H24">
         <v>0.23</v>
       </c>
-      <c r="I24">
-        <v>0.23</v>
-      </c>
       <c r="J24">
         <v>0.23</v>
       </c>
@@ -37572,8 +37579,11 @@
       <c r="AI24">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -37595,9 +37605,6 @@
       <c r="H25">
         <v>0.42102000000000001</v>
       </c>
-      <c r="I25">
-        <v>0.42102000000000001</v>
-      </c>
       <c r="J25">
         <v>0.42102000000000001</v>
       </c>
@@ -37676,8 +37683,11 @@
       <c r="AI25">
         <v>0.42102000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>0.42102000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -37699,9 +37709,6 @@
       <c r="H26">
         <v>0.12891</v>
       </c>
-      <c r="I26">
-        <v>0.12891</v>
-      </c>
       <c r="J26">
         <v>0.12891</v>
       </c>
@@ -37780,8 +37787,11 @@
       <c r="AI26">
         <v>0.12891</v>
       </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ26">
+        <v>0.12891</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -37803,9 +37813,6 @@
       <c r="H27">
         <v>5.1900000000000002E-3</v>
       </c>
-      <c r="I27">
-        <v>5.1900000000000002E-3</v>
-      </c>
       <c r="J27">
         <v>5.1900000000000002E-3</v>
       </c>
@@ -37884,8 +37891,11 @@
       <c r="AI27">
         <v>5.1900000000000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ27">
+        <v>5.1900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -37907,9 +37917,6 @@
       <c r="H28">
         <v>1.436E-2</v>
       </c>
-      <c r="I28">
-        <v>1.436E-2</v>
-      </c>
       <c r="J28">
         <v>1.436E-2</v>
       </c>
@@ -37988,8 +37995,11 @@
       <c r="AI28">
         <v>1.436E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ28">
+        <v>1.436E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -38011,9 +38021,6 @@
       <c r="H29">
         <v>0.22231999999999999</v>
       </c>
-      <c r="I29">
-        <v>0.22231999999999999</v>
-      </c>
       <c r="J29">
         <v>0.22231999999999999</v>
       </c>
@@ -38092,8 +38099,11 @@
       <c r="AI29">
         <v>0.22231999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ29">
+        <v>0.22231999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -38115,9 +38125,6 @@
       <c r="H30">
         <v>0.40501999999999999</v>
       </c>
-      <c r="I30">
-        <v>0.40501999999999999</v>
-      </c>
       <c r="J30">
         <v>0.40501999999999999</v>
       </c>
@@ -38196,8 +38203,11 @@
       <c r="AI30">
         <v>0.40501999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ30">
+        <v>0.40501999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -38219,9 +38229,6 @@
       <c r="H31">
         <v>0.11814</v>
       </c>
-      <c r="I31">
-        <v>0.11814</v>
-      </c>
       <c r="J31">
         <v>0.11814</v>
       </c>
@@ -38300,8 +38307,11 @@
       <c r="AI31">
         <v>0.11814</v>
       </c>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>0.11814</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -38323,9 +38333,6 @@
       <c r="H32">
         <v>4.7299999999999998E-3</v>
       </c>
-      <c r="I32">
-        <v>4.7299999999999998E-3</v>
-      </c>
       <c r="J32">
         <v>4.7299999999999998E-3</v>
       </c>
@@ -38404,8 +38411,11 @@
       <c r="AI32">
         <v>4.7299999999999998E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ32">
+        <v>4.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -38427,9 +38437,6 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -38508,8 +38515,11 @@
       <c r="AI33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -38531,9 +38541,6 @@
       <c r="H34">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="I34">
-        <v>6.0299999999999998E-3</v>
-      </c>
       <c r="J34">
         <v>6.0299999999999998E-3</v>
       </c>
@@ -38612,8 +38619,11 @@
       <c r="AI34">
         <v>6.0299999999999998E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ34">
+        <v>6.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -38635,9 +38645,6 @@
       <c r="H35">
         <v>0.11210000000000001</v>
       </c>
-      <c r="I35">
-        <v>0.11210000000000001</v>
-      </c>
       <c r="J35">
         <v>0.11210000000000001</v>
       </c>
@@ -38716,8 +38723,11 @@
       <c r="AI35">
         <v>0.11210000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>0.11210000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -38739,9 +38749,6 @@
       <c r="H36">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="I36">
-        <v>2.2000000000000001E-4</v>
-      </c>
       <c r="J36">
         <v>2.2000000000000001E-4</v>
       </c>
@@ -38820,8 +38827,11 @@
       <c r="AI36">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ36">
+        <v>2.2000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -38843,9 +38853,6 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
         <v>0</v>
       </c>
@@ -38924,8 +38931,11 @@
       <c r="AI37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -38947,9 +38957,6 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
         <v>0</v>
       </c>
@@ -39028,8 +39035,11 @@
       <c r="AI38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -39051,9 +39061,6 @@
       <c r="H39">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="I39">
-        <v>6.0499999999999998E-3</v>
-      </c>
       <c r="J39">
         <v>6.0499999999999998E-3</v>
       </c>
@@ -39132,8 +39139,11 @@
       <c r="AI39">
         <v>6.0499999999999998E-3</v>
       </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ39">
+        <v>6.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -39155,9 +39165,6 @@
       <c r="H40">
         <v>9.4469999999999998E-2</v>
       </c>
-      <c r="I40">
-        <v>9.4469999999999998E-2</v>
-      </c>
       <c r="J40">
         <v>9.4469999999999998E-2</v>
       </c>
@@ -39236,8 +39243,11 @@
       <c r="AI40">
         <v>9.4469999999999998E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ40">
+        <v>9.4469999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -39259,9 +39269,6 @@
       <c r="H41">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="I41">
-        <v>3.8999999999999999E-4</v>
-      </c>
       <c r="J41">
         <v>3.8999999999999999E-4</v>
       </c>
@@ -39340,8 +39347,11 @@
       <c r="AI41">
         <v>3.8999999999999999E-4</v>
       </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ41">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -39363,9 +39373,6 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
         <v>0</v>
       </c>
@@ -39442,6 +39449,9 @@
         <v>0</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>0</v>
       </c>
     </row>
@@ -39456,20 +39466,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AU42"/>
+  <dimension ref="B1:AV42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG2" sqref="H2:AG2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -39486,91 +39496,94 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -39586,11 +39599,8 @@
       <c r="F3">
         <v>9.1533729649914738E-3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.1533729649914738E-3</v>
-      </c>
-      <c r="H3">
-        <v>9.1533729649914703E-3</v>
       </c>
       <c r="I3">
         <v>9.1533729649914703E-3</v>
@@ -39667,11 +39677,14 @@
       <c r="AG3">
         <v>9.1533729649914703E-3</v>
       </c>
-      <c r="AJ3" s="22">
+      <c r="AH3">
+        <v>9.1533729649914703E-3</v>
+      </c>
+      <c r="AK3" s="22">
         <v>1.9570000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -39687,11 +39700,8 @@
       <c r="F4">
         <v>1.3184449671554993E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.3184449671554993E-2</v>
-      </c>
-      <c r="H4">
-        <v>1.3184449671555E-2</v>
       </c>
       <c r="I4">
         <v>1.3184449671555E-2</v>
@@ -39768,11 +39778,14 @@
       <c r="AG4">
         <v>1.3184449671555E-2</v>
       </c>
-      <c r="AJ4" s="23">
+      <c r="AH4">
+        <v>1.3184449671555E-2</v>
+      </c>
+      <c r="AK4" s="23">
         <v>6.7200000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -39788,11 +39801,8 @@
       <c r="F5">
         <v>1.8979531844574894E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.8979531844574894E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.89795318445749E-2</v>
       </c>
       <c r="I5">
         <v>1.89795318445749E-2</v>
@@ -39869,11 +39879,14 @@
       <c r="AG5">
         <v>1.89795318445749E-2</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AH5">
+        <v>1.89795318445749E-2</v>
+      </c>
+      <c r="AK5" s="22">
         <v>2.3550000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -39889,11 +39902,8 @@
       <c r="F6">
         <v>2.8526428688024075E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.8526428688024075E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.8526428688024099E-2</v>
       </c>
       <c r="I6">
         <v>2.8526428688024099E-2</v>
@@ -39970,11 +39980,14 @@
       <c r="AG6">
         <v>2.8526428688024099E-2</v>
       </c>
-      <c r="AJ6" s="23">
+      <c r="AH6">
+        <v>2.8526428688024099E-2</v>
+      </c>
+      <c r="AK6" s="23">
         <v>4.6600000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -39990,11 +40003,8 @@
       <c r="F7">
         <v>2.0007919900894417E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.0007919900894417E-2</v>
-      </c>
-      <c r="H7">
-        <v>2.00079199008944E-2</v>
       </c>
       <c r="I7">
         <v>2.00079199008944E-2</v>
@@ -40071,11 +40081,14 @@
       <c r="AG7">
         <v>2.00079199008944E-2</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AH7">
+        <v>2.00079199008944E-2</v>
+      </c>
+      <c r="AK7" s="22">
         <v>1.146E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -40091,9 +40104,6 @@
       <c r="F8">
         <v>1.0741368783764501E-2</v>
       </c>
-      <c r="G8">
-        <v>1.0741368783764501E-2</v>
-      </c>
       <c r="H8">
         <v>1.0741368783764501E-2</v>
       </c>
@@ -40172,11 +40182,14 @@
       <c r="AG8">
         <v>1.0741368783764501E-2</v>
       </c>
-      <c r="AJ8" s="23">
+      <c r="AH8">
+        <v>1.0741368783764501E-2</v>
+      </c>
+      <c r="AK8" s="23">
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -40192,11 +40205,8 @@
       <c r="F9">
         <v>1.6657398675134719E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.6657398675134719E-2</v>
-      </c>
-      <c r="H9">
-        <v>1.6657398675134698E-2</v>
       </c>
       <c r="I9">
         <v>1.6657398675134698E-2</v>
@@ -40273,11 +40283,14 @@
       <c r="AG9">
         <v>1.6657398675134698E-2</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AH9">
+        <v>1.6657398675134698E-2</v>
+      </c>
+      <c r="AK9" s="22">
         <v>1.6410000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -40293,11 +40306,8 @@
       <c r="F10">
         <v>2.1218102286642448E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.1218102286642448E-2</v>
-      </c>
-      <c r="H10">
-        <v>2.12181022866424E-2</v>
       </c>
       <c r="I10">
         <v>2.12181022866424E-2</v>
@@ -40374,11 +40384,14 @@
       <c r="AG10">
         <v>2.12181022866424E-2</v>
       </c>
-      <c r="AJ10" s="23">
+      <c r="AH10">
+        <v>2.12181022866424E-2</v>
+      </c>
+      <c r="AK10" s="23">
         <v>5.806E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -40394,11 +40407,8 @@
       <c r="F11">
         <v>3.0336116927766641E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.0336116927766641E-2</v>
-      </c>
-      <c r="H11">
-        <v>3.0336116927766599E-2</v>
       </c>
       <c r="I11">
         <v>3.0336116927766599E-2</v>
@@ -40475,13 +40485,15 @@
       <c r="AG11">
         <v>3.0336116927766599E-2</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AH11">
+        <v>3.0336116927766599E-2</v>
+      </c>
+      <c r="AK11" s="22">
         <v>1.1679999999999999E-2</v>
       </c>
-      <c r="AL11" s="27" t="s">
+      <c r="AM11" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AM11" s="27"/>
       <c r="AN11" s="27"/>
       <c r="AO11" s="27"/>
       <c r="AP11" s="27"/>
@@ -40490,8 +40502,9 @@
       <c r="AS11" s="27"/>
       <c r="AT11" s="27"/>
       <c r="AU11" s="27"/>
-    </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV11" s="27"/>
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -40507,11 +40520,8 @@
       <c r="F12">
         <v>2.1016786576413767E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.1016786576413767E-2</v>
-      </c>
-      <c r="H12">
-        <v>2.1016786576413801E-2</v>
       </c>
       <c r="I12">
         <v>2.1016786576413801E-2</v>
@@ -40588,10 +40598,12 @@
       <c r="AG12">
         <v>2.1016786576413801E-2</v>
       </c>
-      <c r="AJ12" s="23">
+      <c r="AH12">
+        <v>2.1016786576413801E-2</v>
+      </c>
+      <c r="AK12" s="23">
         <v>2.928E-2</v>
       </c>
-      <c r="AL12" s="27"/>
       <c r="AM12" s="27"/>
       <c r="AN12" s="27"/>
       <c r="AO12" s="27"/>
@@ -40601,8 +40613,9 @@
       <c r="AS12" s="27"/>
       <c r="AT12" s="27"/>
       <c r="AU12" s="27"/>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV12" s="27"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -40618,11 +40631,8 @@
       <c r="F13">
         <v>1.3159829545454752E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.3159829545454752E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.3159829545454801E-2</v>
       </c>
       <c r="I13">
         <v>1.3159829545454801E-2</v>
@@ -40699,13 +40709,15 @@
       <c r="AG13">
         <v>1.3159829545454801E-2</v>
       </c>
-      <c r="AJ13" s="22">
+      <c r="AH13">
+        <v>1.3159829545454801E-2</v>
+      </c>
+      <c r="AK13" s="22">
         <v>2.811E-2</v>
       </c>
-      <c r="AL13" s="27" t="s">
+      <c r="AM13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="AM13" s="27"/>
       <c r="AN13" s="27"/>
       <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
@@ -40714,8 +40726,9 @@
       <c r="AS13" s="27"/>
       <c r="AT13" s="27"/>
       <c r="AU13" s="27"/>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV13" s="27"/>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -40731,11 +40744,8 @@
       <c r="F14">
         <v>2.207731632853022E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.207731632853022E-2</v>
-      </c>
-      <c r="H14">
-        <v>2.2077316328530199E-2</v>
       </c>
       <c r="I14">
         <v>2.2077316328530199E-2</v>
@@ -40812,10 +40822,12 @@
       <c r="AG14">
         <v>2.2077316328530199E-2</v>
       </c>
-      <c r="AJ14" s="23">
+      <c r="AH14">
+        <v>2.2077316328530199E-2</v>
+      </c>
+      <c r="AK14" s="23">
         <v>9.0100000000000006E-3</v>
       </c>
-      <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
       <c r="AN14" s="27"/>
       <c r="AO14" s="27"/>
@@ -40825,8 +40837,9 @@
       <c r="AS14" s="27"/>
       <c r="AT14" s="27"/>
       <c r="AU14" s="27"/>
-    </row>
-    <row r="15" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV14" s="27"/>
+    </row>
+    <row r="15" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -40842,11 +40855,8 @@
       <c r="F15">
         <v>2.586472797176298E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.586472797176298E-2</v>
-      </c>
-      <c r="H15">
-        <v>2.5864727971763E-2</v>
       </c>
       <c r="I15">
         <v>2.5864727971763E-2</v>
@@ -40923,13 +40933,15 @@
       <c r="AG15">
         <v>2.5864727971763E-2</v>
       </c>
-      <c r="AJ15" s="22">
+      <c r="AH15">
+        <v>2.5864727971763E-2</v>
+      </c>
+      <c r="AK15" s="22">
         <v>2.9579999999999999E-2</v>
       </c>
-      <c r="AL15" s="29" t="s">
+      <c r="AM15" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="AM15" s="27"/>
       <c r="AN15" s="27"/>
       <c r="AO15" s="27"/>
       <c r="AP15" s="27"/>
@@ -40938,8 +40950,9 @@
       <c r="AS15" s="27"/>
       <c r="AT15" s="27"/>
       <c r="AU15" s="27"/>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV15" s="27"/>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -40955,11 +40968,8 @@
       <c r="F16">
         <v>3.9333592055955532E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.9333592055955532E-2</v>
-      </c>
-      <c r="H16">
-        <v>3.9333592055955498E-2</v>
       </c>
       <c r="I16">
         <v>3.9333592055955498E-2</v>
@@ -41036,13 +41046,15 @@
       <c r="AG16">
         <v>3.9333592055955498E-2</v>
       </c>
-      <c r="AJ16" s="23">
+      <c r="AH16">
+        <v>3.9333592055955498E-2</v>
+      </c>
+      <c r="AK16" s="23">
         <v>5.8300000000000001E-3</v>
       </c>
-      <c r="AL16" s="28" t="s">
+      <c r="AM16" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AM16" s="28"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="28"/>
       <c r="AP16" s="28"/>
@@ -41051,8 +41063,9 @@
       <c r="AS16" s="28"/>
       <c r="AT16" s="28"/>
       <c r="AU16" s="28"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AV16" s="28"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -41068,11 +41081,8 @@
       <c r="F17">
         <v>3.0701464807185951E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.0701464807185951E-2</v>
-      </c>
-      <c r="H17">
-        <v>3.0701464807186E-2</v>
       </c>
       <c r="I17">
         <v>3.0701464807186E-2</v>
@@ -41149,11 +41159,14 @@
       <c r="AG17">
         <v>3.0701464807186E-2</v>
       </c>
-      <c r="AJ17" s="22">
+      <c r="AH17">
+        <v>3.0701464807186E-2</v>
+      </c>
+      <c r="AK17" s="22">
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -41169,11 +41182,8 @@
       <c r="F18">
         <v>1.534817551000894E-2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.534817551000894E-2</v>
-      </c>
-      <c r="H18">
-        <v>1.53481755100089E-2</v>
       </c>
       <c r="I18">
         <v>1.53481755100089E-2</v>
@@ -41250,11 +41260,14 @@
       <c r="AG18">
         <v>1.53481755100089E-2</v>
       </c>
-      <c r="AJ18" s="23">
+      <c r="AH18">
+        <v>1.53481755100089E-2</v>
+      </c>
+      <c r="AK18" s="23">
         <v>6.0089999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -41270,11 +41283,8 @@
       <c r="F19">
         <v>3.3414286461511671E-2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.3414286461511671E-2</v>
-      </c>
-      <c r="H19">
-        <v>3.3414286461511698E-2</v>
       </c>
       <c r="I19">
         <v>3.3414286461511698E-2</v>
@@ -41351,11 +41361,14 @@
       <c r="AG19">
         <v>3.3414286461511698E-2</v>
       </c>
-      <c r="AJ19" s="22">
+      <c r="AH19">
+        <v>3.3414286461511698E-2</v>
+      </c>
+      <c r="AK19" s="22">
         <v>1.9109999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -41371,9 +41384,6 @@
       <c r="F20">
         <v>3.15188781003072E-2</v>
       </c>
-      <c r="G20">
-        <v>3.15188781003072E-2</v>
-      </c>
       <c r="H20">
         <v>3.15188781003072E-2</v>
       </c>
@@ -41452,11 +41462,14 @@
       <c r="AG20">
         <v>3.15188781003072E-2</v>
       </c>
-      <c r="AJ20" s="23">
+      <c r="AH20">
+        <v>3.15188781003072E-2</v>
+      </c>
+      <c r="AK20" s="23">
         <v>6.3700000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -41472,11 +41485,8 @@
       <c r="F21">
         <v>4.1532556905636474E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4.1532556905636474E-2</v>
-      </c>
-      <c r="H21">
-        <v>4.1532556905636502E-2</v>
       </c>
       <c r="I21">
         <v>4.1532556905636502E-2</v>
@@ -41553,11 +41563,14 @@
       <c r="AG21">
         <v>4.1532556905636502E-2</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AH21">
+        <v>4.1532556905636502E-2</v>
+      </c>
+      <c r="AK21" s="22">
         <v>1.2710000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -41573,11 +41586,8 @@
       <c r="F22">
         <v>3.3635035727637493E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.3635035727637493E-2</v>
-      </c>
-      <c r="H22">
-        <v>3.3635035727637499E-2</v>
       </c>
       <c r="I22">
         <v>3.3635035727637499E-2</v>
@@ -41654,11 +41664,14 @@
       <c r="AG22">
         <v>3.3635035727637499E-2</v>
       </c>
-      <c r="AJ22" s="23">
+      <c r="AH22">
+        <v>3.3635035727637499E-2</v>
+      </c>
+      <c r="AK22" s="23">
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -41674,11 +41687,8 @@
       <c r="F23">
         <v>7.1846575369898151E-3</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7.1846575369898151E-3</v>
-      </c>
-      <c r="H23">
-        <v>7.1846575369898203E-3</v>
       </c>
       <c r="I23">
         <v>7.1846575369898203E-3</v>
@@ -41755,11 +41765,14 @@
       <c r="AG23">
         <v>7.1846575369898203E-3</v>
       </c>
-      <c r="AJ23" s="22">
+      <c r="AH23">
+        <v>7.1846575369898203E-3</v>
+      </c>
+      <c r="AK23" s="22">
         <v>1.201E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -41775,11 +41788,8 @@
       <c r="F24">
         <v>1.1310862620182962E-2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.1310862620182962E-2</v>
-      </c>
-      <c r="H24">
-        <v>1.1310862620183E-2</v>
       </c>
       <c r="I24">
         <v>1.1310862620183E-2</v>
@@ -41856,11 +41866,14 @@
       <c r="AG24">
         <v>1.1310862620183E-2</v>
       </c>
-      <c r="AJ24" s="23">
+      <c r="AH24">
+        <v>1.1310862620183E-2</v>
+      </c>
+      <c r="AK24" s="23">
         <v>4.3899999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -41876,11 +41889,8 @@
       <c r="F25">
         <v>1.289554595199224E-2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.289554595199224E-2</v>
-      </c>
-      <c r="H25">
-        <v>1.28955459519922E-2</v>
       </c>
       <c r="I25">
         <v>1.28955459519922E-2</v>
@@ -41957,11 +41967,14 @@
       <c r="AG25">
         <v>1.28955459519922E-2</v>
       </c>
-      <c r="AJ25" s="22">
+      <c r="AH25">
+        <v>1.28955459519922E-2</v>
+      </c>
+      <c r="AK25" s="22">
         <v>1.213E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -41977,11 +41990,8 @@
       <c r="F26">
         <v>1.6423725752463963E-2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.6423725752463963E-2</v>
-      </c>
-      <c r="H26">
-        <v>1.6423725752464001E-2</v>
       </c>
       <c r="I26">
         <v>1.6423725752464001E-2</v>
@@ -42058,11 +42068,14 @@
       <c r="AG26">
         <v>1.6423725752464001E-2</v>
       </c>
-      <c r="AJ26" s="23">
+      <c r="AH26">
+        <v>1.6423725752464001E-2</v>
+      </c>
+      <c r="AK26" s="23">
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -42078,11 +42091,8 @@
       <c r="F27">
         <v>1.2335599537364536E-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.2335599537364536E-2</v>
-      </c>
-      <c r="H27">
-        <v>1.2335599537364499E-2</v>
       </c>
       <c r="I27">
         <v>1.2335599537364499E-2</v>
@@ -42159,11 +42169,14 @@
       <c r="AG27">
         <v>1.2335599537364499E-2</v>
       </c>
-      <c r="AJ27" s="22">
+      <c r="AH27">
+        <v>1.2335599537364499E-2</v>
+      </c>
+      <c r="AK27" s="22">
         <v>3.6099999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -42179,11 +42192,8 @@
       <c r="F28">
         <v>8.538255727288448E-3</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8.538255727288448E-3</v>
-      </c>
-      <c r="H28">
-        <v>8.5382557272884498E-3</v>
       </c>
       <c r="I28">
         <v>8.5382557272884498E-3</v>
@@ -42260,11 +42270,14 @@
       <c r="AG28">
         <v>8.5382557272884498E-3</v>
       </c>
-      <c r="AJ28" s="23">
+      <c r="AH28">
+        <v>8.5382557272884498E-3</v>
+      </c>
+      <c r="AK28" s="23">
         <v>2.4809999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -42280,11 +42293,8 @@
       <c r="F29">
         <v>1.0300765869683429E-2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.0300765869683429E-2</v>
-      </c>
-      <c r="H29">
-        <v>1.03007658696834E-2</v>
       </c>
       <c r="I29">
         <v>1.03007658696834E-2</v>
@@ -42361,11 +42371,14 @@
       <c r="AG29">
         <v>1.03007658696834E-2</v>
       </c>
-      <c r="AJ29" s="22">
+      <c r="AH29">
+        <v>1.03007658696834E-2</v>
+      </c>
+      <c r="AK29" s="22">
         <v>9.3500000000000007E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -42381,11 +42394,8 @@
       <c r="F30">
         <v>1.6874898360508411E-2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.6874898360508411E-2</v>
-      </c>
-      <c r="H30">
-        <v>1.68748983605084E-2</v>
       </c>
       <c r="I30">
         <v>1.68748983605084E-2</v>
@@ -42462,11 +42472,14 @@
       <c r="AG30">
         <v>1.68748983605084E-2</v>
       </c>
-      <c r="AJ30" s="23">
+      <c r="AH30">
+        <v>1.68748983605084E-2</v>
+      </c>
+      <c r="AK30" s="23">
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -42482,11 +42495,8 @@
       <c r="F31">
         <v>2.1192686352756205E-2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.1192686352756205E-2</v>
-      </c>
-      <c r="H31">
-        <v>2.1192686352756201E-2</v>
       </c>
       <c r="I31">
         <v>2.1192686352756201E-2</v>
@@ -42563,11 +42573,14 @@
       <c r="AG31">
         <v>2.1192686352756201E-2</v>
       </c>
-      <c r="AJ31" s="22">
+      <c r="AH31">
+        <v>2.1192686352756201E-2</v>
+      </c>
+      <c r="AK31" s="22">
         <v>3.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -42583,11 +42596,8 @@
       <c r="F32">
         <v>1.5199832819852656E-2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.5199832819852656E-2</v>
-      </c>
-      <c r="H32">
-        <v>1.51998328198527E-2</v>
       </c>
       <c r="I32">
         <v>1.51998328198527E-2</v>
@@ -42664,11 +42674,14 @@
       <c r="AG32">
         <v>1.51998328198527E-2</v>
       </c>
-      <c r="AJ32" s="23">
+      <c r="AH32">
+        <v>1.51998328198527E-2</v>
+      </c>
+      <c r="AK32" s="23">
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -42684,11 +42697,8 @@
       <c r="F33">
         <v>1.5401800374465629E-2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.5401800374465629E-2</v>
-      </c>
-      <c r="H33">
-        <v>1.5401800374465599E-2</v>
       </c>
       <c r="I33">
         <v>1.5401800374465599E-2</v>
@@ -42765,11 +42775,14 @@
       <c r="AG33">
         <v>1.5401800374465599E-2</v>
       </c>
-      <c r="AJ33" s="22">
+      <c r="AH33">
+        <v>1.5401800374465599E-2</v>
+      </c>
+      <c r="AK33" s="22">
         <v>3.7249999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -42785,11 +42798,8 @@
       <c r="F34">
         <v>2.6574802688663822E-2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.6574802688663822E-2</v>
-      </c>
-      <c r="H34">
-        <v>2.6574802688663801E-2</v>
       </c>
       <c r="I34">
         <v>2.6574802688663801E-2</v>
@@ -42866,11 +42876,14 @@
       <c r="AG34">
         <v>2.6574802688663801E-2</v>
       </c>
-      <c r="AJ34" s="23">
+      <c r="AH34">
+        <v>2.6574802688663801E-2</v>
+      </c>
+      <c r="AK34" s="23">
         <v>1.1769999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -42886,11 +42899,8 @@
       <c r="F35">
         <v>3.9281525376164632E-2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.9281525376164632E-2</v>
-      </c>
-      <c r="H35">
-        <v>3.9281525376164597E-2</v>
       </c>
       <c r="I35">
         <v>3.9281525376164597E-2</v>
@@ -42967,11 +42977,14 @@
       <c r="AG35">
         <v>3.9281525376164597E-2</v>
       </c>
-      <c r="AJ35" s="22">
+      <c r="AH35">
+        <v>3.9281525376164597E-2</v>
+      </c>
+      <c r="AK35" s="22">
         <v>4.5530000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -42987,11 +43000,8 @@
       <c r="F36">
         <v>5.980123632047124E-2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5.980123632047124E-2</v>
-      </c>
-      <c r="H36">
-        <v>5.9801236320471199E-2</v>
       </c>
       <c r="I36">
         <v>5.9801236320471199E-2</v>
@@ -43068,11 +43078,14 @@
       <c r="AG36">
         <v>5.9801236320471199E-2</v>
       </c>
-      <c r="AJ36" s="23">
+      <c r="AH36">
+        <v>5.9801236320471199E-2</v>
+      </c>
+      <c r="AK36" s="23">
         <v>1.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -43088,11 +43101,8 @@
       <c r="F37">
         <v>3.6658624594243183E-2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3.6658624594243183E-2</v>
-      </c>
-      <c r="H37">
-        <v>3.6658624594243197E-2</v>
       </c>
       <c r="I37">
         <v>3.6658624594243197E-2</v>
@@ -43169,11 +43179,14 @@
       <c r="AG37">
         <v>3.6658624594243197E-2</v>
       </c>
-      <c r="AJ37" s="22">
+      <c r="AH37">
+        <v>3.6658624594243197E-2</v>
+      </c>
+      <c r="AK37" s="22">
         <v>2.409E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -43189,11 +43202,8 @@
       <c r="F38">
         <v>1.9743013112110266E-2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1.9743013112110266E-2</v>
-      </c>
-      <c r="H38">
-        <v>1.97430131121103E-2</v>
       </c>
       <c r="I38">
         <v>1.97430131121103E-2</v>
@@ -43270,11 +43280,14 @@
       <c r="AG38">
         <v>1.97430131121103E-2</v>
       </c>
-      <c r="AJ38" s="23">
+      <c r="AH38">
+        <v>1.97430131121103E-2</v>
+      </c>
+      <c r="AK38" s="23">
         <v>7.3150000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -43290,11 +43303,8 @@
       <c r="F39">
         <v>3.8800029693955518E-2</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3.8800029693955518E-2</v>
-      </c>
-      <c r="H39">
-        <v>3.8800029693955497E-2</v>
       </c>
       <c r="I39">
         <v>3.8800029693955497E-2</v>
@@ -43371,11 +43381,14 @@
       <c r="AG39">
         <v>3.8800029693955497E-2</v>
       </c>
-      <c r="AJ39" s="22">
+      <c r="AH39">
+        <v>3.8800029693955497E-2</v>
+      </c>
+      <c r="AK39" s="22">
         <v>2.3460000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -43391,11 +43404,8 @@
       <c r="F40">
         <v>4.5387962857256485E-2</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>4.5387962857256485E-2</v>
-      </c>
-      <c r="H40">
-        <v>4.5387962857256499E-2</v>
       </c>
       <c r="I40">
         <v>4.5387962857256499E-2</v>
@@ -43472,11 +43482,14 @@
       <c r="AG40">
         <v>4.5387962857256499E-2</v>
       </c>
-      <c r="AJ40" s="23">
+      <c r="AH40">
+        <v>4.5387962857256499E-2</v>
+      </c>
+      <c r="AK40" s="23">
         <v>9.1060000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -43492,11 +43505,8 @@
       <c r="F41">
         <v>6.9179260821611535E-2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>6.9179260821611535E-2</v>
-      </c>
-      <c r="H41">
-        <v>6.9179260821611493E-2</v>
       </c>
       <c r="I41">
         <v>6.9179260821611493E-2</v>
@@ -43573,11 +43583,14 @@
       <c r="AG41">
         <v>6.9179260821611493E-2</v>
       </c>
-      <c r="AJ41" s="22">
+      <c r="AH41">
+        <v>6.9179260821611493E-2</v>
+      </c>
+      <c r="AK41" s="22">
         <v>2.0140000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -43593,11 +43606,8 @@
       <c r="F42">
         <v>4.0507573898221967E-2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>4.0507573898221967E-2</v>
-      </c>
-      <c r="H42">
-        <v>4.0507573898222002E-2</v>
       </c>
       <c r="I42">
         <v>4.0507573898222002E-2</v>
@@ -43674,16 +43684,19 @@
       <c r="AG42">
         <v>4.0507573898222002E-2</v>
       </c>
-      <c r="AJ42" s="23">
+      <c r="AH42">
+        <v>4.0507573898222002E-2</v>
+      </c>
+      <c r="AK42" s="23">
         <v>4.8759999999999998E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AL11:AU12"/>
-    <mergeCell ref="AL13:AU14"/>
-    <mergeCell ref="AL16:AU16"/>
-    <mergeCell ref="AL15:AU15"/>
+    <mergeCell ref="AM11:AV12"/>
+    <mergeCell ref="AM13:AV14"/>
+    <mergeCell ref="AM16:AV16"/>
+    <mergeCell ref="AM15:AV15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -43696,10 +43709,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:AH42"/>
+  <dimension ref="B1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH2" sqref="I2:AH2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43707,12 +43720,12 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -43732,88 +43745,91 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>25</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -43832,9 +43848,6 @@
       <c r="G3">
         <v>0.90688000000000002</v>
       </c>
-      <c r="H3">
-        <v>0.90688000000000002</v>
-      </c>
       <c r="I3">
         <v>0.90688000000000002</v>
       </c>
@@ -43913,8 +43926,11 @@
       <c r="AH3">
         <v>0.90688000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <v>0.90688000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -43933,9 +43949,6 @@
       <c r="G4">
         <v>1.0898300000000001</v>
       </c>
-      <c r="H4">
-        <v>1.0898300000000001</v>
-      </c>
       <c r="I4">
         <v>1.0898300000000001</v>
       </c>
@@ -44014,8 +44027,11 @@
       <c r="AH4">
         <v>1.0898300000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI4">
+        <v>1.0898300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -44034,9 +44050,6 @@
       <c r="G5">
         <v>0.95521</v>
       </c>
-      <c r="H5">
-        <v>0.95521</v>
-      </c>
       <c r="I5">
         <v>0.95521</v>
       </c>
@@ -44115,8 +44128,11 @@
       <c r="AH5">
         <v>0.95521</v>
       </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI5">
+        <v>0.95521</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -44135,9 +44151,6 @@
       <c r="G6">
         <v>0.75653000000000004</v>
       </c>
-      <c r="H6">
-        <v>0.75653000000000004</v>
-      </c>
       <c r="I6">
         <v>0.75653000000000004</v>
       </c>
@@ -44216,8 +44229,11 @@
       <c r="AH6">
         <v>0.75653000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI6">
+        <v>0.75653000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -44236,9 +44252,6 @@
       <c r="G7">
         <v>0.74341999999999997</v>
       </c>
-      <c r="H7">
-        <v>0.74341999999999997</v>
-      </c>
       <c r="I7">
         <v>0.74341999999999997</v>
       </c>
@@ -44317,8 +44330,11 @@
       <c r="AH7">
         <v>0.74341999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI7">
+        <v>0.74341999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -44337,9 +44353,6 @@
       <c r="G8">
         <v>0.94435000000000002</v>
       </c>
-      <c r="H8">
-        <v>0.94435000000000002</v>
-      </c>
       <c r="I8">
         <v>0.94435000000000002</v>
       </c>
@@ -44418,8 +44431,11 @@
       <c r="AH8">
         <v>0.94435000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI8">
+        <v>0.94435000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -44438,9 +44454,6 @@
       <c r="G9">
         <v>1.12294</v>
       </c>
-      <c r="H9">
-        <v>1.12294</v>
-      </c>
       <c r="I9">
         <v>1.12294</v>
       </c>
@@ -44519,8 +44532,11 @@
       <c r="AH9">
         <v>1.12294</v>
       </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI9">
+        <v>1.12294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -44539,9 +44555,6 @@
       <c r="G10">
         <v>0.99341000000000002</v>
       </c>
-      <c r="H10">
-        <v>0.99341000000000002</v>
-      </c>
       <c r="I10">
         <v>0.99341000000000002</v>
       </c>
@@ -44620,8 +44633,11 @@
       <c r="AH10">
         <v>0.99341000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI10">
+        <v>0.99341000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -44640,9 +44656,6 @@
       <c r="G11">
         <v>0.79964999999999997</v>
       </c>
-      <c r="H11">
-        <v>0.79964999999999997</v>
-      </c>
       <c r="I11">
         <v>0.79964999999999997</v>
       </c>
@@ -44721,8 +44734,11 @@
       <c r="AH11">
         <v>0.79964999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI11">
+        <v>0.79964999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -44741,9 +44757,6 @@
       <c r="G12">
         <v>0.80142999999999998</v>
       </c>
-      <c r="H12">
-        <v>0.80142999999999998</v>
-      </c>
       <c r="I12">
         <v>0.80142999999999998</v>
       </c>
@@ -44822,8 +44835,11 @@
       <c r="AH12">
         <v>0.80142999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI12">
+        <v>0.80142999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -44842,9 +44858,6 @@
       <c r="G13">
         <v>1.21305</v>
       </c>
-      <c r="H13">
-        <v>1.21305</v>
-      </c>
       <c r="I13">
         <v>1.21305</v>
       </c>
@@ -44923,8 +44936,11 @@
       <c r="AH13">
         <v>1.21305</v>
       </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI13">
+        <v>1.21305</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -44943,9 +44959,6 @@
       <c r="G14">
         <v>1.3615299999999999</v>
       </c>
-      <c r="H14">
-        <v>1.3615299999999999</v>
-      </c>
       <c r="I14">
         <v>1.3615299999999999</v>
       </c>
@@ -45024,8 +45037,11 @@
       <c r="AH14">
         <v>1.3615299999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI14">
+        <v>1.3615299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -45044,9 +45060,6 @@
       <c r="G15">
         <v>1.1169199999999999</v>
       </c>
-      <c r="H15">
-        <v>1.1169199999999999</v>
-      </c>
       <c r="I15">
         <v>1.1169199999999999</v>
       </c>
@@ -45125,8 +45138,11 @@
       <c r="AH15">
         <v>1.1169199999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI15">
+        <v>1.1169199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -45145,9 +45161,6 @@
       <c r="G16">
         <v>0.88107000000000002</v>
       </c>
-      <c r="H16">
-        <v>0.88107000000000002</v>
-      </c>
       <c r="I16">
         <v>0.88107000000000002</v>
       </c>
@@ -45226,8 +45239,11 @@
       <c r="AH16">
         <v>0.88107000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI16">
+        <v>0.88107000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -45246,9 +45262,6 @@
       <c r="G17">
         <v>0.92349999999999999</v>
       </c>
-      <c r="H17">
-        <v>0.92349999999999999</v>
-      </c>
       <c r="I17">
         <v>0.92349999999999999</v>
       </c>
@@ -45327,8 +45340,11 @@
       <c r="AH17">
         <v>0.92349999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI17">
+        <v>0.92349999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -45347,9 +45363,6 @@
       <c r="G18">
         <v>1.19356</v>
       </c>
-      <c r="H18">
-        <v>1.19356</v>
-      </c>
       <c r="I18">
         <v>1.19356</v>
       </c>
@@ -45428,8 +45441,11 @@
       <c r="AH18">
         <v>1.19356</v>
       </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI18">
+        <v>1.19356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -45448,9 +45464,6 @@
       <c r="G19">
         <v>1.3284400000000001</v>
       </c>
-      <c r="H19">
-        <v>1.3284400000000001</v>
-      </c>
       <c r="I19">
         <v>1.3284400000000001</v>
       </c>
@@ -45529,8 +45542,11 @@
       <c r="AH19">
         <v>1.3284400000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI19">
+        <v>1.3284400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -45549,9 +45565,6 @@
       <c r="G20">
         <v>1.1071599999999999</v>
       </c>
-      <c r="H20">
-        <v>1.1071599999999999</v>
-      </c>
       <c r="I20">
         <v>1.1071599999999999</v>
       </c>
@@ -45630,8 +45643,11 @@
       <c r="AH20">
         <v>1.1071599999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI20">
+        <v>1.1071599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -45650,9 +45666,6 @@
       <c r="G21">
         <v>0.88378999999999996</v>
       </c>
-      <c r="H21">
-        <v>0.88378999999999996</v>
-      </c>
       <c r="I21">
         <v>0.88378999999999996</v>
       </c>
@@ -45731,8 +45744,11 @@
       <c r="AH21">
         <v>0.88378999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI21">
+        <v>0.88378999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -45751,9 +45767,6 @@
       <c r="G22">
         <v>0.92042000000000002</v>
       </c>
-      <c r="H22">
-        <v>0.92042000000000002</v>
-      </c>
       <c r="I22">
         <v>0.92042000000000002</v>
       </c>
@@ -45832,8 +45845,11 @@
       <c r="AH22">
         <v>0.92042000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI22">
+        <v>0.92042000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -45852,9 +45868,6 @@
       <c r="G23">
         <v>0.53678999999999999</v>
       </c>
-      <c r="H23">
-        <v>0.53678999999999999</v>
-      </c>
       <c r="I23">
         <v>0.53678999999999999</v>
       </c>
@@ -45933,8 +45946,11 @@
       <c r="AH23">
         <v>0.53678999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI23">
+        <v>0.53678999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -45953,9 +45969,6 @@
       <c r="G24">
         <v>0.68625000000000003</v>
       </c>
-      <c r="H24">
-        <v>0.68625000000000003</v>
-      </c>
       <c r="I24">
         <v>0.68625000000000003</v>
       </c>
@@ -46034,8 +46047,11 @@
       <c r="AH24">
         <v>0.68625000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI24">
+        <v>0.68625000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -46054,9 +46070,6 @@
       <c r="G25">
         <v>0.47421999999999997</v>
       </c>
-      <c r="H25">
-        <v>0.47421999999999997</v>
-      </c>
       <c r="I25">
         <v>0.47421999999999997</v>
       </c>
@@ -46135,8 +46148,11 @@
       <c r="AH25">
         <v>0.47421999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI25">
+        <v>0.47421999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -46155,9 +46171,6 @@
       <c r="G26">
         <v>0.2432</v>
       </c>
-      <c r="H26">
-        <v>0.2432</v>
-      </c>
       <c r="I26">
         <v>0.2432</v>
       </c>
@@ -46236,8 +46249,11 @@
       <c r="AH26">
         <v>0.2432</v>
       </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI26">
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -46256,9 +46272,6 @@
       <c r="G27">
         <v>0.22589000000000001</v>
       </c>
-      <c r="H27">
-        <v>0.22589000000000001</v>
-      </c>
       <c r="I27">
         <v>0.22589000000000001</v>
       </c>
@@ -46337,8 +46350,11 @@
       <c r="AH27">
         <v>0.22589000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI27">
+        <v>0.22589000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -46357,9 +46373,6 @@
       <c r="G28">
         <v>0.48504000000000003</v>
       </c>
-      <c r="H28">
-        <v>0.48504000000000003</v>
-      </c>
       <c r="I28">
         <v>0.48504000000000003</v>
       </c>
@@ -46438,8 +46451,11 @@
       <c r="AH28">
         <v>0.48504000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI28">
+        <v>0.48504000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -46458,9 +46474,6 @@
       <c r="G29">
         <v>0.64010999999999996</v>
       </c>
-      <c r="H29">
-        <v>0.64010999999999996</v>
-      </c>
       <c r="I29">
         <v>0.64010999999999996</v>
       </c>
@@ -46539,8 +46552,11 @@
       <c r="AH29">
         <v>0.64010999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI29">
+        <v>0.64010999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -46559,9 +46575,6 @@
       <c r="G30">
         <v>0.48250999999999999</v>
       </c>
-      <c r="H30">
-        <v>0.48250999999999999</v>
-      </c>
       <c r="I30">
         <v>0.48250999999999999</v>
       </c>
@@ -46640,8 +46653,11 @@
       <c r="AH30">
         <v>0.48250999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI30">
+        <v>0.48250999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -46660,9 +46676,6 @@
       <c r="G31">
         <v>0.27161000000000002</v>
       </c>
-      <c r="H31">
-        <v>0.27161000000000002</v>
-      </c>
       <c r="I31">
         <v>0.27161000000000002</v>
       </c>
@@ -46741,8 +46754,11 @@
       <c r="AH31">
         <v>0.27161000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI31">
+        <v>0.27161000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -46761,9 +46777,6 @@
       <c r="G32">
         <v>0.23272000000000001</v>
       </c>
-      <c r="H32">
-        <v>0.23272000000000001</v>
-      </c>
       <c r="I32">
         <v>0.23272000000000001</v>
       </c>
@@ -46842,8 +46855,11 @@
       <c r="AH32">
         <v>0.23272000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI32">
+        <v>0.23272000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -46862,9 +46878,6 @@
       <c r="G33">
         <v>1.60748</v>
       </c>
-      <c r="H33">
-        <v>1.60748</v>
-      </c>
       <c r="I33">
         <v>1.60748</v>
       </c>
@@ -46943,8 +46956,11 @@
       <c r="AH33">
         <v>1.60748</v>
       </c>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI33">
+        <v>1.60748</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -46963,9 +46979,6 @@
       <c r="G34">
         <v>1.7771699999999999</v>
       </c>
-      <c r="H34">
-        <v>1.7771699999999999</v>
-      </c>
       <c r="I34">
         <v>1.7771699999999999</v>
       </c>
@@ -47044,8 +47057,11 @@
       <c r="AH34">
         <v>1.7771699999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI34">
+        <v>1.7771699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -47064,9 +47080,6 @@
       <c r="G35">
         <v>1.7190799999999999</v>
       </c>
-      <c r="H35">
-        <v>1.7190799999999999</v>
-      </c>
       <c r="I35">
         <v>1.7190799999999999</v>
       </c>
@@ -47145,8 +47158,11 @@
       <c r="AH35">
         <v>1.7190799999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI35">
+        <v>1.7190799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -47165,9 +47181,6 @@
       <c r="G36">
         <v>1.52077</v>
       </c>
-      <c r="H36">
-        <v>1.52077</v>
-      </c>
       <c r="I36">
         <v>1.52077</v>
       </c>
@@ -47246,8 +47259,11 @@
       <c r="AH36">
         <v>1.52077</v>
       </c>
-    </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI36">
+        <v>1.52077</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -47266,9 +47282,6 @@
       <c r="G37">
         <v>1.4550700000000001</v>
       </c>
-      <c r="H37">
-        <v>1.4550700000000001</v>
-      </c>
       <c r="I37">
         <v>1.4550700000000001</v>
       </c>
@@ -47347,8 +47360,11 @@
       <c r="AH37">
         <v>1.4550700000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI37">
+        <v>1.4550700000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -47367,9 +47383,6 @@
       <c r="G38">
         <v>1.5007699999999999</v>
       </c>
-      <c r="H38">
-        <v>1.5007699999999999</v>
-      </c>
       <c r="I38">
         <v>1.5007699999999999</v>
       </c>
@@ -47448,8 +47461,11 @@
       <c r="AH38">
         <v>1.5007699999999999</v>
       </c>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI38">
+        <v>1.5007699999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -47468,9 +47484,6 @@
       <c r="G39">
         <v>1.6842900000000001</v>
       </c>
-      <c r="H39">
-        <v>1.6842900000000001</v>
-      </c>
       <c r="I39">
         <v>1.6842900000000001</v>
       </c>
@@ -47549,8 +47562,11 @@
       <c r="AH39">
         <v>1.6842900000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI39">
+        <v>1.6842900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -47569,9 +47585,6 @@
       <c r="G40">
         <v>1.63463</v>
       </c>
-      <c r="H40">
-        <v>1.63463</v>
-      </c>
       <c r="I40">
         <v>1.63463</v>
       </c>
@@ -47650,8 +47663,11 @@
       <c r="AH40">
         <v>1.63463</v>
       </c>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI40">
+        <v>1.63463</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -47670,9 +47686,6 @@
       <c r="G41">
         <v>1.4461299999999999</v>
       </c>
-      <c r="H41">
-        <v>1.4461299999999999</v>
-      </c>
       <c r="I41">
         <v>1.4461299999999999</v>
       </c>
@@ -47751,8 +47764,11 @@
       <c r="AH41">
         <v>1.4461299999999999</v>
       </c>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AI41">
+        <v>1.4461299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -47771,9 +47787,6 @@
       <c r="G42">
         <v>1.4003099999999999</v>
       </c>
-      <c r="H42">
-        <v>1.4003099999999999</v>
-      </c>
       <c r="I42">
         <v>1.4003099999999999</v>
       </c>
@@ -47850,6 +47863,9 @@
         <v>1.4003099999999999</v>
       </c>
       <c r="AH42">
+        <v>1.4003099999999999</v>
+      </c>
+      <c r="AI42">
         <v>1.4003099999999999</v>
       </c>
     </row>
@@ -47864,20 +47880,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:AI42"/>
+  <dimension ref="B1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -47894,91 +47910,94 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -47994,11 +48013,8 @@
       <c r="F3">
         <v>1.8033549125505192E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.8033549125505192E-2</v>
-      </c>
-      <c r="H3">
-        <v>1.8033549125505199E-2</v>
       </c>
       <c r="I3">
         <v>1.8033549125505199E-2</v>
@@ -48075,11 +48091,14 @@
       <c r="AG3">
         <v>1.8033549125505199E-2</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AH3">
+        <v>1.8033549125505199E-2</v>
+      </c>
+      <c r="AJ3" s="22">
         <v>1.129E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -48095,11 +48114,8 @@
       <c r="F4">
         <v>2.0975356772416742E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.0975356772416742E-2</v>
-      </c>
-      <c r="H4">
-        <v>2.0975356772416701E-2</v>
       </c>
       <c r="I4">
         <v>2.0975356772416701E-2</v>
@@ -48176,11 +48192,14 @@
       <c r="AG4">
         <v>2.0975356772416701E-2</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AH4">
+        <v>2.0975356772416701E-2</v>
+      </c>
+      <c r="AJ4" s="23">
         <v>5.1599999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -48196,11 +48215,8 @@
       <c r="F5">
         <v>2.6188347222718966E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.6188347222718966E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.6188347222719E-2</v>
       </c>
       <c r="I5">
         <v>2.6188347222719E-2</v>
@@ -48277,11 +48293,14 @@
       <c r="AG5">
         <v>2.6188347222719E-2</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AH5">
+        <v>2.6188347222719E-2</v>
+      </c>
+      <c r="AJ5" s="22">
         <v>2.1059999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -48297,11 +48316,8 @@
       <c r="F6">
         <v>2.8531063342751871E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.8531063342751871E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.8531063342751899E-2</v>
       </c>
       <c r="I6">
         <v>2.8531063342751899E-2</v>
@@ -48378,11 +48394,14 @@
       <c r="AG6">
         <v>2.8531063342751899E-2</v>
       </c>
-      <c r="AI6" s="23">
+      <c r="AH6">
+        <v>2.8531063342751899E-2</v>
+      </c>
+      <c r="AJ6" s="23">
         <v>8.4799999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -48398,11 +48417,8 @@
       <c r="F7">
         <v>2.4060231052612742E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.4060231052612742E-2</v>
-      </c>
-      <c r="H7">
-        <v>2.40602310526127E-2</v>
       </c>
       <c r="I7">
         <v>2.40602310526127E-2</v>
@@ -48479,11 +48495,14 @@
       <c r="AG7">
         <v>2.40602310526127E-2</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AH7">
+        <v>2.40602310526127E-2</v>
+      </c>
+      <c r="AJ7" s="22">
         <v>1.6650000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -48499,11 +48518,8 @@
       <c r="F8">
         <v>1.8972423906434412E-2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.8972423906434412E-2</v>
-      </c>
-      <c r="H8">
-        <v>1.8972423906434398E-2</v>
       </c>
       <c r="I8">
         <v>1.8972423906434398E-2</v>
@@ -48580,11 +48596,14 @@
       <c r="AG8">
         <v>1.8972423906434398E-2</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AH8">
+        <v>1.8972423906434398E-2</v>
+      </c>
+      <c r="AJ8" s="23">
         <v>2.6780000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -48600,11 +48619,8 @@
       <c r="F9">
         <v>2.8700954969777155E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.8700954969777155E-2</v>
-      </c>
-      <c r="H9">
-        <v>2.87009549697772E-2</v>
       </c>
       <c r="I9">
         <v>2.87009549697772E-2</v>
@@ -48681,11 +48697,14 @@
       <c r="AG9">
         <v>2.87009549697772E-2</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AH9">
+        <v>2.87009549697772E-2</v>
+      </c>
+      <c r="AJ9" s="22">
         <v>1.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -48701,11 +48720,8 @@
       <c r="F10">
         <v>2.9970671340176669E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.9970671340176669E-2</v>
-      </c>
-      <c r="H10">
-        <v>2.99706713401767E-2</v>
       </c>
       <c r="I10">
         <v>2.99706713401767E-2</v>
@@ -48782,11 +48798,14 @@
       <c r="AG10">
         <v>2.99706713401767E-2</v>
       </c>
-      <c r="AI10" s="23">
+      <c r="AH10">
+        <v>2.99706713401767E-2</v>
+      </c>
+      <c r="AJ10" s="23">
         <v>5.3339999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -48802,11 +48821,8 @@
       <c r="F11">
         <v>3.2304445795629293E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.2304445795629293E-2</v>
-      </c>
-      <c r="H11">
-        <v>3.23044457956293E-2</v>
       </c>
       <c r="I11">
         <v>3.23044457956293E-2</v>
@@ -48883,11 +48899,14 @@
       <c r="AG11">
         <v>3.23044457956293E-2</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AH11">
+        <v>3.23044457956293E-2</v>
+      </c>
+      <c r="AJ11" s="22">
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -48903,11 +48922,8 @@
       <c r="F12">
         <v>2.6841088737079279E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.6841088737079279E-2</v>
-      </c>
-      <c r="H12">
-        <v>2.6841088737079299E-2</v>
       </c>
       <c r="I12">
         <v>2.6841088737079299E-2</v>
@@ -48984,11 +49000,14 @@
       <c r="AG12">
         <v>2.6841088737079299E-2</v>
       </c>
-      <c r="AI12" s="23">
+      <c r="AH12">
+        <v>2.6841088737079299E-2</v>
+      </c>
+      <c r="AJ12" s="23">
         <v>4.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -49004,11 +49023,8 @@
       <c r="F13">
         <v>1.7497049250688495E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.7497049250688495E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.7497049250688498E-2</v>
       </c>
       <c r="I13">
         <v>1.7497049250688498E-2</v>
@@ -49085,11 +49101,14 @@
       <c r="AG13">
         <v>1.7497049250688498E-2</v>
       </c>
-      <c r="AI13" s="22">
+      <c r="AH13">
+        <v>1.7497049250688498E-2</v>
+      </c>
+      <c r="AJ13" s="22">
         <v>1.6109999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -49105,11 +49124,8 @@
       <c r="F14">
         <v>2.0805465145391455E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.0805465145391455E-2</v>
-      </c>
-      <c r="H14">
-        <v>2.08054651453915E-2</v>
       </c>
       <c r="I14">
         <v>2.08054651453915E-2</v>
@@ -49186,11 +49202,14 @@
       <c r="AG14">
         <v>2.08054651453915E-2</v>
       </c>
-      <c r="AI14" s="23">
+      <c r="AH14">
+        <v>2.08054651453915E-2</v>
+      </c>
+      <c r="AJ14" s="23">
         <v>6.94E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -49206,11 +49225,8 @@
       <c r="F15">
         <v>2.4954397510640568E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.4954397510640568E-2</v>
-      </c>
-      <c r="H15">
-        <v>2.4954397510640599E-2</v>
       </c>
       <c r="I15">
         <v>2.4954397510640599E-2</v>
@@ -49287,11 +49303,14 @@
       <c r="AG15">
         <v>2.4954397510640599E-2</v>
       </c>
-      <c r="AI15" s="22">
+      <c r="AH15">
+        <v>2.4954397510640599E-2</v>
+      </c>
+      <c r="AJ15" s="22">
         <v>2.8969999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -49307,11 +49326,8 @@
       <c r="F16">
         <v>2.5473014056296706E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.5473014056296706E-2</v>
-      </c>
-      <c r="H16">
-        <v>2.5473014056296699E-2</v>
       </c>
       <c r="I16">
         <v>2.5473014056296699E-2</v>
@@ -49388,11 +49404,14 @@
       <c r="AG16">
         <v>2.5473014056296699E-2</v>
       </c>
-      <c r="AI16" s="23">
+      <c r="AH16">
+        <v>2.5473014056296699E-2</v>
+      </c>
+      <c r="AJ16" s="23">
         <v>1.025E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -49408,11 +49427,8 @@
       <c r="F17">
         <v>2.3371722879931313E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.3371722879931313E-2</v>
-      </c>
-      <c r="H17">
-        <v>2.3371722879931299E-2</v>
       </c>
       <c r="I17">
         <v>2.3371722879931299E-2</v>
@@ -49489,11 +49505,14 @@
       <c r="AG17">
         <v>2.3371722879931299E-2</v>
       </c>
-      <c r="AI17" s="22">
+      <c r="AH17">
+        <v>2.3371722879931299E-2</v>
+      </c>
+      <c r="AJ17" s="22">
         <v>2.2329999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -49509,11 +49528,8 @@
       <c r="F18">
         <v>1.8105082442147417E-2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.8105082442147417E-2</v>
-      </c>
-      <c r="H18">
-        <v>1.81050824421474E-2</v>
       </c>
       <c r="I18">
         <v>1.81050824421474E-2</v>
@@ -49590,11 +49606,14 @@
       <c r="AG18">
         <v>1.81050824421474E-2</v>
       </c>
-      <c r="AI18" s="23">
+      <c r="AH18">
+        <v>1.81050824421474E-2</v>
+      </c>
+      <c r="AJ18" s="23">
         <v>3.4729999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -49610,11 +49629,8 @@
       <c r="F19">
         <v>2.7234521978611523E-2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.7234521978611523E-2</v>
-      </c>
-      <c r="H19">
-        <v>2.7234521978611499E-2</v>
       </c>
       <c r="I19">
         <v>2.7234521978611499E-2</v>
@@ -49691,11 +49707,14 @@
       <c r="AG19">
         <v>2.7234521978611499E-2</v>
       </c>
-      <c r="AI19" s="22">
+      <c r="AH19">
+        <v>2.7234521978611499E-2</v>
+      </c>
+      <c r="AJ19" s="22">
         <v>1.436E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -49711,11 +49730,8 @@
       <c r="F20">
         <v>2.8700954969777155E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.8700954969777155E-2</v>
-      </c>
-      <c r="H20">
-        <v>2.87009549697772E-2</v>
       </c>
       <c r="I20">
         <v>2.87009549697772E-2</v>
@@ -49792,11 +49808,14 @@
       <c r="AG20">
         <v>2.87009549697772E-2</v>
       </c>
-      <c r="AI20" s="23">
+      <c r="AH20">
+        <v>2.87009549697772E-2</v>
+      </c>
+      <c r="AJ20" s="23">
         <v>6.4229999999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -49812,9 +49831,6 @@
       <c r="F21">
         <v>2.95057047820022E-2</v>
       </c>
-      <c r="G21">
-        <v>2.95057047820022E-2</v>
-      </c>
       <c r="H21">
         <v>2.95057047820022E-2</v>
       </c>
@@ -49893,11 +49909,14 @@
       <c r="AG21">
         <v>2.95057047820022E-2</v>
       </c>
-      <c r="AI21" s="22">
+      <c r="AH21">
+        <v>2.95057047820022E-2</v>
+      </c>
+      <c r="AJ21" s="22">
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -49913,11 +49932,8 @@
       <c r="F22">
         <v>2.6027397260273956E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2.6027397260273956E-2</v>
-      </c>
-      <c r="H22">
-        <v>2.6027397260274001E-2</v>
       </c>
       <c r="I22">
         <v>2.6027397260274001E-2</v>
@@ -49994,11 +50010,14 @@
       <c r="AG22">
         <v>2.6027397260274001E-2</v>
       </c>
-      <c r="AI22" s="23">
+      <c r="AH22">
+        <v>2.6027397260274001E-2</v>
+      </c>
+      <c r="AJ22" s="23">
         <v>4.9050000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -50014,11 +50033,8 @@
       <c r="F23">
         <v>1.6280982867770653E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.6280982867770653E-2</v>
-      </c>
-      <c r="H23">
-        <v>1.6280982867770698E-2</v>
       </c>
       <c r="I23">
         <v>1.6280982867770698E-2</v>
@@ -50095,11 +50111,14 @@
       <c r="AG23">
         <v>1.6280982867770698E-2</v>
       </c>
-      <c r="AI23" s="22">
+      <c r="AH23">
+        <v>1.6280982867770698E-2</v>
+      </c>
+      <c r="AJ23" s="22">
         <v>1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -50115,11 +50134,8 @@
       <c r="F24">
         <v>1.9249615508423037E-2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.9249615508423037E-2</v>
-      </c>
-      <c r="H24">
-        <v>1.9249615508422999E-2</v>
       </c>
       <c r="I24">
         <v>1.9249615508422999E-2</v>
@@ -50196,11 +50212,14 @@
       <c r="AG24">
         <v>1.9249615508422999E-2</v>
       </c>
-      <c r="AI24" s="23">
+      <c r="AH24">
+        <v>1.9249615508422999E-2</v>
+      </c>
+      <c r="AJ24" s="23">
         <v>5.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -50216,11 +50235,8 @@
       <c r="F25">
         <v>2.4078114381773298E-2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.4078114381773298E-2</v>
-      </c>
-      <c r="H25">
-        <v>2.4078114381773302E-2</v>
       </c>
       <c r="I25">
         <v>2.4078114381773302E-2</v>
@@ -50297,11 +50313,14 @@
       <c r="AG25">
         <v>2.4078114381773302E-2</v>
       </c>
-      <c r="AI25" s="22">
+      <c r="AH25">
+        <v>2.4078114381773302E-2</v>
+      </c>
+      <c r="AJ25" s="22">
         <v>2.2859999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -50317,11 +50336,8 @@
       <c r="F26">
         <v>2.4426839300404148E-2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.4426839300404148E-2</v>
-      </c>
-      <c r="H26">
-        <v>2.44268393004041E-2</v>
       </c>
       <c r="I26">
         <v>2.44268393004041E-2</v>
@@ -50398,11 +50414,14 @@
       <c r="AG26">
         <v>2.44268393004041E-2</v>
       </c>
-      <c r="AI26" s="23">
+      <c r="AH26">
+        <v>2.44268393004041E-2</v>
+      </c>
+      <c r="AJ26" s="23">
         <v>7.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -50418,11 +50437,8 @@
       <c r="F27">
         <v>2.1932114882506515E-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.1932114882506515E-2</v>
-      </c>
-      <c r="H27">
-        <v>2.1932114882506501E-2</v>
       </c>
       <c r="I27">
         <v>2.1932114882506501E-2</v>
@@ -50499,11 +50515,14 @@
       <c r="AG27">
         <v>2.1932114882506501E-2</v>
       </c>
-      <c r="AI27" s="22">
+      <c r="AH27">
+        <v>2.1932114882506501E-2</v>
+      </c>
+      <c r="AJ27" s="22">
         <v>1.6289999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -50519,11 +50538,8 @@
       <c r="F28">
         <v>1.6862191065488741E-2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.6862191065488741E-2</v>
-      </c>
-      <c r="H28">
-        <v>1.68621910654887E-2</v>
       </c>
       <c r="I28">
         <v>1.68621910654887E-2</v>
@@ -50600,11 +50616,14 @@
       <c r="AG28">
         <v>1.68621910654887E-2</v>
       </c>
-      <c r="AI28" s="23">
+      <c r="AH28">
+        <v>1.68621910654887E-2</v>
+      </c>
+      <c r="AJ28" s="23">
         <v>2.811E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -50620,11 +50639,8 @@
       <c r="F29">
         <v>2.4221181015057748E-2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.4221181015057748E-2</v>
-      </c>
-      <c r="H29">
-        <v>2.4221181015057699E-2</v>
       </c>
       <c r="I29">
         <v>2.4221181015057699E-2</v>
@@ -50701,11 +50717,14 @@
       <c r="AG29">
         <v>2.4221181015057699E-2</v>
       </c>
-      <c r="AI29" s="22">
+      <c r="AH29">
+        <v>2.4221181015057699E-2</v>
+      </c>
+      <c r="AJ29" s="22">
         <v>1.112E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -50721,11 +50740,8 @@
       <c r="F30">
         <v>2.7887263492971836E-2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.7887263492971836E-2</v>
-      </c>
-      <c r="H30">
-        <v>2.7887263492971801E-2</v>
       </c>
       <c r="I30">
         <v>2.7887263492971801E-2</v>
@@ -50802,11 +50818,14 @@
       <c r="AG30">
         <v>2.7887263492971801E-2</v>
       </c>
-      <c r="AI30" s="23">
+      <c r="AH30">
+        <v>2.7887263492971801E-2</v>
+      </c>
+      <c r="AJ30" s="23">
         <v>5.296E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -50822,11 +50841,8 @@
       <c r="F31">
         <v>2.8405880038627974E-2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.8405880038627974E-2</v>
-      </c>
-      <c r="H31">
-        <v>2.8405880038628002E-2</v>
       </c>
       <c r="I31">
         <v>2.8405880038628002E-2</v>
@@ -50903,11 +50919,14 @@
       <c r="AG31">
         <v>2.8405880038628002E-2</v>
       </c>
-      <c r="AI31" s="22">
+      <c r="AH31">
+        <v>2.8405880038628002E-2</v>
+      </c>
+      <c r="AJ31" s="22">
         <v>1.8120000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -50923,11 +50942,8 @@
       <c r="F32">
         <v>2.4310597660860533E-2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.4310597660860533E-2</v>
-      </c>
-      <c r="H32">
-        <v>2.4310597660860502E-2</v>
       </c>
       <c r="I32">
         <v>2.4310597660860502E-2</v>
@@ -51004,11 +51020,14 @@
       <c r="AG32">
         <v>2.4310597660860502E-2</v>
       </c>
-      <c r="AI32" s="23">
+      <c r="AH32">
+        <v>2.4310597660860502E-2</v>
+      </c>
+      <c r="AJ32" s="23">
         <v>3.7429999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -51024,11 +51043,8 @@
       <c r="F33">
         <v>1.9777173718659453E-2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.9777173718659453E-2</v>
-      </c>
-      <c r="H33">
-        <v>1.9777173718659499E-2</v>
       </c>
       <c r="I33">
         <v>1.9777173718659499E-2</v>
@@ -51105,11 +51121,14 @@
       <c r="AG33">
         <v>1.9777173718659499E-2</v>
       </c>
-      <c r="AI33" s="22">
+      <c r="AH33">
+        <v>1.9777173718659499E-2</v>
+      </c>
+      <c r="AJ33" s="22">
         <v>1.702E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -51125,11 +51144,8 @@
       <c r="F34">
         <v>2.2039414857469852E-2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.2039414857469852E-2</v>
-      </c>
-      <c r="H34">
-        <v>2.2039414857469901E-2</v>
       </c>
       <c r="I34">
         <v>2.2039414857469901E-2</v>
@@ -51206,11 +51222,14 @@
       <c r="AG34">
         <v>2.2039414857469901E-2</v>
       </c>
-      <c r="AI34" s="23">
+      <c r="AH34">
+        <v>2.2039414857469901E-2</v>
+      </c>
+      <c r="AJ34" s="23">
         <v>7.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -51226,11 +51245,8 @@
       <c r="F35">
         <v>2.7762080188847939E-2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.7762080188847939E-2</v>
-      </c>
-      <c r="H35">
-        <v>2.7762080188847901E-2</v>
       </c>
       <c r="I35">
         <v>2.7762080188847901E-2</v>
@@ -51307,11 +51323,14 @@
       <c r="AG35">
         <v>2.7762080188847901E-2</v>
       </c>
-      <c r="AI35" s="22">
+      <c r="AH35">
+        <v>2.7762080188847901E-2</v>
+      </c>
+      <c r="AJ35" s="22">
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -51327,11 +51346,8 @@
       <c r="F36">
         <v>3.2617404055939034E-2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.2617404055939034E-2</v>
-      </c>
-      <c r="H36">
-        <v>3.2617404055938999E-2</v>
       </c>
       <c r="I36">
         <v>3.2617404055938999E-2</v>
@@ -51408,11 +51424,14 @@
       <c r="AG36">
         <v>3.2617404055938999E-2</v>
       </c>
-      <c r="AI36" s="23">
+      <c r="AH36">
+        <v>3.2617404055938999E-2</v>
+      </c>
+      <c r="AJ36" s="23">
         <v>1.3050000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -51428,11 +51447,8 @@
       <c r="F37">
         <v>2.6841088737079279E-2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2.6841088737079279E-2</v>
-      </c>
-      <c r="H37">
-        <v>2.6841088737079299E-2</v>
       </c>
       <c r="I37">
         <v>2.6841088737079299E-2</v>
@@ -51509,11 +51525,14 @@
       <c r="AG37">
         <v>2.6841088737079299E-2</v>
       </c>
-      <c r="AI37" s="22">
+      <c r="AH37">
+        <v>2.6841088737079299E-2</v>
+      </c>
+      <c r="AJ37" s="22">
         <v>2.461E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -51529,11 +51548,8 @@
       <c r="F38">
         <v>2.0268965270574757E-2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2.0268965270574757E-2</v>
-      </c>
-      <c r="H38">
-        <v>2.0268965270574799E-2</v>
       </c>
       <c r="I38">
         <v>2.0268965270574799E-2</v>
@@ -51610,11 +51626,14 @@
       <c r="AG38">
         <v>2.0268965270574799E-2</v>
       </c>
-      <c r="AI38" s="23">
+      <c r="AH38">
+        <v>2.0268965270574799E-2</v>
+      </c>
+      <c r="AJ38" s="23">
         <v>3.6549999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -51630,11 +51649,8 @@
       <c r="F39">
         <v>2.9541471440323312E-2</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2.9541471440323312E-2</v>
-      </c>
-      <c r="H39">
-        <v>2.9541471440323298E-2</v>
       </c>
       <c r="I39">
         <v>2.9541471440323298E-2</v>
@@ -51711,11 +51727,14 @@
       <c r="AG39">
         <v>2.9541471440323298E-2</v>
       </c>
-      <c r="AI39" s="22">
+      <c r="AH39">
+        <v>2.9541471440323298E-2</v>
+      </c>
+      <c r="AJ39" s="22">
         <v>1.5429999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -51731,11 +51750,8 @@
       <c r="F40">
         <v>3.1481812654243692E-2</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.1481812654243692E-2</v>
-      </c>
-      <c r="H40">
-        <v>3.1481812654243699E-2</v>
       </c>
       <c r="I40">
         <v>3.1481812654243699E-2</v>
@@ -51812,11 +51828,14 @@
       <c r="AG40">
         <v>3.1481812654243699E-2</v>
       </c>
-      <c r="AI40" s="23">
+      <c r="AH40">
+        <v>3.1481812654243699E-2</v>
+      </c>
+      <c r="AJ40" s="23">
         <v>7.2840000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -51832,11 +51851,8 @@
       <c r="F41">
         <v>3.6256661540112284E-2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>3.6256661540112284E-2</v>
-      </c>
-      <c r="H41">
-        <v>3.6256661540112298E-2</v>
       </c>
       <c r="I41">
         <v>3.6256661540112298E-2</v>
@@ -51913,11 +51929,14 @@
       <c r="AG41">
         <v>3.6256661540112298E-2</v>
       </c>
-      <c r="AI41" s="22">
+      <c r="AH41">
+        <v>3.6256661540112298E-2</v>
+      </c>
+      <c r="AJ41" s="22">
         <v>2.9250000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -51933,9 +51952,6 @@
       <c r="F42">
         <v>2.95057047820022E-2</v>
       </c>
-      <c r="G42">
-        <v>2.95057047820022E-2</v>
-      </c>
       <c r="H42">
         <v>2.95057047820022E-2</v>
       </c>
@@ -52014,7 +52030,10 @@
       <c r="AG42">
         <v>2.95057047820022E-2</v>
       </c>
-      <c r="AI42" s="23">
+      <c r="AH42">
+        <v>2.95057047820022E-2</v>
+      </c>
+      <c r="AJ42" s="23">
         <v>5.3589999999999999E-2</v>
       </c>
     </row>

--- a/SuppXLS/Scen_A_SYS_SAD_40TS.xlsx
+++ b/SuppXLS/Scen_A_SYS_SAD_40TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8C13B-EE89-405B-BCD6-9E25704ABF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844A104-5762-4163-ACC0-F2BAE2288AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="149">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -1426,14 +1426,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9496426" cy="723901"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2025,7 +2025,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2113,13 +2113,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>176234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>29910</xdr:rowOff>
@@ -3961,9 +3961,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C857652E-33EB-4E0B-8A21-6A1115888913}" name="rsdsol3" displayName="rsdsol3" ref="B2:AI42" totalsRowShown="0">
-  <autoFilter ref="B2:AI42" xr:uid="{F30D45E5-896D-4C98-9FA5-6590016DF0E8}"/>
-  <tableColumns count="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C857652E-33EB-4E0B-8A21-6A1115888913}" name="rsdsol3" displayName="rsdsol3" ref="B2:AJ42" totalsRowShown="0">
+  <autoFilter ref="B2:AJ42" xr:uid="{F30D45E5-896D-4C98-9FA5-6590016DF0E8}"/>
+  <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{3455E92C-5A81-4C2A-A8F2-C36F90BF4E87}" name="TimeSlice"/>
     <tableColumn id="2" xr3:uid="{BFCC625C-4AC5-4665-82B2-9F6406833EBE}" name="Attribute"/>
     <tableColumn id="3" xr3:uid="{2689E2DD-8B54-408D-BBC7-C5249E764104}" name="Year"/>
@@ -3971,6 +3971,7 @@
     <tableColumn id="5" xr3:uid="{94F31D42-0BD8-40B7-AB15-399A8A9BC81D}" name="Pset_PN"/>
     <tableColumn id="6" xr3:uid="{7E1F1944-CCFC-41D5-AA1E-F5FD7816E31E}" name="Pset_CI"/>
     <tableColumn id="7" xr3:uid="{030406EE-4B75-4D0F-A488-B94815ED0645}" name="IE"/>
+    <tableColumn id="35" xr3:uid="{1A74DC7B-DD05-4DB7-9221-A03981502DDF}" name="Column1"/>
     <tableColumn id="8" xr3:uid="{282E8BB1-82D0-4EC2-AA06-7049BA58C671}" name="National"/>
     <tableColumn id="9" xr3:uid="{2D31AB4B-0F6D-4703-98B1-FA6054208B34}" name="IE-CW"/>
     <tableColumn id="10" xr3:uid="{99601336-A81F-4A5F-B9FD-1EEDFBAD5DF5}" name="IE-KK"/>
@@ -35802,7 +35803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916DD6D-BEB6-4B16-A1CD-EEF48A0890F6}">
   <dimension ref="B3:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
@@ -44294,10 +44295,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAB2503-B1FF-4F8E-BCAD-738C73A46BF0}">
-  <dimension ref="B1:AI42"/>
+  <dimension ref="B1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44305,12 +44306,12 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -44333,88 +44334,91 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -44436,9 +44440,6 @@
       <c r="H3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I3">
-        <v>5.9999999999999995E-4</v>
-      </c>
       <c r="J3">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -44517,8 +44518,11 @@
       <c r="AI3">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -44540,9 +44544,6 @@
       <c r="H4">
         <v>5.6349999999999997E-2</v>
       </c>
-      <c r="I4">
-        <v>5.6349999999999997E-2</v>
-      </c>
       <c r="J4">
         <v>5.6349999999999997E-2</v>
       </c>
@@ -44621,8 +44622,11 @@
       <c r="AI4">
         <v>5.6349999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ4">
+        <v>5.6349999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -44644,9 +44648,6 @@
       <c r="H5">
         <v>0.23627999999999999</v>
       </c>
-      <c r="I5">
-        <v>0.23627999999999999</v>
-      </c>
       <c r="J5">
         <v>0.23627999999999999</v>
       </c>
@@ -44725,8 +44726,11 @@
       <c r="AI5">
         <v>0.23627999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ5">
+        <v>0.23627999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -44748,9 +44752,6 @@
       <c r="H6">
         <v>1.7829999999999999E-2</v>
       </c>
-      <c r="I6">
-        <v>1.7829999999999999E-2</v>
-      </c>
       <c r="J6">
         <v>1.7829999999999999E-2</v>
       </c>
@@ -44829,8 +44830,11 @@
       <c r="AI6">
         <v>1.7829999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ6">
+        <v>1.7829999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -44852,9 +44856,6 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -44933,8 +44934,11 @@
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -44956,9 +44960,6 @@
       <c r="H8">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I8">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J8">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -45037,8 +45038,11 @@
       <c r="AI8">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -45060,9 +45064,6 @@
       <c r="H9">
         <v>4.7419999999999997E-2</v>
       </c>
-      <c r="I9">
-        <v>4.7419999999999997E-2</v>
-      </c>
       <c r="J9">
         <v>4.7419999999999997E-2</v>
       </c>
@@ -45141,8 +45142,11 @@
       <c r="AI9">
         <v>4.7419999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ9">
+        <v>4.7419999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -45164,9 +45168,6 @@
       <c r="H10">
         <v>0.22863</v>
       </c>
-      <c r="I10">
-        <v>0.22863</v>
-      </c>
       <c r="J10">
         <v>0.22863</v>
       </c>
@@ -45245,8 +45246,11 @@
       <c r="AI10">
         <v>0.22863</v>
       </c>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>0.22863</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -45268,9 +45272,6 @@
       <c r="H11">
         <v>1.503E-2</v>
       </c>
-      <c r="I11">
-        <v>1.503E-2</v>
-      </c>
       <c r="J11">
         <v>1.503E-2</v>
       </c>
@@ -45349,8 +45350,11 @@
       <c r="AI11">
         <v>1.503E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>1.503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -45372,9 +45376,6 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
@@ -45453,8 +45454,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -45476,9 +45480,6 @@
       <c r="H13">
         <v>5.28E-3</v>
       </c>
-      <c r="I13">
-        <v>5.28E-3</v>
-      </c>
       <c r="J13">
         <v>5.28E-3</v>
       </c>
@@ -45557,8 +45558,11 @@
       <c r="AI13">
         <v>5.28E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>5.28E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -45580,9 +45584,6 @@
       <c r="H14">
         <v>0.15382999999999999</v>
       </c>
-      <c r="I14">
-        <v>0.15382999999999999</v>
-      </c>
       <c r="J14">
         <v>0.15382999999999999</v>
       </c>
@@ -45661,8 +45662,11 @@
       <c r="AI14">
         <v>0.15382999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>0.15382999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -45684,9 +45688,6 @@
       <c r="H15">
         <v>0.3609</v>
       </c>
-      <c r="I15">
-        <v>0.3609</v>
-      </c>
       <c r="J15">
         <v>0.3609</v>
       </c>
@@ -45765,8 +45766,11 @@
       <c r="AI15">
         <v>0.3609</v>
       </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>0.3609</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -45788,9 +45792,6 @@
       <c r="H16">
         <v>7.6520000000000005E-2</v>
       </c>
-      <c r="I16">
-        <v>7.6520000000000005E-2</v>
-      </c>
       <c r="J16">
         <v>7.6520000000000005E-2</v>
       </c>
@@ -45869,8 +45870,11 @@
       <c r="AI16">
         <v>7.6520000000000005E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ16">
+        <v>7.6520000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -45892,9 +45896,6 @@
       <c r="H17">
         <v>1.23E-3</v>
       </c>
-      <c r="I17">
-        <v>1.23E-3</v>
-      </c>
       <c r="J17">
         <v>1.23E-3</v>
       </c>
@@ -45973,8 +45974,11 @@
       <c r="AI17">
         <v>1.23E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ17">
+        <v>1.23E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -45996,9 +46000,6 @@
       <c r="H18">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="I18">
-        <v>6.9899999999999997E-3</v>
-      </c>
       <c r="J18">
         <v>6.9899999999999997E-3</v>
       </c>
@@ -46077,8 +46078,11 @@
       <c r="AI18">
         <v>6.9899999999999997E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>6.9899999999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -46100,9 +46104,6 @@
       <c r="H19">
         <v>0.15962999999999999</v>
       </c>
-      <c r="I19">
-        <v>0.15962999999999999</v>
-      </c>
       <c r="J19">
         <v>0.15962999999999999</v>
       </c>
@@ -46181,8 +46182,11 @@
       <c r="AI19">
         <v>0.15962999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>0.15962999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -46204,9 +46208,6 @@
       <c r="H20">
         <v>0.3644</v>
       </c>
-      <c r="I20">
-        <v>0.3644</v>
-      </c>
       <c r="J20">
         <v>0.3644</v>
       </c>
@@ -46285,8 +46286,11 @@
       <c r="AI20">
         <v>0.3644</v>
       </c>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ20">
+        <v>0.3644</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -46308,9 +46312,6 @@
       <c r="H21">
         <v>7.893E-2</v>
       </c>
-      <c r="I21">
-        <v>7.893E-2</v>
-      </c>
       <c r="J21">
         <v>7.893E-2</v>
       </c>
@@ -46389,8 +46390,11 @@
       <c r="AI21">
         <v>7.893E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <v>7.893E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -46412,9 +46416,6 @@
       <c r="H22">
         <v>1.57E-3</v>
       </c>
-      <c r="I22">
-        <v>1.57E-3</v>
-      </c>
       <c r="J22">
         <v>1.57E-3</v>
       </c>
@@ -46493,8 +46494,11 @@
       <c r="AI22">
         <v>1.57E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ22">
+        <v>1.57E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -46516,9 +46520,6 @@
       <c r="H23">
         <v>1.529E-2</v>
       </c>
-      <c r="I23">
-        <v>1.529E-2</v>
-      </c>
       <c r="J23">
         <v>1.529E-2</v>
       </c>
@@ -46597,8 +46598,11 @@
       <c r="AI23">
         <v>1.529E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ23">
+        <v>1.529E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -46620,9 +46624,6 @@
       <c r="H24">
         <v>0.23</v>
       </c>
-      <c r="I24">
-        <v>0.23</v>
-      </c>
       <c r="J24">
         <v>0.23</v>
       </c>
@@ -46701,8 +46702,11 @@
       <c r="AI24">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -46724,9 +46728,6 @@
       <c r="H25">
         <v>0.42102000000000001</v>
       </c>
-      <c r="I25">
-        <v>0.42102000000000001</v>
-      </c>
       <c r="J25">
         <v>0.42102000000000001</v>
       </c>
@@ -46805,8 +46806,11 @@
       <c r="AI25">
         <v>0.42102000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>0.42102000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -46828,9 +46832,6 @@
       <c r="H26">
         <v>0.12891</v>
       </c>
-      <c r="I26">
-        <v>0.12891</v>
-      </c>
       <c r="J26">
         <v>0.12891</v>
       </c>
@@ -46909,8 +46910,11 @@
       <c r="AI26">
         <v>0.12891</v>
       </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ26">
+        <v>0.12891</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -46932,9 +46936,6 @@
       <c r="H27">
         <v>5.1900000000000002E-3</v>
       </c>
-      <c r="I27">
-        <v>5.1900000000000002E-3</v>
-      </c>
       <c r="J27">
         <v>5.1900000000000002E-3</v>
       </c>
@@ -47013,8 +47014,11 @@
       <c r="AI27">
         <v>5.1900000000000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ27">
+        <v>5.1900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -47036,9 +47040,6 @@
       <c r="H28">
         <v>1.436E-2</v>
       </c>
-      <c r="I28">
-        <v>1.436E-2</v>
-      </c>
       <c r="J28">
         <v>1.436E-2</v>
       </c>
@@ -47117,8 +47118,11 @@
       <c r="AI28">
         <v>1.436E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ28">
+        <v>1.436E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -47140,9 +47144,6 @@
       <c r="H29">
         <v>0.22231999999999999</v>
       </c>
-      <c r="I29">
-        <v>0.22231999999999999</v>
-      </c>
       <c r="J29">
         <v>0.22231999999999999</v>
       </c>
@@ -47221,8 +47222,11 @@
       <c r="AI29">
         <v>0.22231999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ29">
+        <v>0.22231999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -47244,9 +47248,6 @@
       <c r="H30">
         <v>0.40501999999999999</v>
       </c>
-      <c r="I30">
-        <v>0.40501999999999999</v>
-      </c>
       <c r="J30">
         <v>0.40501999999999999</v>
       </c>
@@ -47325,8 +47326,11 @@
       <c r="AI30">
         <v>0.40501999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ30">
+        <v>0.40501999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -47348,9 +47352,6 @@
       <c r="H31">
         <v>0.11814</v>
       </c>
-      <c r="I31">
-        <v>0.11814</v>
-      </c>
       <c r="J31">
         <v>0.11814</v>
       </c>
@@ -47429,8 +47430,11 @@
       <c r="AI31">
         <v>0.11814</v>
       </c>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>0.11814</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -47452,9 +47456,6 @@
       <c r="H32">
         <v>4.7299999999999998E-3</v>
       </c>
-      <c r="I32">
-        <v>4.7299999999999998E-3</v>
-      </c>
       <c r="J32">
         <v>4.7299999999999998E-3</v>
       </c>
@@ -47533,8 +47534,11 @@
       <c r="AI32">
         <v>4.7299999999999998E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ32">
+        <v>4.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -47556,9 +47560,6 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -47637,8 +47638,11 @@
       <c r="AI33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -47660,9 +47664,6 @@
       <c r="H34">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="I34">
-        <v>6.0299999999999998E-3</v>
-      </c>
       <c r="J34">
         <v>6.0299999999999998E-3</v>
       </c>
@@ -47741,8 +47742,11 @@
       <c r="AI34">
         <v>6.0299999999999998E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ34">
+        <v>6.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -47764,9 +47768,6 @@
       <c r="H35">
         <v>0.11210000000000001</v>
       </c>
-      <c r="I35">
-        <v>0.11210000000000001</v>
-      </c>
       <c r="J35">
         <v>0.11210000000000001</v>
       </c>
@@ -47845,8 +47846,11 @@
       <c r="AI35">
         <v>0.11210000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>0.11210000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -47868,9 +47872,6 @@
       <c r="H36">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="I36">
-        <v>2.2000000000000001E-4</v>
-      </c>
       <c r="J36">
         <v>2.2000000000000001E-4</v>
       </c>
@@ -47949,8 +47950,11 @@
       <c r="AI36">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ36">
+        <v>2.2000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -47972,9 +47976,6 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
         <v>0</v>
       </c>
@@ -48053,8 +48054,11 @@
       <c r="AI37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -48076,9 +48080,6 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
         <v>0</v>
       </c>
@@ -48157,8 +48158,11 @@
       <c r="AI38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -48180,9 +48184,6 @@
       <c r="H39">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="I39">
-        <v>6.0499999999999998E-3</v>
-      </c>
       <c r="J39">
         <v>6.0499999999999998E-3</v>
       </c>
@@ -48261,8 +48262,11 @@
       <c r="AI39">
         <v>6.0499999999999998E-3</v>
       </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ39">
+        <v>6.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -48284,9 +48288,6 @@
       <c r="H40">
         <v>9.4469999999999998E-2</v>
       </c>
-      <c r="I40">
-        <v>9.4469999999999998E-2</v>
-      </c>
       <c r="J40">
         <v>9.4469999999999998E-2</v>
       </c>
@@ -48365,8 +48366,11 @@
       <c r="AI40">
         <v>9.4469999999999998E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ40">
+        <v>9.4469999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -48388,9 +48392,6 @@
       <c r="H41">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="I41">
-        <v>3.8999999999999999E-4</v>
-      </c>
       <c r="J41">
         <v>3.8999999999999999E-4</v>
       </c>
@@ -48469,8 +48470,11 @@
       <c r="AI41">
         <v>3.8999999999999999E-4</v>
       </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ41">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -48492,9 +48496,6 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
         <v>0</v>
       </c>
@@ -48571,6 +48572,9 @@
         <v>0</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>0</v>
       </c>
     </row>
@@ -48589,7 +48593,7 @@
   <dimension ref="B1:AV42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_A_SYS_SAD_40TS.xlsx
+++ b/SuppXLS/Scen_A_SYS_SAD_40TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2736E99F-1169-4BC1-9A06-FE749D0535CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FF735-2CD7-425A-9981-1CBE9E2C9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,13 +577,13 @@
     <t>Region</t>
   </si>
   <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>*2</t>
+  </si>
+  <si>
+    <t>TFM_INS-TS</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -833,12 +833,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1341,6 +1335,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="44" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="47" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1350,7 +1345,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -6916,12 +6910,12 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -7005,11 +6999,11 @@
       <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -7037,11 +7031,11 @@
       <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
@@ -7129,11 +7123,11 @@
       <c r="A23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -7159,9 +7153,9 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7217,11 +7211,11 @@
       <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -7337,11 +7331,11 @@
       <c r="A30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="2"/>
@@ -7369,11 +7363,11 @@
       <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="2"/>
@@ -9359,10 +9353,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
         <v>144</v>
-      </c>
-      <c r="I2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -22876,7 +22870,7 @@
   <dimension ref="B1:AB202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22901,7 +22895,7 @@
         <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
@@ -22950,7 +22944,7 @@
       <c r="S2">
         <v>2018</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="31">
         <v>2030</v>
       </c>
       <c r="V2">
@@ -22987,6 +22981,14 @@
       </c>
       <c r="E3" t="s">
         <v>84</v>
+      </c>
+      <c r="F3" s="28">
+        <f>+S3</f>
+        <v>0.2615391879448738</v>
+      </c>
+      <c r="G3" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.2615391879448738</v>
       </c>
       <c r="I3" s="29">
         <v>0.21333065898580938</v>
@@ -23060,6 +23062,14 @@
       <c r="E4" t="s">
         <v>84</v>
       </c>
+      <c r="F4" s="28">
+        <f t="shared" ref="F4:F67" si="2">+S4</f>
+        <v>0.24662617086038857</v>
+      </c>
+      <c r="G4" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.24662617086038857</v>
+      </c>
       <c r="I4" s="29">
         <v>0.20273082763562536</v>
       </c>
@@ -23082,7 +23092,7 @@
         <v>84</v>
       </c>
       <c r="S4" s="28">
-        <f t="shared" ref="S4:S42" si="2">+J4</f>
+        <f t="shared" ref="S4:S42" si="3">+J4</f>
         <v>0.24662617086038857</v>
       </c>
       <c r="T4" s="28"/>
@@ -23095,27 +23105,27 @@
         <v>0.20273082763562536</v>
       </c>
       <c r="W4" s="28">
-        <f t="shared" ref="W4:W67" si="3">+V4</f>
+        <f t="shared" ref="W4:W67" si="4">+V4</f>
         <v>0.20273082763562536</v>
       </c>
       <c r="X4" s="28">
-        <f t="shared" ref="X4:X43" si="4">+U4</f>
+        <f t="shared" ref="X4:X43" si="5">+U4</f>
         <v>0.24662617086038857</v>
       </c>
       <c r="Y4" s="28">
-        <f t="shared" ref="Y4:Y67" si="5">+X4</f>
+        <f t="shared" ref="Y4:Y67" si="6">+X4</f>
         <v>0.24662617086038857</v>
       </c>
       <c r="Z4" s="28">
-        <f t="shared" ref="Z4:Z43" si="6">+V4</f>
+        <f t="shared" ref="Z4:Z43" si="7">+V4</f>
         <v>0.20273082763562536</v>
       </c>
       <c r="AA4" s="28">
-        <f t="shared" ref="AA4:AA43" si="7">+W4</f>
+        <f t="shared" ref="AA4:AA43" si="8">+W4</f>
         <v>0.20273082763562536</v>
       </c>
       <c r="AB4" s="28">
-        <f t="shared" ref="AB4:AB43" si="8">+Y4</f>
+        <f t="shared" ref="AB4:AB43" si="9">+Y4</f>
         <v>0.24662617086038857</v>
       </c>
     </row>
@@ -23132,6 +23142,14 @@
       <c r="E5" t="s">
         <v>84</v>
       </c>
+      <c r="F5" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27908670590727425</v>
+      </c>
+      <c r="G5" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.27908670590727425</v>
+      </c>
       <c r="I5" s="29">
         <v>0.21956958583887923</v>
       </c>
@@ -23154,7 +23172,7 @@
         <v>84</v>
       </c>
       <c r="S5" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27908670590727425</v>
       </c>
       <c r="T5" s="28"/>
@@ -23167,27 +23185,27 @@
         <v>0.21956958583887923</v>
       </c>
       <c r="W5" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21956958583887923</v>
       </c>
       <c r="X5" s="28">
-        <f t="shared" si="4"/>
-        <v>0.27908670590727425</v>
-      </c>
-      <c r="Y5" s="28">
         <f t="shared" si="5"/>
         <v>0.27908670590727425</v>
       </c>
+      <c r="Y5" s="28">
+        <f t="shared" si="6"/>
+        <v>0.27908670590727425</v>
+      </c>
       <c r="Z5" s="28">
-        <f t="shared" si="6"/>
-        <v>0.21956958583887923</v>
-      </c>
-      <c r="AA5" s="28">
         <f t="shared" si="7"/>
         <v>0.21956958583887923</v>
       </c>
+      <c r="AA5" s="28">
+        <f t="shared" si="8"/>
+        <v>0.21956958583887923</v>
+      </c>
       <c r="AB5" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27908670590727425</v>
       </c>
     </row>
@@ -23204,6 +23222,14 @@
       <c r="E6" t="s">
         <v>84</v>
       </c>
+      <c r="F6" s="28">
+        <f t="shared" si="2"/>
+        <v>0.28153817404249981</v>
+      </c>
+      <c r="G6" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.28153817404249981</v>
+      </c>
       <c r="I6" s="29">
         <v>0.2234790206883453</v>
       </c>
@@ -23226,7 +23252,7 @@
         <v>84</v>
       </c>
       <c r="S6" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28153817404249981</v>
       </c>
       <c r="T6" s="28"/>
@@ -23239,27 +23265,27 @@
         <v>0.2234790206883453</v>
       </c>
       <c r="W6" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2234790206883453</v>
       </c>
       <c r="X6" s="28">
-        <f t="shared" si="4"/>
-        <v>0.28153817404249981</v>
-      </c>
-      <c r="Y6" s="28">
         <f t="shared" si="5"/>
         <v>0.28153817404249981</v>
       </c>
+      <c r="Y6" s="28">
+        <f t="shared" si="6"/>
+        <v>0.28153817404249981</v>
+      </c>
       <c r="Z6" s="28">
-        <f t="shared" si="6"/>
-        <v>0.2234790206883453</v>
-      </c>
-      <c r="AA6" s="28">
         <f t="shared" si="7"/>
         <v>0.2234790206883453</v>
       </c>
+      <c r="AA6" s="28">
+        <f t="shared" si="8"/>
+        <v>0.2234790206883453</v>
+      </c>
       <c r="AB6" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.28153817404249981</v>
       </c>
     </row>
@@ -23276,6 +23302,14 @@
       <c r="E7" t="s">
         <v>84</v>
       </c>
+      <c r="F7" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26880152784071087</v>
+      </c>
+      <c r="G7" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.26880152784071087</v>
+      </c>
       <c r="I7" s="29">
         <v>0.21119130046350057</v>
       </c>
@@ -23298,7 +23332,7 @@
         <v>84</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26880152784071087</v>
       </c>
       <c r="T7" s="28"/>
@@ -23311,27 +23345,27 @@
         <v>0.21119130046350057</v>
       </c>
       <c r="W7" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21119130046350057</v>
       </c>
       <c r="X7" s="28">
-        <f t="shared" si="4"/>
-        <v>0.26880152784071087</v>
-      </c>
-      <c r="Y7" s="28">
         <f t="shared" si="5"/>
         <v>0.26880152784071087</v>
       </c>
+      <c r="Y7" s="28">
+        <f t="shared" si="6"/>
+        <v>0.26880152784071087</v>
+      </c>
       <c r="Z7" s="28">
-        <f t="shared" si="6"/>
-        <v>0.21119130046350057</v>
-      </c>
-      <c r="AA7" s="28">
         <f t="shared" si="7"/>
         <v>0.21119130046350057</v>
       </c>
+      <c r="AA7" s="28">
+        <f t="shared" si="8"/>
+        <v>0.21119130046350057</v>
+      </c>
       <c r="AB7" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26880152784071087</v>
       </c>
     </row>
@@ -23348,6 +23382,14 @@
       <c r="E8" t="s">
         <v>84</v>
       </c>
+      <c r="F8" s="28">
+        <f t="shared" si="2"/>
+        <v>0.30827219726668725</v>
+      </c>
+      <c r="G8" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.30827219726668725</v>
+      </c>
       <c r="I8" s="29">
         <v>0.30930087361926023</v>
       </c>
@@ -23370,7 +23412,7 @@
         <v>84</v>
       </c>
       <c r="S8" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30827219726668725</v>
       </c>
       <c r="T8" s="28"/>
@@ -23383,27 +23425,27 @@
         <v>0.30930087361926023</v>
       </c>
       <c r="W8" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30930087361926023</v>
       </c>
       <c r="X8" s="28">
-        <f t="shared" si="4"/>
-        <v>0.30827219726668725</v>
-      </c>
-      <c r="Y8" s="28">
         <f t="shared" si="5"/>
         <v>0.30827219726668725</v>
       </c>
+      <c r="Y8" s="28">
+        <f t="shared" si="6"/>
+        <v>0.30827219726668725</v>
+      </c>
       <c r="Z8" s="28">
-        <f t="shared" si="6"/>
-        <v>0.30930087361926023</v>
-      </c>
-      <c r="AA8" s="28">
         <f t="shared" si="7"/>
         <v>0.30930087361926023</v>
       </c>
+      <c r="AA8" s="28">
+        <f t="shared" si="8"/>
+        <v>0.30930087361926023</v>
+      </c>
       <c r="AB8" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30827219726668725</v>
       </c>
     </row>
@@ -23420,6 +23462,14 @@
       <c r="E9" t="s">
         <v>84</v>
       </c>
+      <c r="F9" s="28">
+        <f t="shared" si="2"/>
+        <v>0.32008843929690695</v>
+      </c>
+      <c r="G9" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.32008843929690695</v>
+      </c>
       <c r="I9" s="29">
         <v>0.29498586726923903</v>
       </c>
@@ -23442,7 +23492,7 @@
         <v>84</v>
       </c>
       <c r="S9" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32008843929690695</v>
       </c>
       <c r="T9" s="28"/>
@@ -23455,27 +23505,27 @@
         <v>0.29498586726923903</v>
       </c>
       <c r="W9" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29498586726923903</v>
       </c>
       <c r="X9" s="28">
-        <f t="shared" si="4"/>
-        <v>0.32008843929690695</v>
-      </c>
-      <c r="Y9" s="28">
         <f t="shared" si="5"/>
         <v>0.32008843929690695</v>
       </c>
+      <c r="Y9" s="28">
+        <f t="shared" si="6"/>
+        <v>0.32008843929690695</v>
+      </c>
       <c r="Z9" s="28">
-        <f t="shared" si="6"/>
-        <v>0.29498586726923903</v>
-      </c>
-      <c r="AA9" s="28">
         <f t="shared" si="7"/>
         <v>0.29498586726923903</v>
       </c>
+      <c r="AA9" s="28">
+        <f t="shared" si="8"/>
+        <v>0.29498586726923903</v>
+      </c>
       <c r="AB9" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32008843929690695</v>
       </c>
     </row>
@@ -23492,6 +23542,14 @@
       <c r="E10" t="s">
         <v>84</v>
       </c>
+      <c r="F10" s="28">
+        <f t="shared" si="2"/>
+        <v>0.34203810109737598</v>
+      </c>
+      <c r="G10" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.34203810109737598</v>
+      </c>
       <c r="I10" s="29">
         <v>0.33329368051433145</v>
       </c>
@@ -23514,7 +23572,7 @@
         <v>84</v>
       </c>
       <c r="S10" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34203810109737598</v>
       </c>
       <c r="T10" s="28"/>
@@ -23527,27 +23585,27 @@
         <v>0.33329368051433145</v>
       </c>
       <c r="W10" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33329368051433145</v>
       </c>
       <c r="X10" s="28">
-        <f t="shared" si="4"/>
-        <v>0.34203810109737598</v>
-      </c>
-      <c r="Y10" s="28">
         <f t="shared" si="5"/>
         <v>0.34203810109737598</v>
       </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="6"/>
+        <v>0.34203810109737598</v>
+      </c>
       <c r="Z10" s="28">
-        <f t="shared" si="6"/>
-        <v>0.33329368051433145</v>
-      </c>
-      <c r="AA10" s="28">
         <f t="shared" si="7"/>
         <v>0.33329368051433145</v>
       </c>
+      <c r="AA10" s="28">
+        <f t="shared" si="8"/>
+        <v>0.33329368051433145</v>
+      </c>
       <c r="AB10" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34203810109737598</v>
       </c>
     </row>
@@ -23564,6 +23622,14 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
+      <c r="F11" s="28">
+        <f t="shared" si="2"/>
+        <v>0.32038827974878886</v>
+      </c>
+      <c r="G11" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.32038827974878886</v>
+      </c>
       <c r="I11" s="29">
         <v>0.33412801544191639</v>
       </c>
@@ -23586,7 +23652,7 @@
         <v>84</v>
       </c>
       <c r="S11" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32038827974878886</v>
       </c>
       <c r="T11" s="28"/>
@@ -23599,27 +23665,27 @@
         <v>0.33412801544191639</v>
       </c>
       <c r="W11" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33412801544191639</v>
       </c>
       <c r="X11" s="28">
-        <f t="shared" si="4"/>
-        <v>0.32038827974878886</v>
-      </c>
-      <c r="Y11" s="28">
         <f t="shared" si="5"/>
         <v>0.32038827974878886</v>
       </c>
+      <c r="Y11" s="28">
+        <f t="shared" si="6"/>
+        <v>0.32038827974878886</v>
+      </c>
       <c r="Z11" s="28">
-        <f t="shared" si="6"/>
-        <v>0.33412801544191639</v>
-      </c>
-      <c r="AA11" s="28">
         <f t="shared" si="7"/>
         <v>0.33412801544191639</v>
       </c>
+      <c r="AA11" s="28">
+        <f t="shared" si="8"/>
+        <v>0.33412801544191639</v>
+      </c>
       <c r="AB11" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32038827974878886</v>
       </c>
     </row>
@@ -23636,6 +23702,14 @@
       <c r="E12" t="s">
         <v>84</v>
       </c>
+      <c r="F12" s="28">
+        <f t="shared" si="2"/>
+        <v>0.31619372495138154</v>
+      </c>
+      <c r="G12" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.31619372495138154</v>
+      </c>
       <c r="I12" s="29">
         <v>0.33336383421318228</v>
       </c>
@@ -23658,7 +23732,7 @@
         <v>84</v>
       </c>
       <c r="S12" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31619372495138154</v>
       </c>
       <c r="T12" s="28"/>
@@ -23671,27 +23745,27 @@
         <v>0.33336383421318228</v>
       </c>
       <c r="W12" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33336383421318228</v>
       </c>
       <c r="X12" s="28">
-        <f t="shared" si="4"/>
-        <v>0.31619372495138154</v>
-      </c>
-      <c r="Y12" s="28">
         <f t="shared" si="5"/>
         <v>0.31619372495138154</v>
       </c>
+      <c r="Y12" s="28">
+        <f t="shared" si="6"/>
+        <v>0.31619372495138154</v>
+      </c>
       <c r="Z12" s="28">
-        <f t="shared" si="6"/>
-        <v>0.33336383421318228</v>
-      </c>
-      <c r="AA12" s="28">
         <f t="shared" si="7"/>
         <v>0.33336383421318228</v>
       </c>
+      <c r="AA12" s="28">
+        <f t="shared" si="8"/>
+        <v>0.33336383421318228</v>
+      </c>
       <c r="AB12" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31619372495138154</v>
       </c>
     </row>
@@ -23708,6 +23782,14 @@
       <c r="E13" t="s">
         <v>84</v>
       </c>
+      <c r="F13" s="28">
+        <f t="shared" si="2"/>
+        <v>0.21146105259145612</v>
+      </c>
+      <c r="G13" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.21146105259145612</v>
+      </c>
       <c r="I13" s="29">
         <v>0.13642669419869599</v>
       </c>
@@ -23730,7 +23812,7 @@
         <v>84</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21146105259145612</v>
       </c>
       <c r="T13" s="28"/>
@@ -23743,27 +23825,27 @@
         <v>0.13642669419869599</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13642669419869599</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="4"/>
-        <v>0.21146105259145612</v>
-      </c>
-      <c r="Y13" s="28">
         <f t="shared" si="5"/>
         <v>0.21146105259145612</v>
       </c>
+      <c r="Y13" s="28">
+        <f t="shared" si="6"/>
+        <v>0.21146105259145612</v>
+      </c>
       <c r="Z13" s="28">
-        <f t="shared" si="6"/>
-        <v>0.13642669419869599</v>
-      </c>
-      <c r="AA13" s="28">
         <f t="shared" si="7"/>
         <v>0.13642669419869599</v>
       </c>
+      <c r="AA13" s="28">
+        <f t="shared" si="8"/>
+        <v>0.13642669419869599</v>
+      </c>
       <c r="AB13" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21146105259145612</v>
       </c>
     </row>
@@ -23780,6 +23862,14 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
+      <c r="F14" s="28">
+        <f t="shared" si="2"/>
+        <v>0.21569445096532994</v>
+      </c>
+      <c r="G14" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.21569445096532994</v>
+      </c>
       <c r="I14" s="29">
         <v>0.12640998558156102</v>
       </c>
@@ -23802,7 +23892,7 @@
         <v>84</v>
       </c>
       <c r="S14" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21569445096532994</v>
       </c>
       <c r="T14" s="28"/>
@@ -23815,27 +23905,27 @@
         <v>0.12640998558156102</v>
       </c>
       <c r="W14" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12640998558156102</v>
       </c>
       <c r="X14" s="28">
-        <f t="shared" si="4"/>
-        <v>0.21569445096532994</v>
-      </c>
-      <c r="Y14" s="28">
         <f t="shared" si="5"/>
         <v>0.21569445096532994</v>
       </c>
+      <c r="Y14" s="28">
+        <f t="shared" si="6"/>
+        <v>0.21569445096532994</v>
+      </c>
       <c r="Z14" s="28">
-        <f t="shared" si="6"/>
-        <v>0.12640998558156102</v>
-      </c>
-      <c r="AA14" s="28">
         <f t="shared" si="7"/>
         <v>0.12640998558156102</v>
       </c>
+      <c r="AA14" s="28">
+        <f t="shared" si="8"/>
+        <v>0.12640998558156102</v>
+      </c>
       <c r="AB14" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21569445096532994</v>
       </c>
     </row>
@@ -23852,6 +23942,14 @@
       <c r="E15" t="s">
         <v>84</v>
       </c>
+      <c r="F15" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26551406273912936</v>
+      </c>
+      <c r="G15" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.26551406273912936</v>
+      </c>
       <c r="I15" s="29">
         <v>0.16370285721196437</v>
       </c>
@@ -23874,7 +23972,7 @@
         <v>84</v>
       </c>
       <c r="S15" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26551406273912936</v>
       </c>
       <c r="T15" s="28"/>
@@ -23887,27 +23985,27 @@
         <v>0.16370285721196437</v>
       </c>
       <c r="W15" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16370285721196437</v>
       </c>
       <c r="X15" s="28">
-        <f t="shared" si="4"/>
-        <v>0.26551406273912936</v>
-      </c>
-      <c r="Y15" s="28">
         <f t="shared" si="5"/>
         <v>0.26551406273912936</v>
       </c>
+      <c r="Y15" s="28">
+        <f t="shared" si="6"/>
+        <v>0.26551406273912936</v>
+      </c>
       <c r="Z15" s="28">
-        <f t="shared" si="6"/>
-        <v>0.16370285721196437</v>
-      </c>
-      <c r="AA15" s="28">
         <f t="shared" si="7"/>
         <v>0.16370285721196437</v>
       </c>
+      <c r="AA15" s="28">
+        <f t="shared" si="8"/>
+        <v>0.16370285721196437</v>
+      </c>
       <c r="AB15" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26551406273912936</v>
       </c>
     </row>
@@ -23924,6 +24022,14 @@
       <c r="E16" t="s">
         <v>84</v>
       </c>
+      <c r="F16" s="28">
+        <f t="shared" si="2"/>
+        <v>0.25519963674072871</v>
+      </c>
+      <c r="G16" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.25519963674072871</v>
+      </c>
       <c r="I16" s="29">
         <v>0.18856982571073463</v>
       </c>
@@ -23946,7 +24052,7 @@
         <v>84</v>
       </c>
       <c r="S16" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25519963674072871</v>
       </c>
       <c r="T16" s="28"/>
@@ -23959,27 +24065,27 @@
         <v>0.18856982571073463</v>
       </c>
       <c r="W16" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18856982571073463</v>
       </c>
       <c r="X16" s="28">
-        <f t="shared" si="4"/>
-        <v>0.25519963674072871</v>
-      </c>
-      <c r="Y16" s="28">
         <f t="shared" si="5"/>
         <v>0.25519963674072871</v>
       </c>
+      <c r="Y16" s="28">
+        <f t="shared" si="6"/>
+        <v>0.25519963674072871</v>
+      </c>
       <c r="Z16" s="28">
-        <f t="shared" si="6"/>
-        <v>0.18856982571073463</v>
-      </c>
-      <c r="AA16" s="28">
         <f t="shared" si="7"/>
         <v>0.18856982571073463</v>
       </c>
+      <c r="AA16" s="28">
+        <f t="shared" si="8"/>
+        <v>0.18856982571073463</v>
+      </c>
       <c r="AB16" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.25519963674072871</v>
       </c>
     </row>
@@ -23996,6 +24102,14 @@
       <c r="E17" t="s">
         <v>84</v>
       </c>
+      <c r="F17" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22798302013074156</v>
+      </c>
+      <c r="G17" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.22798302013074156</v>
+      </c>
       <c r="I17" s="29">
         <v>0.18599450899803294</v>
       </c>
@@ -24018,7 +24132,7 @@
         <v>84</v>
       </c>
       <c r="S17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22798302013074156</v>
       </c>
       <c r="T17" s="28"/>
@@ -24031,27 +24145,27 @@
         <v>0.18599450899803294</v>
       </c>
       <c r="W17" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18599450899803294</v>
       </c>
       <c r="X17" s="28">
-        <f t="shared" si="4"/>
-        <v>0.22798302013074156</v>
-      </c>
-      <c r="Y17" s="28">
         <f t="shared" si="5"/>
         <v>0.22798302013074156</v>
       </c>
+      <c r="Y17" s="28">
+        <f t="shared" si="6"/>
+        <v>0.22798302013074156</v>
+      </c>
       <c r="Z17" s="28">
-        <f t="shared" si="6"/>
-        <v>0.18599450899803294</v>
-      </c>
-      <c r="AA17" s="28">
         <f t="shared" si="7"/>
         <v>0.18599450899803294</v>
       </c>
+      <c r="AA17" s="28">
+        <f t="shared" si="8"/>
+        <v>0.18599450899803294</v>
+      </c>
       <c r="AB17" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22798302013074156</v>
       </c>
     </row>
@@ -24068,6 +24182,14 @@
       <c r="E18" t="s">
         <v>84</v>
       </c>
+      <c r="F18" s="28">
+        <f t="shared" si="2"/>
+        <v>0.23280074715349736</v>
+      </c>
+      <c r="G18" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.23280074715349736</v>
+      </c>
       <c r="I18" s="29">
         <v>0.2008431079666845</v>
       </c>
@@ -24090,7 +24212,7 @@
         <v>84</v>
       </c>
       <c r="S18" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23280074715349736</v>
       </c>
       <c r="T18" s="28"/>
@@ -24103,27 +24225,27 @@
         <v>0.2008431079666845</v>
       </c>
       <c r="W18" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2008431079666845</v>
       </c>
       <c r="X18" s="28">
-        <f t="shared" si="4"/>
-        <v>0.23280074715349736</v>
-      </c>
-      <c r="Y18" s="28">
         <f t="shared" si="5"/>
         <v>0.23280074715349736</v>
       </c>
+      <c r="Y18" s="28">
+        <f t="shared" si="6"/>
+        <v>0.23280074715349736</v>
+      </c>
       <c r="Z18" s="28">
-        <f t="shared" si="6"/>
-        <v>0.2008431079666845</v>
-      </c>
-      <c r="AA18" s="28">
         <f t="shared" si="7"/>
         <v>0.2008431079666845</v>
       </c>
+      <c r="AA18" s="28">
+        <f t="shared" si="8"/>
+        <v>0.2008431079666845</v>
+      </c>
       <c r="AB18" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23280074715349736</v>
       </c>
     </row>
@@ -24140,6 +24262,14 @@
       <c r="E19" t="s">
         <v>84</v>
       </c>
+      <c r="F19" s="28">
+        <f t="shared" si="2"/>
+        <v>0.24795244955580448</v>
+      </c>
+      <c r="G19" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.24795244955580448</v>
+      </c>
       <c r="I19" s="29">
         <v>0.19175319444833813</v>
       </c>
@@ -24162,7 +24292,7 @@
         <v>84</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24795244955580448</v>
       </c>
       <c r="T19" s="28"/>
@@ -24175,27 +24305,27 @@
         <v>0.19175319444833813</v>
       </c>
       <c r="W19" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19175319444833813</v>
       </c>
       <c r="X19" s="28">
-        <f t="shared" si="4"/>
-        <v>0.24795244955580448</v>
-      </c>
-      <c r="Y19" s="28">
         <f t="shared" si="5"/>
         <v>0.24795244955580448</v>
       </c>
+      <c r="Y19" s="28">
+        <f t="shared" si="6"/>
+        <v>0.24795244955580448</v>
+      </c>
       <c r="Z19" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19175319444833813</v>
-      </c>
-      <c r="AA19" s="28">
         <f t="shared" si="7"/>
         <v>0.19175319444833813</v>
       </c>
+      <c r="AA19" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19175319444833813</v>
+      </c>
       <c r="AB19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.24795244955580448</v>
       </c>
     </row>
@@ -24212,6 +24342,14 @@
       <c r="E20" t="s">
         <v>84</v>
       </c>
+      <c r="F20" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27949263253762585</v>
+      </c>
+      <c r="G20" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.27949263253762585</v>
+      </c>
       <c r="I20" s="29">
         <v>0.21421153547780661</v>
       </c>
@@ -24234,7 +24372,7 @@
         <v>84</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27949263253762585</v>
       </c>
       <c r="T20" s="28"/>
@@ -24247,27 +24385,27 @@
         <v>0.21421153547780661</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21421153547780661</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" si="4"/>
-        <v>0.27949263253762585</v>
-      </c>
-      <c r="Y20" s="28">
         <f t="shared" si="5"/>
         <v>0.27949263253762585</v>
       </c>
+      <c r="Y20" s="28">
+        <f t="shared" si="6"/>
+        <v>0.27949263253762585</v>
+      </c>
       <c r="Z20" s="28">
-        <f t="shared" si="6"/>
-        <v>0.21421153547780661</v>
-      </c>
-      <c r="AA20" s="28">
         <f t="shared" si="7"/>
         <v>0.21421153547780661</v>
       </c>
+      <c r="AA20" s="28">
+        <f t="shared" si="8"/>
+        <v>0.21421153547780661</v>
+      </c>
       <c r="AB20" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27949263253762585</v>
       </c>
     </row>
@@ -24284,6 +24422,14 @@
       <c r="E21" t="s">
         <v>84</v>
       </c>
+      <c r="F21" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26669290546191438</v>
+      </c>
+      <c r="G21" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.26669290546191438</v>
+      </c>
       <c r="I21" s="29">
         <v>0.19764524519123439</v>
       </c>
@@ -24306,7 +24452,7 @@
         <v>84</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26669290546191438</v>
       </c>
       <c r="T21" s="28"/>
@@ -24319,27 +24465,27 @@
         <v>0.19764524519123439</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19764524519123439</v>
       </c>
       <c r="X21" s="28">
-        <f t="shared" si="4"/>
-        <v>0.26669290546191438</v>
-      </c>
-      <c r="Y21" s="28">
         <f t="shared" si="5"/>
         <v>0.26669290546191438</v>
       </c>
+      <c r="Y21" s="28">
+        <f t="shared" si="6"/>
+        <v>0.26669290546191438</v>
+      </c>
       <c r="Z21" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19764524519123439</v>
-      </c>
-      <c r="AA21" s="28">
         <f t="shared" si="7"/>
         <v>0.19764524519123439</v>
       </c>
+      <c r="AA21" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19764524519123439</v>
+      </c>
       <c r="AB21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26669290546191438</v>
       </c>
     </row>
@@ -24356,6 +24502,14 @@
       <c r="E22" t="s">
         <v>84</v>
       </c>
+      <c r="F22" s="28">
+        <f t="shared" si="2"/>
+        <v>0.23209688627044525</v>
+      </c>
+      <c r="G22" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.23209688627044525</v>
+      </c>
       <c r="I22" s="29">
         <v>0.18942298533620319</v>
       </c>
@@ -24378,7 +24532,7 @@
         <v>84</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23209688627044525</v>
       </c>
       <c r="T22" s="28"/>
@@ -24391,27 +24545,27 @@
         <v>0.18942298533620319</v>
       </c>
       <c r="W22" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18942298533620319</v>
       </c>
       <c r="X22" s="28">
-        <f t="shared" si="4"/>
-        <v>0.23209688627044525</v>
-      </c>
-      <c r="Y22" s="28">
         <f t="shared" si="5"/>
         <v>0.23209688627044525</v>
       </c>
+      <c r="Y22" s="28">
+        <f t="shared" si="6"/>
+        <v>0.23209688627044525</v>
+      </c>
       <c r="Z22" s="28">
-        <f t="shared" si="6"/>
-        <v>0.18942298533620319</v>
-      </c>
-      <c r="AA22" s="28">
         <f t="shared" si="7"/>
         <v>0.18942298533620319</v>
       </c>
+      <c r="AA22" s="28">
+        <f t="shared" si="8"/>
+        <v>0.18942298533620319</v>
+      </c>
       <c r="AB22" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23209688627044525</v>
       </c>
     </row>
@@ -24428,6 +24582,14 @@
       <c r="E23" t="s">
         <v>84</v>
       </c>
+      <c r="F23" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1241494032731557</v>
+      </c>
+      <c r="G23" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.1241494032731557</v>
+      </c>
       <c r="I23" s="29">
         <v>0.19748549699731627</v>
       </c>
@@ -24450,7 +24612,7 @@
         <v>84</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1241494032731557</v>
       </c>
       <c r="T23" s="28"/>
@@ -24463,27 +24625,27 @@
         <v>0.19748549699731627</v>
       </c>
       <c r="W23" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19748549699731627</v>
       </c>
       <c r="X23" s="28">
-        <f t="shared" si="4"/>
-        <v>0.1241494032731557</v>
-      </c>
-      <c r="Y23" s="28">
         <f t="shared" si="5"/>
         <v>0.1241494032731557</v>
       </c>
+      <c r="Y23" s="28">
+        <f t="shared" si="6"/>
+        <v>0.1241494032731557</v>
+      </c>
       <c r="Z23" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19748549699731627</v>
-      </c>
-      <c r="AA23" s="28">
         <f t="shared" si="7"/>
         <v>0.19748549699731627</v>
       </c>
+      <c r="AA23" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19748549699731627</v>
+      </c>
       <c r="AB23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1241494032731557</v>
       </c>
     </row>
@@ -24500,6 +24662,14 @@
       <c r="E24" t="s">
         <v>84</v>
       </c>
+      <c r="F24" s="28">
+        <f t="shared" si="2"/>
+        <v>0.12763334415320862</v>
+      </c>
+      <c r="G24" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.12763334415320862</v>
+      </c>
       <c r="I24" s="29">
         <v>0.19187099853298492</v>
       </c>
@@ -24522,7 +24692,7 @@
         <v>84</v>
       </c>
       <c r="S24" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12763334415320862</v>
       </c>
       <c r="T24" s="28"/>
@@ -24535,27 +24705,27 @@
         <v>0.19187099853298492</v>
       </c>
       <c r="W24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19187099853298492</v>
       </c>
       <c r="X24" s="28">
-        <f t="shared" si="4"/>
-        <v>0.12763334415320862</v>
-      </c>
-      <c r="Y24" s="28">
         <f t="shared" si="5"/>
         <v>0.12763334415320862</v>
       </c>
+      <c r="Y24" s="28">
+        <f t="shared" si="6"/>
+        <v>0.12763334415320862</v>
+      </c>
       <c r="Z24" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19187099853298492</v>
-      </c>
-      <c r="AA24" s="28">
         <f t="shared" si="7"/>
         <v>0.19187099853298492</v>
       </c>
+      <c r="AA24" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19187099853298492</v>
+      </c>
       <c r="AB24" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12763334415320862</v>
       </c>
     </row>
@@ -24572,6 +24742,14 @@
       <c r="E25" t="s">
         <v>84</v>
       </c>
+      <c r="F25" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16028909526939175</v>
+      </c>
+      <c r="G25" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.16028909526939175</v>
+      </c>
       <c r="I25" s="29">
         <v>0.23165969800300892</v>
       </c>
@@ -24594,7 +24772,7 @@
         <v>84</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16028909526939175</v>
       </c>
       <c r="T25" s="28"/>
@@ -24607,27 +24785,27 @@
         <v>0.23165969800300892</v>
       </c>
       <c r="W25" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23165969800300892</v>
       </c>
       <c r="X25" s="28">
-        <f t="shared" si="4"/>
-        <v>0.16028909526939175</v>
-      </c>
-      <c r="Y25" s="28">
         <f t="shared" si="5"/>
         <v>0.16028909526939175</v>
       </c>
+      <c r="Y25" s="28">
+        <f t="shared" si="6"/>
+        <v>0.16028909526939175</v>
+      </c>
       <c r="Z25" s="28">
-        <f t="shared" si="6"/>
-        <v>0.23165969800300892</v>
-      </c>
-      <c r="AA25" s="28">
         <f t="shared" si="7"/>
         <v>0.23165969800300892</v>
       </c>
+      <c r="AA25" s="28">
+        <f t="shared" si="8"/>
+        <v>0.23165969800300892</v>
+      </c>
       <c r="AB25" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16028909526939175</v>
       </c>
     </row>
@@ -24644,6 +24822,14 @@
       <c r="E26" t="s">
         <v>84</v>
       </c>
+      <c r="F26" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16699744707929676</v>
+      </c>
+      <c r="G26" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.16699744707929676</v>
+      </c>
       <c r="I26" s="29">
         <v>0.22530726439396803</v>
       </c>
@@ -24666,7 +24852,7 @@
         <v>84</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16699744707929676</v>
       </c>
       <c r="T26" s="28"/>
@@ -24679,27 +24865,27 @@
         <v>0.22530726439396803</v>
       </c>
       <c r="W26" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22530726439396803</v>
       </c>
       <c r="X26" s="28">
-        <f t="shared" si="4"/>
-        <v>0.16699744707929676</v>
-      </c>
-      <c r="Y26" s="28">
         <f t="shared" si="5"/>
         <v>0.16699744707929676</v>
       </c>
+      <c r="Y26" s="28">
+        <f t="shared" si="6"/>
+        <v>0.16699744707929676</v>
+      </c>
       <c r="Z26" s="28">
-        <f t="shared" si="6"/>
-        <v>0.22530726439396803</v>
-      </c>
-      <c r="AA26" s="28">
         <f t="shared" si="7"/>
         <v>0.22530726439396803</v>
       </c>
+      <c r="AA26" s="28">
+        <f t="shared" si="8"/>
+        <v>0.22530726439396803</v>
+      </c>
       <c r="AB26" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16699744707929676</v>
       </c>
     </row>
@@ -24716,6 +24902,14 @@
       <c r="E27" t="s">
         <v>84</v>
       </c>
+      <c r="F27" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15504261103793687</v>
+      </c>
+      <c r="G27" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.15504261103793687</v>
+      </c>
       <c r="I27" s="29">
         <v>0.19185095260198426</v>
       </c>
@@ -24738,7 +24932,7 @@
         <v>84</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15504261103793687</v>
       </c>
       <c r="T27" s="28"/>
@@ -24751,27 +24945,27 @@
         <v>0.19185095260198426</v>
       </c>
       <c r="W27" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19185095260198426</v>
       </c>
       <c r="X27" s="28">
-        <f t="shared" si="4"/>
-        <v>0.15504261103793687</v>
-      </c>
-      <c r="Y27" s="28">
         <f t="shared" si="5"/>
         <v>0.15504261103793687</v>
       </c>
+      <c r="Y27" s="28">
+        <f t="shared" si="6"/>
+        <v>0.15504261103793687</v>
+      </c>
       <c r="Z27" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19185095260198426</v>
-      </c>
-      <c r="AA27" s="28">
         <f t="shared" si="7"/>
         <v>0.19185095260198426</v>
       </c>
+      <c r="AA27" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19185095260198426</v>
+      </c>
       <c r="AB27" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15504261103793687</v>
       </c>
     </row>
@@ -24788,6 +24982,14 @@
       <c r="E28" t="s">
         <v>84</v>
       </c>
+      <c r="F28" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1465946799033441</v>
+      </c>
+      <c r="G28" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.1465946799033441</v>
+      </c>
       <c r="I28" s="29">
         <v>0.17763352641537994</v>
       </c>
@@ -24810,7 +25012,7 @@
         <v>84</v>
       </c>
       <c r="S28" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1465946799033441</v>
       </c>
       <c r="T28" s="28"/>
@@ -24823,27 +25025,27 @@
         <v>0.17763352641537994</v>
       </c>
       <c r="W28" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17763352641537994</v>
       </c>
       <c r="X28" s="28">
-        <f t="shared" si="4"/>
-        <v>0.1465946799033441</v>
-      </c>
-      <c r="Y28" s="28">
         <f t="shared" si="5"/>
         <v>0.1465946799033441</v>
       </c>
+      <c r="Y28" s="28">
+        <f t="shared" si="6"/>
+        <v>0.1465946799033441</v>
+      </c>
       <c r="Z28" s="28">
-        <f t="shared" si="6"/>
-        <v>0.17763352641537994</v>
-      </c>
-      <c r="AA28" s="28">
         <f t="shared" si="7"/>
         <v>0.17763352641537994</v>
       </c>
+      <c r="AA28" s="28">
+        <f t="shared" si="8"/>
+        <v>0.17763352641537994</v>
+      </c>
       <c r="AB28" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1465946799033441</v>
       </c>
     </row>
@@ -24860,6 +25062,14 @@
       <c r="E29" t="s">
         <v>84</v>
       </c>
+      <c r="F29" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15306829123984228</v>
+      </c>
+      <c r="G29" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.15306829123984228</v>
+      </c>
       <c r="I29" s="29">
         <v>0.18732950991961</v>
       </c>
@@ -24882,7 +25092,7 @@
         <v>84</v>
       </c>
       <c r="S29" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15306829123984228</v>
       </c>
       <c r="T29" s="28"/>
@@ -24895,27 +25105,27 @@
         <v>0.18732950991961</v>
       </c>
       <c r="W29" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18732950991961</v>
       </c>
       <c r="X29" s="28">
-        <f t="shared" si="4"/>
-        <v>0.15306829123984228</v>
-      </c>
-      <c r="Y29" s="28">
         <f t="shared" si="5"/>
         <v>0.15306829123984228</v>
       </c>
+      <c r="Y29" s="28">
+        <f t="shared" si="6"/>
+        <v>0.15306829123984228</v>
+      </c>
       <c r="Z29" s="28">
-        <f t="shared" si="6"/>
-        <v>0.18732950991961</v>
-      </c>
-      <c r="AA29" s="28">
         <f t="shared" si="7"/>
         <v>0.18732950991961</v>
       </c>
+      <c r="AA29" s="28">
+        <f t="shared" si="8"/>
+        <v>0.18732950991961</v>
+      </c>
       <c r="AB29" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15306829123984228</v>
       </c>
     </row>
@@ -24932,6 +25142,14 @@
       <c r="E30" t="s">
         <v>84</v>
       </c>
+      <c r="F30" s="28">
+        <f t="shared" si="2"/>
+        <v>0.19365448041342401</v>
+      </c>
+      <c r="G30" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.19365448041342401</v>
+      </c>
       <c r="I30" s="29">
         <v>0.22748908364661641</v>
       </c>
@@ -24954,7 +25172,7 @@
         <v>84</v>
       </c>
       <c r="S30" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19365448041342401</v>
       </c>
       <c r="T30" s="28"/>
@@ -24967,27 +25185,27 @@
         <v>0.22748908364661641</v>
       </c>
       <c r="W30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22748908364661641</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" si="4"/>
-        <v>0.19365448041342401</v>
-      </c>
-      <c r="Y30" s="28">
         <f t="shared" si="5"/>
         <v>0.19365448041342401</v>
       </c>
+      <c r="Y30" s="28">
+        <f t="shared" si="6"/>
+        <v>0.19365448041342401</v>
+      </c>
       <c r="Z30" s="28">
-        <f t="shared" si="6"/>
-        <v>0.22748908364661641</v>
-      </c>
-      <c r="AA30" s="28">
         <f t="shared" si="7"/>
         <v>0.22748908364661641</v>
       </c>
+      <c r="AA30" s="28">
+        <f t="shared" si="8"/>
+        <v>0.22748908364661641</v>
+      </c>
       <c r="AB30" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19365448041342401</v>
       </c>
     </row>
@@ -25004,6 +25222,14 @@
       <c r="E31" t="s">
         <v>84</v>
       </c>
+      <c r="F31" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17988046286047893</v>
+      </c>
+      <c r="G31" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.17988046286047893</v>
+      </c>
       <c r="I31" s="29">
         <v>0.21998500799405341</v>
       </c>
@@ -25026,7 +25252,7 @@
         <v>84</v>
       </c>
       <c r="S31" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17988046286047893</v>
       </c>
       <c r="T31" s="28"/>
@@ -25039,27 +25265,27 @@
         <v>0.21998500799405341</v>
       </c>
       <c r="W31" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21998500799405341</v>
       </c>
       <c r="X31" s="28">
-        <f t="shared" si="4"/>
-        <v>0.17988046286047893</v>
-      </c>
-      <c r="Y31" s="28">
         <f t="shared" si="5"/>
         <v>0.17988046286047893</v>
       </c>
+      <c r="Y31" s="28">
+        <f t="shared" si="6"/>
+        <v>0.17988046286047893</v>
+      </c>
       <c r="Z31" s="28">
-        <f t="shared" si="6"/>
-        <v>0.21998500799405341</v>
-      </c>
-      <c r="AA31" s="28">
         <f t="shared" si="7"/>
         <v>0.21998500799405341</v>
       </c>
+      <c r="AA31" s="28">
+        <f t="shared" si="8"/>
+        <v>0.21998500799405341</v>
+      </c>
       <c r="AB31" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17988046286047893</v>
       </c>
     </row>
@@ -25076,6 +25302,14 @@
       <c r="E32" t="s">
         <v>84</v>
       </c>
+      <c r="F32" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15118229932201993</v>
+      </c>
+      <c r="G32" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.15118229932201993</v>
+      </c>
       <c r="I32" s="29">
         <v>0.19036568169853726</v>
       </c>
@@ -25098,7 +25332,7 @@
         <v>84</v>
       </c>
       <c r="S32" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15118229932201993</v>
       </c>
       <c r="T32" s="28"/>
@@ -25111,27 +25345,27 @@
         <v>0.19036568169853726</v>
       </c>
       <c r="W32" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19036568169853726</v>
       </c>
       <c r="X32" s="28">
-        <f t="shared" si="4"/>
-        <v>0.15118229932201993</v>
-      </c>
-      <c r="Y32" s="28">
         <f t="shared" si="5"/>
         <v>0.15118229932201993</v>
       </c>
+      <c r="Y32" s="28">
+        <f t="shared" si="6"/>
+        <v>0.15118229932201993</v>
+      </c>
       <c r="Z32" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19036568169853726</v>
-      </c>
-      <c r="AA32" s="28">
         <f t="shared" si="7"/>
         <v>0.19036568169853726</v>
       </c>
+      <c r="AA32" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19036568169853726</v>
+      </c>
       <c r="AB32" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15118229932201993</v>
       </c>
     </row>
@@ -25148,6 +25382,14 @@
       <c r="E33" t="s">
         <v>84</v>
       </c>
+      <c r="F33" s="28">
+        <f t="shared" si="2"/>
+        <v>0.38864102516684107</v>
+      </c>
+      <c r="G33" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.38864102516684107</v>
+      </c>
       <c r="I33" s="29">
         <v>0.17147490116580466</v>
       </c>
@@ -25170,7 +25412,7 @@
         <v>84</v>
       </c>
       <c r="S33" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38864102516684107</v>
       </c>
       <c r="T33" s="28"/>
@@ -25183,27 +25425,27 @@
         <v>0.17147490116580466</v>
       </c>
       <c r="W33" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17147490116580466</v>
       </c>
       <c r="X33" s="28">
-        <f t="shared" si="4"/>
-        <v>0.38864102516684107</v>
-      </c>
-      <c r="Y33" s="28">
         <f t="shared" si="5"/>
         <v>0.38864102516684107</v>
       </c>
+      <c r="Y33" s="28">
+        <f t="shared" si="6"/>
+        <v>0.38864102516684107</v>
+      </c>
       <c r="Z33" s="28">
-        <f t="shared" si="6"/>
-        <v>0.17147490116580466</v>
-      </c>
-      <c r="AA33" s="28">
         <f t="shared" si="7"/>
         <v>0.17147490116580466</v>
       </c>
+      <c r="AA33" s="28">
+        <f t="shared" si="8"/>
+        <v>0.17147490116580466</v>
+      </c>
       <c r="AB33" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38864102516684107</v>
       </c>
     </row>
@@ -25220,6 +25462,14 @@
       <c r="E34" t="s">
         <v>84</v>
       </c>
+      <c r="F34" s="28">
+        <f t="shared" si="2"/>
+        <v>0.37307532522584164</v>
+      </c>
+      <c r="G34" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.37307532522584164</v>
+      </c>
       <c r="I34" s="29">
         <v>0.15574569884141526</v>
       </c>
@@ -25242,7 +25492,7 @@
         <v>84</v>
       </c>
       <c r="S34" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37307532522584164</v>
       </c>
       <c r="T34" s="28"/>
@@ -25255,27 +25505,27 @@
         <v>0.15574569884141526</v>
       </c>
       <c r="W34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15574569884141526</v>
       </c>
       <c r="X34" s="28">
-        <f t="shared" si="4"/>
-        <v>0.37307532522584164</v>
-      </c>
-      <c r="Y34" s="28">
         <f t="shared" si="5"/>
         <v>0.37307532522584164</v>
       </c>
+      <c r="Y34" s="28">
+        <f t="shared" si="6"/>
+        <v>0.37307532522584164</v>
+      </c>
       <c r="Z34" s="28">
-        <f t="shared" si="6"/>
-        <v>0.15574569884141526</v>
-      </c>
-      <c r="AA34" s="28">
         <f t="shared" si="7"/>
         <v>0.15574569884141526</v>
       </c>
+      <c r="AA34" s="28">
+        <f t="shared" si="8"/>
+        <v>0.15574569884141526</v>
+      </c>
       <c r="AB34" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.37307532522584164</v>
       </c>
     </row>
@@ -25292,6 +25542,14 @@
       <c r="E35" t="s">
         <v>84</v>
       </c>
+      <c r="F35" s="28">
+        <f t="shared" si="2"/>
+        <v>0.36720950916774409</v>
+      </c>
+      <c r="G35" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.36720950916774409</v>
+      </c>
       <c r="I35" s="29">
         <v>0.16274821919383925</v>
       </c>
@@ -25314,12 +25572,12 @@
         <v>84</v>
       </c>
       <c r="S35" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36720950916774409</v>
       </c>
       <c r="T35" s="28"/>
       <c r="U35" s="28">
-        <f t="shared" ref="U35:U66" si="9">+S35</f>
+        <f t="shared" ref="U35:U66" si="10">+S35</f>
         <v>0.36720950916774409</v>
       </c>
       <c r="V35" s="28">
@@ -25327,27 +25585,27 @@
         <v>0.16274821919383925</v>
       </c>
       <c r="W35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16274821919383925</v>
       </c>
       <c r="X35" s="28">
-        <f t="shared" si="4"/>
-        <v>0.36720950916774409</v>
-      </c>
-      <c r="Y35" s="28">
         <f t="shared" si="5"/>
         <v>0.36720950916774409</v>
       </c>
+      <c r="Y35" s="28">
+        <f t="shared" si="6"/>
+        <v>0.36720950916774409</v>
+      </c>
       <c r="Z35" s="28">
-        <f t="shared" si="6"/>
-        <v>0.16274821919383925</v>
-      </c>
-      <c r="AA35" s="28">
         <f t="shared" si="7"/>
         <v>0.16274821919383925</v>
       </c>
+      <c r="AA35" s="28">
+        <f t="shared" si="8"/>
+        <v>0.16274821919383925</v>
+      </c>
       <c r="AB35" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.36720950916774409</v>
       </c>
     </row>
@@ -25364,6 +25622,14 @@
       <c r="E36" t="s">
         <v>84</v>
       </c>
+      <c r="F36" s="28">
+        <f t="shared" si="2"/>
+        <v>0.36257237601021491</v>
+      </c>
+      <c r="G36" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.36257237601021491</v>
+      </c>
       <c r="I36" s="29">
         <v>0.17468868294011081</v>
       </c>
@@ -25386,12 +25652,12 @@
         <v>84</v>
       </c>
       <c r="S36" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36257237601021491</v>
       </c>
       <c r="T36" s="28"/>
       <c r="U36" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.36257237601021491</v>
       </c>
       <c r="V36" s="28">
@@ -25399,27 +25665,27 @@
         <v>0.17468868294011081</v>
       </c>
       <c r="W36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17468868294011081</v>
       </c>
       <c r="X36" s="28">
-        <f t="shared" si="4"/>
-        <v>0.36257237601021491</v>
-      </c>
-      <c r="Y36" s="28">
         <f t="shared" si="5"/>
         <v>0.36257237601021491</v>
       </c>
+      <c r="Y36" s="28">
+        <f t="shared" si="6"/>
+        <v>0.36257237601021491</v>
+      </c>
       <c r="Z36" s="28">
-        <f t="shared" si="6"/>
-        <v>0.17468868294011081</v>
-      </c>
-      <c r="AA36" s="28">
         <f t="shared" si="7"/>
         <v>0.17468868294011081</v>
       </c>
+      <c r="AA36" s="28">
+        <f t="shared" si="8"/>
+        <v>0.17468868294011081</v>
+      </c>
       <c r="AB36" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.36257237601021491</v>
       </c>
     </row>
@@ -25436,6 +25702,14 @@
       <c r="E37" t="s">
         <v>84</v>
       </c>
+      <c r="F37" s="28">
+        <f t="shared" si="2"/>
+        <v>0.33563001257016267</v>
+      </c>
+      <c r="G37" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.33563001257016267</v>
+      </c>
       <c r="I37" s="29">
         <v>0.19677121117685234</v>
       </c>
@@ -25458,12 +25732,12 @@
         <v>84</v>
       </c>
       <c r="S37" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33563001257016267</v>
       </c>
       <c r="T37" s="28"/>
       <c r="U37" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33563001257016267</v>
       </c>
       <c r="V37" s="28">
@@ -25471,27 +25745,27 @@
         <v>0.19677121117685234</v>
       </c>
       <c r="W37" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19677121117685234</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" si="4"/>
-        <v>0.33563001257016267</v>
-      </c>
-      <c r="Y37" s="28">
         <f t="shared" si="5"/>
         <v>0.33563001257016267</v>
       </c>
+      <c r="Y37" s="28">
+        <f t="shared" si="6"/>
+        <v>0.33563001257016267</v>
+      </c>
       <c r="Z37" s="28">
-        <f t="shared" si="6"/>
-        <v>0.19677121117685234</v>
-      </c>
-      <c r="AA37" s="28">
         <f t="shared" si="7"/>
         <v>0.19677121117685234</v>
       </c>
+      <c r="AA37" s="28">
+        <f t="shared" si="8"/>
+        <v>0.19677121117685234</v>
+      </c>
       <c r="AB37" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33563001257016267</v>
       </c>
     </row>
@@ -25508,6 +25782,14 @@
       <c r="E38" t="s">
         <v>84</v>
       </c>
+      <c r="F38" s="28">
+        <f t="shared" si="2"/>
+        <v>0.38870999512774462</v>
+      </c>
+      <c r="G38" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.38870999512774462</v>
+      </c>
       <c r="I38" s="29">
         <v>0.22441237079282847</v>
       </c>
@@ -25530,12 +25812,12 @@
         <v>84</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38870999512774462</v>
       </c>
       <c r="T38" s="28"/>
       <c r="U38" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.38870999512774462</v>
       </c>
       <c r="V38" s="28">
@@ -25543,27 +25825,27 @@
         <v>0.22441237079282847</v>
       </c>
       <c r="W38" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22441237079282847</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="4"/>
-        <v>0.38870999512774462</v>
-      </c>
-      <c r="Y38" s="28">
         <f t="shared" si="5"/>
         <v>0.38870999512774462</v>
       </c>
+      <c r="Y38" s="28">
+        <f t="shared" si="6"/>
+        <v>0.38870999512774462</v>
+      </c>
       <c r="Z38" s="28">
-        <f t="shared" si="6"/>
-        <v>0.22441237079282847</v>
-      </c>
-      <c r="AA38" s="28">
         <f t="shared" si="7"/>
         <v>0.22441237079282847</v>
       </c>
+      <c r="AA38" s="28">
+        <f t="shared" si="8"/>
+        <v>0.22441237079282847</v>
+      </c>
       <c r="AB38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38870999512774462</v>
       </c>
     </row>
@@ -25580,6 +25862,14 @@
       <c r="E39" t="s">
         <v>84</v>
       </c>
+      <c r="F39" s="28">
+        <f t="shared" si="2"/>
+        <v>0.3916926575387803</v>
+      </c>
+      <c r="G39" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.3916926575387803</v>
+      </c>
       <c r="I39" s="29">
         <v>0.23044614171909478</v>
       </c>
@@ -25602,12 +25892,12 @@
         <v>84</v>
       </c>
       <c r="S39" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3916926575387803</v>
       </c>
       <c r="T39" s="28"/>
       <c r="U39" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3916926575387803</v>
       </c>
       <c r="V39" s="28">
@@ -25615,27 +25905,27 @@
         <v>0.23044614171909478</v>
       </c>
       <c r="W39" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23044614171909478</v>
       </c>
       <c r="X39" s="28">
-        <f t="shared" si="4"/>
-        <v>0.3916926575387803</v>
-      </c>
-      <c r="Y39" s="28">
         <f t="shared" si="5"/>
         <v>0.3916926575387803</v>
       </c>
+      <c r="Y39" s="28">
+        <f t="shared" si="6"/>
+        <v>0.3916926575387803</v>
+      </c>
       <c r="Z39" s="28">
-        <f t="shared" si="6"/>
-        <v>0.23044614171909478</v>
-      </c>
-      <c r="AA39" s="28">
         <f t="shared" si="7"/>
         <v>0.23044614171909478</v>
       </c>
+      <c r="AA39" s="28">
+        <f t="shared" si="8"/>
+        <v>0.23044614171909478</v>
+      </c>
       <c r="AB39" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3916926575387803</v>
       </c>
     </row>
@@ -25652,6 +25942,14 @@
       <c r="E40" t="s">
         <v>84</v>
       </c>
+      <c r="F40" s="28">
+        <f t="shared" si="2"/>
+        <v>0.3944473902058579</v>
+      </c>
+      <c r="G40" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.3944473902058579</v>
+      </c>
       <c r="I40" s="29">
         <v>0.22368774522062279</v>
       </c>
@@ -25674,12 +25972,12 @@
         <v>84</v>
       </c>
       <c r="S40" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3944473902058579</v>
       </c>
       <c r="T40" s="28"/>
       <c r="U40" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3944473902058579</v>
       </c>
       <c r="V40" s="28">
@@ -25687,27 +25985,27 @@
         <v>0.22368774522062279</v>
       </c>
       <c r="W40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22368774522062279</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" si="4"/>
-        <v>0.3944473902058579</v>
-      </c>
-      <c r="Y40" s="28">
         <f t="shared" si="5"/>
         <v>0.3944473902058579</v>
       </c>
+      <c r="Y40" s="28">
+        <f t="shared" si="6"/>
+        <v>0.3944473902058579</v>
+      </c>
       <c r="Z40" s="28">
-        <f t="shared" si="6"/>
-        <v>0.22368774522062279</v>
-      </c>
-      <c r="AA40" s="28">
         <f t="shared" si="7"/>
         <v>0.22368774522062279</v>
       </c>
+      <c r="AA40" s="28">
+        <f t="shared" si="8"/>
+        <v>0.22368774522062279</v>
+      </c>
       <c r="AB40" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3944473902058579</v>
       </c>
     </row>
@@ -25724,6 +26022,14 @@
       <c r="E41" t="s">
         <v>84</v>
       </c>
+      <c r="F41" s="28">
+        <f t="shared" si="2"/>
+        <v>0.3758188887980754</v>
+      </c>
+      <c r="G41" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.3758188887980754</v>
+      </c>
       <c r="I41" s="29">
         <v>0.21272954448959527</v>
       </c>
@@ -25746,12 +26052,12 @@
         <v>84</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3758188887980754</v>
       </c>
       <c r="T41" s="28"/>
       <c r="U41" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3758188887980754</v>
       </c>
       <c r="V41" s="28">
@@ -25759,27 +26065,27 @@
         <v>0.21272954448959527</v>
       </c>
       <c r="W41" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21272954448959527</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="4"/>
-        <v>0.3758188887980754</v>
-      </c>
-      <c r="Y41" s="28">
         <f t="shared" si="5"/>
         <v>0.3758188887980754</v>
       </c>
+      <c r="Y41" s="28">
+        <f t="shared" si="6"/>
+        <v>0.3758188887980754</v>
+      </c>
       <c r="Z41" s="28">
-        <f t="shared" si="6"/>
-        <v>0.21272954448959527</v>
-      </c>
-      <c r="AA41" s="28">
         <f t="shared" si="7"/>
         <v>0.21272954448959527</v>
       </c>
+      <c r="AA41" s="28">
+        <f t="shared" si="8"/>
+        <v>0.21272954448959527</v>
+      </c>
       <c r="AB41" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3758188887980754</v>
       </c>
     </row>
@@ -25796,6 +26102,14 @@
       <c r="E42" t="s">
         <v>84</v>
       </c>
+      <c r="F42" s="28">
+        <f t="shared" si="2"/>
+        <v>0.39322128587515753</v>
+      </c>
+      <c r="G42" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.39322128587515753</v>
+      </c>
       <c r="I42" s="29">
         <v>0.20209056778816453</v>
       </c>
@@ -25818,12 +26132,12 @@
         <v>84</v>
       </c>
       <c r="S42" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39322128587515753</v>
       </c>
       <c r="T42" s="28"/>
       <c r="U42" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.39322128587515753</v>
       </c>
       <c r="V42" s="28">
@@ -25831,27 +26145,27 @@
         <v>0.20209056778816453</v>
       </c>
       <c r="W42" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20209056778816453</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" si="4"/>
-        <v>0.39322128587515753</v>
-      </c>
-      <c r="Y42" s="28">
         <f t="shared" si="5"/>
         <v>0.39322128587515753</v>
       </c>
+      <c r="Y42" s="28">
+        <f t="shared" si="6"/>
+        <v>0.39322128587515753</v>
+      </c>
       <c r="Z42" s="28">
-        <f t="shared" si="6"/>
-        <v>0.20209056778816453</v>
-      </c>
-      <c r="AA42" s="28">
         <f t="shared" si="7"/>
         <v>0.20209056778816453</v>
       </c>
+      <c r="AA42" s="28">
+        <f t="shared" si="8"/>
+        <v>0.20209056778816453</v>
+      </c>
       <c r="AB42" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39322128587515753</v>
       </c>
     </row>
@@ -25868,6 +26182,14 @@
       <c r="E43" t="s">
         <v>85</v>
       </c>
+      <c r="F43" s="28">
+        <f t="shared" si="2"/>
+        <v>0.50821503704414495</v>
+      </c>
+      <c r="G43" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.50821503704414495</v>
+      </c>
       <c r="O43" s="22" t="s">
         <v>31</v>
       </c>
@@ -25884,35 +26206,35 @@
       </c>
       <c r="T43" s="28"/>
       <c r="U43" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50821503704414495</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" ref="V43:V82" si="10">+K3</f>
+        <f t="shared" ref="V43:V82" si="11">+K3</f>
         <v>0.37910992839787644</v>
       </c>
       <c r="W43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37910992839787644</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="4"/>
-        <v>0.50821503704414495</v>
-      </c>
-      <c r="Y43" s="28">
         <f t="shared" si="5"/>
         <v>0.50821503704414495</v>
       </c>
+      <c r="Y43" s="28">
+        <f t="shared" si="6"/>
+        <v>0.50821503704414495</v>
+      </c>
       <c r="Z43" s="28">
-        <f t="shared" si="6"/>
-        <v>0.37910992839787644</v>
-      </c>
-      <c r="AA43" s="28">
         <f t="shared" si="7"/>
         <v>0.37910992839787644</v>
       </c>
+      <c r="AA43" s="28">
+        <f t="shared" si="8"/>
+        <v>0.37910992839787644</v>
+      </c>
       <c r="AB43" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50821503704414495</v>
       </c>
     </row>
@@ -25929,6 +26251,14 @@
       <c r="E44" t="s">
         <v>85</v>
       </c>
+      <c r="F44" s="28">
+        <f t="shared" si="2"/>
+        <v>0.51971038117653245</v>
+      </c>
+      <c r="G44" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.51971038117653245</v>
+      </c>
       <c r="I44" s="23">
         <v>0.32551999999999998</v>
       </c>
@@ -25946,40 +26276,40 @@
         <v>85</v>
       </c>
       <c r="S44" s="28">
-        <f t="shared" ref="S44:S82" si="11">+L4</f>
+        <f t="shared" ref="S44:S82" si="12">+L4</f>
         <v>0.51971038117653245</v>
       </c>
       <c r="T44" s="28"/>
       <c r="U44" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51971038117653245</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3831049215785966</v>
       </c>
       <c r="W44" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3831049215785966</v>
       </c>
       <c r="X44" s="28">
-        <f t="shared" ref="X44:X82" si="12">+U44</f>
+        <f t="shared" ref="X44:X82" si="13">+U44</f>
         <v>0.51971038117653245</v>
       </c>
       <c r="Y44" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51971038117653245</v>
       </c>
       <c r="Z44" s="28">
-        <f t="shared" ref="Z44:Z82" si="13">+V44</f>
+        <f t="shared" ref="Z44:Z82" si="14">+V44</f>
         <v>0.3831049215785966</v>
       </c>
       <c r="AA44" s="28">
-        <f t="shared" ref="AA44:AA82" si="14">+W44</f>
+        <f t="shared" ref="AA44:AA82" si="15">+W44</f>
         <v>0.3831049215785966</v>
       </c>
       <c r="AB44" s="28">
-        <f t="shared" ref="AB44:AB82" si="15">+Y44</f>
+        <f t="shared" ref="AB44:AB82" si="16">+Y44</f>
         <v>0.51971038117653245</v>
       </c>
     </row>
@@ -25996,6 +26326,14 @@
       <c r="E45" t="s">
         <v>85</v>
       </c>
+      <c r="F45" s="28">
+        <f t="shared" si="2"/>
+        <v>0.52367035496064263</v>
+      </c>
+      <c r="G45" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.52367035496064263</v>
+      </c>
       <c r="I45" s="26">
         <v>0.29649999999999999</v>
       </c>
@@ -26013,40 +26351,40 @@
         <v>85</v>
       </c>
       <c r="S45" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52367035496064263</v>
       </c>
       <c r="T45" s="28"/>
       <c r="U45" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.52367035496064263</v>
       </c>
       <c r="V45" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39940354508098785</v>
       </c>
       <c r="W45" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39940354508098785</v>
       </c>
       <c r="X45" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.52367035496064263</v>
       </c>
       <c r="Y45" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52367035496064263</v>
       </c>
       <c r="Z45" s="28">
-        <f t="shared" si="13"/>
-        <v>0.39940354508098785</v>
-      </c>
-      <c r="AA45" s="28">
         <f t="shared" si="14"/>
         <v>0.39940354508098785</v>
       </c>
+      <c r="AA45" s="28">
+        <f t="shared" si="15"/>
+        <v>0.39940354508098785</v>
+      </c>
       <c r="AB45" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52367035496064263</v>
       </c>
     </row>
@@ -26063,6 +26401,14 @@
       <c r="E46" t="s">
         <v>85</v>
       </c>
+      <c r="F46" s="28">
+        <f t="shared" si="2"/>
+        <v>0.52273724451443881</v>
+      </c>
+      <c r="G46" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.52273724451443881</v>
+      </c>
       <c r="I46" s="23">
         <v>0.35221999999999998</v>
       </c>
@@ -26080,40 +26426,40 @@
         <v>85</v>
       </c>
       <c r="S46" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52273724451443881</v>
       </c>
       <c r="T46" s="28"/>
       <c r="U46" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.52273724451443881</v>
       </c>
       <c r="V46" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.4132570749307749</v>
       </c>
       <c r="W46" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4132570749307749</v>
       </c>
       <c r="X46" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.52273724451443881</v>
       </c>
       <c r="Y46" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52273724451443881</v>
       </c>
       <c r="Z46" s="28">
-        <f t="shared" si="13"/>
-        <v>0.4132570749307749</v>
-      </c>
-      <c r="AA46" s="28">
         <f t="shared" si="14"/>
         <v>0.4132570749307749</v>
       </c>
+      <c r="AA46" s="28">
+        <f t="shared" si="15"/>
+        <v>0.4132570749307749</v>
+      </c>
       <c r="AB46" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52273724451443881</v>
       </c>
     </row>
@@ -26130,6 +26476,14 @@
       <c r="E47" t="s">
         <v>85</v>
       </c>
+      <c r="F47" s="28">
+        <f t="shared" si="2"/>
+        <v>0.53147399978753773</v>
+      </c>
+      <c r="G47" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.53147399978753773</v>
+      </c>
       <c r="I47" s="26">
         <v>0.27958</v>
       </c>
@@ -26147,40 +26501,40 @@
         <v>85</v>
       </c>
       <c r="S47" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.53147399978753773</v>
       </c>
       <c r="T47" s="28"/>
       <c r="U47" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.53147399978753773</v>
       </c>
       <c r="V47" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42192017680158911</v>
       </c>
       <c r="W47" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42192017680158911</v>
       </c>
       <c r="X47" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.53147399978753773</v>
       </c>
       <c r="Y47" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53147399978753773</v>
       </c>
       <c r="Z47" s="28">
-        <f t="shared" si="13"/>
-        <v>0.42192017680158911</v>
-      </c>
-      <c r="AA47" s="28">
         <f t="shared" si="14"/>
         <v>0.42192017680158911</v>
       </c>
+      <c r="AA47" s="28">
+        <f t="shared" si="15"/>
+        <v>0.42192017680158911</v>
+      </c>
       <c r="AB47" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.53147399978753773</v>
       </c>
     </row>
@@ -26197,6 +26551,14 @@
       <c r="E48" t="s">
         <v>85</v>
       </c>
+      <c r="F48" s="28">
+        <f t="shared" si="2"/>
+        <v>0.57661820346435722</v>
+      </c>
+      <c r="G48" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.57661820346435722</v>
+      </c>
       <c r="I48" s="23">
         <v>0.26002999999999998</v>
       </c>
@@ -26214,40 +26576,40 @@
         <v>85</v>
       </c>
       <c r="S48" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.57661820346435722</v>
       </c>
       <c r="T48" s="28"/>
       <c r="U48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.57661820346435722</v>
       </c>
       <c r="V48" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.56121893886721907</v>
       </c>
       <c r="W48" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56121893886721907</v>
       </c>
       <c r="X48" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.57661820346435722</v>
       </c>
       <c r="Y48" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57661820346435722</v>
       </c>
       <c r="Z48" s="28">
-        <f t="shared" si="13"/>
-        <v>0.56121893886721907</v>
-      </c>
-      <c r="AA48" s="28">
         <f t="shared" si="14"/>
         <v>0.56121893886721907</v>
       </c>
+      <c r="AA48" s="28">
+        <f t="shared" si="15"/>
+        <v>0.56121893886721907</v>
+      </c>
       <c r="AB48" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.57661820346435722</v>
       </c>
     </row>
@@ -26264,6 +26626,14 @@
       <c r="E49" t="s">
         <v>85</v>
       </c>
+      <c r="F49" s="28">
+        <f t="shared" si="2"/>
+        <v>0.55424818841720591</v>
+      </c>
+      <c r="G49" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.55424818841720591</v>
+      </c>
       <c r="I49" s="26">
         <v>0.26874999999999999</v>
       </c>
@@ -26281,40 +26651,40 @@
         <v>85</v>
       </c>
       <c r="S49" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.55424818841720591</v>
       </c>
       <c r="T49" s="28"/>
       <c r="U49" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55424818841720591</v>
       </c>
       <c r="V49" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.54084550237126194</v>
       </c>
       <c r="W49" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.54084550237126194</v>
       </c>
       <c r="X49" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.55424818841720591</v>
       </c>
       <c r="Y49" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55424818841720591</v>
       </c>
       <c r="Z49" s="28">
-        <f t="shared" si="13"/>
-        <v>0.54084550237126194</v>
-      </c>
-      <c r="AA49" s="28">
         <f t="shared" si="14"/>
         <v>0.54084550237126194</v>
       </c>
+      <c r="AA49" s="28">
+        <f t="shared" si="15"/>
+        <v>0.54084550237126194</v>
+      </c>
       <c r="AB49" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.55424818841720591</v>
       </c>
     </row>
@@ -26331,6 +26701,14 @@
       <c r="E50" t="s">
         <v>85</v>
       </c>
+      <c r="F50" s="28">
+        <f t="shared" si="2"/>
+        <v>0.57149635091088025</v>
+      </c>
+      <c r="G50" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.57149635091088025</v>
+      </c>
       <c r="I50" s="23">
         <v>0.25735000000000002</v>
       </c>
@@ -26348,40 +26726,40 @@
         <v>85</v>
       </c>
       <c r="S50" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.57149635091088025</v>
       </c>
       <c r="T50" s="28"/>
       <c r="U50" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.57149635091088025</v>
       </c>
       <c r="V50" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.50382936737939643</v>
       </c>
       <c r="W50" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50382936737939643</v>
       </c>
       <c r="X50" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.57149635091088025</v>
       </c>
       <c r="Y50" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57149635091088025</v>
       </c>
       <c r="Z50" s="28">
-        <f t="shared" si="13"/>
-        <v>0.50382936737939643</v>
-      </c>
-      <c r="AA50" s="28">
         <f t="shared" si="14"/>
         <v>0.50382936737939643</v>
       </c>
+      <c r="AA50" s="28">
+        <f t="shared" si="15"/>
+        <v>0.50382936737939643</v>
+      </c>
       <c r="AB50" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.57149635091088025</v>
       </c>
     </row>
@@ -26398,6 +26776,14 @@
       <c r="E51" t="s">
         <v>85</v>
       </c>
+      <c r="F51" s="28">
+        <f t="shared" si="2"/>
+        <v>0.57683408772569622</v>
+      </c>
+      <c r="G51" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.57683408772569622</v>
+      </c>
       <c r="I51" s="26">
         <v>0.28193000000000001</v>
       </c>
@@ -26415,40 +26801,40 @@
         <v>85</v>
       </c>
       <c r="S51" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.57683408772569622</v>
       </c>
       <c r="T51" s="28"/>
       <c r="U51" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.57683408772569622</v>
       </c>
       <c r="V51" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.52251467694673803</v>
       </c>
       <c r="W51" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52251467694673803</v>
       </c>
       <c r="X51" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.57683408772569622</v>
       </c>
       <c r="Y51" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57683408772569622</v>
       </c>
       <c r="Z51" s="28">
-        <f t="shared" si="13"/>
-        <v>0.52251467694673803</v>
-      </c>
-      <c r="AA51" s="28">
         <f t="shared" si="14"/>
         <v>0.52251467694673803</v>
       </c>
+      <c r="AA51" s="28">
+        <f t="shared" si="15"/>
+        <v>0.52251467694673803</v>
+      </c>
       <c r="AB51" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.57683408772569622</v>
       </c>
     </row>
@@ -26465,6 +26851,14 @@
       <c r="E52" t="s">
         <v>85</v>
       </c>
+      <c r="F52" s="28">
+        <f t="shared" si="2"/>
+        <v>0.59307049784531918</v>
+      </c>
+      <c r="G52" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.59307049784531918</v>
+      </c>
       <c r="I52" s="23">
         <v>0.28033000000000002</v>
       </c>
@@ -26482,40 +26876,40 @@
         <v>85</v>
       </c>
       <c r="S52" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.59307049784531918</v>
       </c>
       <c r="T52" s="28"/>
       <c r="U52" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.59307049784531918</v>
       </c>
       <c r="V52" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.52511580739631625</v>
       </c>
       <c r="W52" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52511580739631625</v>
       </c>
       <c r="X52" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.59307049784531918</v>
       </c>
       <c r="Y52" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59307049784531918</v>
       </c>
       <c r="Z52" s="28">
-        <f t="shared" si="13"/>
-        <v>0.52511580739631625</v>
-      </c>
-      <c r="AA52" s="28">
         <f t="shared" si="14"/>
         <v>0.52511580739631625</v>
       </c>
+      <c r="AA52" s="28">
+        <f t="shared" si="15"/>
+        <v>0.52511580739631625</v>
+      </c>
       <c r="AB52" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59307049784531918</v>
       </c>
     </row>
@@ -26532,6 +26926,14 @@
       <c r="E53" t="s">
         <v>85</v>
       </c>
+      <c r="F53" s="28">
+        <f t="shared" si="2"/>
+        <v>0.4817627379641512</v>
+      </c>
+      <c r="G53" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.4817627379641512</v>
+      </c>
       <c r="I53" s="26">
         <v>0.29352</v>
       </c>
@@ -26549,40 +26951,40 @@
         <v>85</v>
       </c>
       <c r="S53" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.4817627379641512</v>
       </c>
       <c r="T53" s="28"/>
       <c r="U53" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.4817627379641512</v>
       </c>
       <c r="V53" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.30878345674934271</v>
       </c>
       <c r="W53" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30878345674934271</v>
       </c>
       <c r="X53" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.4817627379641512</v>
       </c>
       <c r="Y53" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4817627379641512</v>
       </c>
       <c r="Z53" s="28">
-        <f t="shared" si="13"/>
-        <v>0.30878345674934271</v>
-      </c>
-      <c r="AA53" s="28">
         <f t="shared" si="14"/>
         <v>0.30878345674934271</v>
       </c>
+      <c r="AA53" s="28">
+        <f t="shared" si="15"/>
+        <v>0.30878345674934271</v>
+      </c>
       <c r="AB53" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.4817627379641512</v>
       </c>
     </row>
@@ -26599,6 +27001,14 @@
       <c r="E54" t="s">
         <v>85</v>
       </c>
+      <c r="F54" s="28">
+        <f t="shared" si="2"/>
+        <v>0.50818195730390581</v>
+      </c>
+      <c r="G54" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.50818195730390581</v>
+      </c>
       <c r="I54" s="23">
         <v>0.25664999999999999</v>
       </c>
@@ -26616,40 +27026,40 @@
         <v>85</v>
       </c>
       <c r="S54" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.50818195730390581</v>
       </c>
       <c r="T54" s="28"/>
       <c r="U54" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50818195730390581</v>
       </c>
       <c r="V54" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2962970291666881</v>
       </c>
       <c r="W54" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2962970291666881</v>
       </c>
       <c r="X54" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50818195730390581</v>
       </c>
       <c r="Y54" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50818195730390581</v>
       </c>
       <c r="Z54" s="28">
-        <f t="shared" si="13"/>
-        <v>0.2962970291666881</v>
-      </c>
-      <c r="AA54" s="28">
         <f t="shared" si="14"/>
         <v>0.2962970291666881</v>
       </c>
+      <c r="AA54" s="28">
+        <f t="shared" si="15"/>
+        <v>0.2962970291666881</v>
+      </c>
       <c r="AB54" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50818195730390581</v>
       </c>
     </row>
@@ -26666,6 +27076,14 @@
       <c r="E55" t="s">
         <v>85</v>
       </c>
+      <c r="F55" s="28">
+        <f t="shared" si="2"/>
+        <v>0.50842301702366877</v>
+      </c>
+      <c r="G55" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.50842301702366877</v>
+      </c>
       <c r="I55" s="26">
         <v>0.26723000000000002</v>
       </c>
@@ -26683,40 +27101,40 @@
         <v>85</v>
       </c>
       <c r="S55" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.50842301702366877</v>
       </c>
       <c r="T55" s="28"/>
       <c r="U55" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50842301702366877</v>
       </c>
       <c r="V55" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.30469029666897296</v>
       </c>
       <c r="W55" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30469029666897296</v>
       </c>
       <c r="X55" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50842301702366877</v>
       </c>
       <c r="Y55" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50842301702366877</v>
       </c>
       <c r="Z55" s="28">
-        <f t="shared" si="13"/>
-        <v>0.30469029666897296</v>
-      </c>
-      <c r="AA55" s="28">
         <f t="shared" si="14"/>
         <v>0.30469029666897296</v>
       </c>
+      <c r="AA55" s="28">
+        <f t="shared" si="15"/>
+        <v>0.30469029666897296</v>
+      </c>
       <c r="AB55" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50842301702366877</v>
       </c>
     </row>
@@ -26733,6 +27151,14 @@
       <c r="E56" t="s">
         <v>85</v>
       </c>
+      <c r="F56" s="28">
+        <f t="shared" si="2"/>
+        <v>0.51348033482388111</v>
+      </c>
+      <c r="G56" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.51348033482388111</v>
+      </c>
       <c r="I56" s="23">
         <v>0.31667000000000001</v>
       </c>
@@ -26750,40 +27176,40 @@
         <v>85</v>
       </c>
       <c r="S56" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.51348033482388111</v>
       </c>
       <c r="T56" s="28"/>
       <c r="U56" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51348033482388111</v>
       </c>
       <c r="V56" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.33632389555580439</v>
       </c>
       <c r="W56" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33632389555580439</v>
       </c>
       <c r="X56" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.51348033482388111</v>
       </c>
       <c r="Y56" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51348033482388111</v>
       </c>
       <c r="Z56" s="28">
-        <f t="shared" si="13"/>
-        <v>0.33632389555580439</v>
-      </c>
-      <c r="AA56" s="28">
         <f t="shared" si="14"/>
         <v>0.33632389555580439</v>
       </c>
+      <c r="AA56" s="28">
+        <f t="shared" si="15"/>
+        <v>0.33632389555580439</v>
+      </c>
       <c r="AB56" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.51348033482388111</v>
       </c>
     </row>
@@ -26800,6 +27226,14 @@
       <c r="E57" t="s">
         <v>85</v>
       </c>
+      <c r="F57" s="28">
+        <f t="shared" si="2"/>
+        <v>0.45452186819252904</v>
+      </c>
+      <c r="G57" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.45452186819252904</v>
+      </c>
       <c r="I57" s="26">
         <v>0.25568000000000002</v>
       </c>
@@ -26817,40 +27251,40 @@
         <v>85</v>
       </c>
       <c r="S57" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45452186819252904</v>
       </c>
       <c r="T57" s="28"/>
       <c r="U57" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.45452186819252904</v>
       </c>
       <c r="V57" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.34519261752128416</v>
       </c>
       <c r="W57" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34519261752128416</v>
       </c>
       <c r="X57" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45452186819252904</v>
       </c>
       <c r="Y57" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45452186819252904</v>
       </c>
       <c r="Z57" s="28">
-        <f t="shared" si="13"/>
-        <v>0.34519261752128416</v>
-      </c>
-      <c r="AA57" s="28">
         <f t="shared" si="14"/>
         <v>0.34519261752128416</v>
       </c>
+      <c r="AA57" s="28">
+        <f t="shared" si="15"/>
+        <v>0.34519261752128416</v>
+      </c>
       <c r="AB57" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.45452186819252904</v>
       </c>
     </row>
@@ -26867,6 +27301,14 @@
       <c r="E58" t="s">
         <v>85</v>
       </c>
+      <c r="F58" s="28">
+        <f t="shared" si="2"/>
+        <v>0.475231395013342</v>
+      </c>
+      <c r="G58" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.475231395013342</v>
+      </c>
       <c r="I58" s="23">
         <v>0.23894000000000001</v>
       </c>
@@ -26884,40 +27326,40 @@
         <v>85</v>
       </c>
       <c r="S58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.475231395013342</v>
       </c>
       <c r="T58" s="28"/>
       <c r="U58" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.475231395013342</v>
       </c>
       <c r="V58" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41621446207507262</v>
       </c>
       <c r="W58" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41621446207507262</v>
       </c>
       <c r="X58" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.475231395013342</v>
       </c>
       <c r="Y58" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.475231395013342</v>
       </c>
       <c r="Z58" s="28">
-        <f t="shared" si="13"/>
-        <v>0.41621446207507262</v>
-      </c>
-      <c r="AA58" s="28">
         <f t="shared" si="14"/>
         <v>0.41621446207507262</v>
       </c>
+      <c r="AA58" s="28">
+        <f t="shared" si="15"/>
+        <v>0.41621446207507262</v>
+      </c>
       <c r="AB58" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.475231395013342</v>
       </c>
     </row>
@@ -26934,6 +27376,14 @@
       <c r="E59" t="s">
         <v>85</v>
       </c>
+      <c r="F59" s="28">
+        <f t="shared" si="2"/>
+        <v>0.48870294875605585</v>
+      </c>
+      <c r="G59" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.48870294875605585</v>
+      </c>
       <c r="I59" s="26">
         <v>0.23577999999999999</v>
       </c>
@@ -26951,40 +27401,40 @@
         <v>85</v>
       </c>
       <c r="S59" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.48870294875605585</v>
       </c>
       <c r="T59" s="28"/>
       <c r="U59" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.48870294875605585</v>
       </c>
       <c r="V59" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39755556181089052</v>
       </c>
       <c r="W59" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39755556181089052</v>
       </c>
       <c r="X59" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48870294875605585</v>
       </c>
       <c r="Y59" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48870294875605585</v>
       </c>
       <c r="Z59" s="28">
-        <f t="shared" si="13"/>
-        <v>0.39755556181089052</v>
-      </c>
-      <c r="AA59" s="28">
         <f t="shared" si="14"/>
         <v>0.39755556181089052</v>
       </c>
+      <c r="AA59" s="28">
+        <f t="shared" si="15"/>
+        <v>0.39755556181089052</v>
+      </c>
       <c r="AB59" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.48870294875605585</v>
       </c>
     </row>
@@ -27001,6 +27451,14 @@
       <c r="E60" t="s">
         <v>85</v>
       </c>
+      <c r="F60" s="28">
+        <f t="shared" si="2"/>
+        <v>0.4766119382878205</v>
+      </c>
+      <c r="G60" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.4766119382878205</v>
+      </c>
       <c r="I60" s="23">
         <v>0.20695</v>
       </c>
@@ -27018,40 +27476,40 @@
         <v>85</v>
       </c>
       <c r="S60" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.4766119382878205</v>
       </c>
       <c r="T60" s="28"/>
       <c r="U60" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.4766119382878205</v>
       </c>
       <c r="V60" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38855882243991424</v>
       </c>
       <c r="W60" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38855882243991424</v>
       </c>
       <c r="X60" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.4766119382878205</v>
       </c>
       <c r="Y60" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4766119382878205</v>
       </c>
       <c r="Z60" s="28">
-        <f t="shared" si="13"/>
-        <v>0.38855882243991424</v>
-      </c>
-      <c r="AA60" s="28">
         <f t="shared" si="14"/>
         <v>0.38855882243991424</v>
       </c>
+      <c r="AA60" s="28">
+        <f t="shared" si="15"/>
+        <v>0.38855882243991424</v>
+      </c>
       <c r="AB60" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.4766119382878205</v>
       </c>
     </row>
@@ -27068,6 +27526,14 @@
       <c r="E61" t="s">
         <v>85</v>
       </c>
+      <c r="F61" s="28">
+        <f t="shared" si="2"/>
+        <v>0.46985512148372199</v>
+      </c>
+      <c r="G61" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.46985512148372199</v>
+      </c>
       <c r="I61" s="26">
         <v>0.28109000000000001</v>
       </c>
@@ -27085,40 +27551,40 @@
         <v>85</v>
       </c>
       <c r="S61" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.46985512148372199</v>
       </c>
       <c r="T61" s="28"/>
       <c r="U61" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.46985512148372199</v>
       </c>
       <c r="V61" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.40893762763368313</v>
       </c>
       <c r="W61" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40893762763368313</v>
       </c>
       <c r="X61" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.46985512148372199</v>
       </c>
       <c r="Y61" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46985512148372199</v>
       </c>
       <c r="Z61" s="28">
-        <f t="shared" si="13"/>
-        <v>0.40893762763368313</v>
-      </c>
-      <c r="AA61" s="28">
         <f t="shared" si="14"/>
         <v>0.40893762763368313</v>
       </c>
+      <c r="AA61" s="28">
+        <f t="shared" si="15"/>
+        <v>0.40893762763368313</v>
+      </c>
       <c r="AB61" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.46985512148372199</v>
       </c>
     </row>
@@ -27135,6 +27601,14 @@
       <c r="E62" t="s">
         <v>85</v>
       </c>
+      <c r="F62" s="28">
+        <f t="shared" si="2"/>
+        <v>0.48066950413908688</v>
+      </c>
+      <c r="G62" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.48066950413908688</v>
+      </c>
       <c r="I62" s="23">
         <v>0.26029000000000002</v>
       </c>
@@ -27152,40 +27626,40 @@
         <v>85</v>
       </c>
       <c r="S62" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.48066950413908688</v>
       </c>
       <c r="T62" s="28"/>
       <c r="U62" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.48066950413908688</v>
       </c>
       <c r="V62" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41646056486719674</v>
       </c>
       <c r="W62" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41646056486719674</v>
       </c>
       <c r="X62" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48066950413908688</v>
       </c>
       <c r="Y62" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48066950413908688</v>
       </c>
       <c r="Z62" s="28">
-        <f t="shared" si="13"/>
-        <v>0.41646056486719674</v>
-      </c>
-      <c r="AA62" s="28">
         <f t="shared" si="14"/>
         <v>0.41646056486719674</v>
       </c>
+      <c r="AA62" s="28">
+        <f t="shared" si="15"/>
+        <v>0.41646056486719674</v>
+      </c>
       <c r="AB62" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.48066950413908688</v>
       </c>
     </row>
@@ -27202,6 +27676,14 @@
       <c r="E63" t="s">
         <v>85</v>
       </c>
+      <c r="F63" s="28">
+        <f t="shared" si="2"/>
+        <v>0.3130659638214161</v>
+      </c>
+      <c r="G63" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.3130659638214161</v>
+      </c>
       <c r="I63" s="26">
         <v>0.27063999999999999</v>
       </c>
@@ -27219,40 +27701,40 @@
         <v>85</v>
       </c>
       <c r="S63" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3130659638214161</v>
       </c>
       <c r="T63" s="28"/>
       <c r="U63" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3130659638214161</v>
       </c>
       <c r="V63" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41936313030572953</v>
       </c>
       <c r="W63" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41936313030572953</v>
       </c>
       <c r="X63" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3130659638214161</v>
       </c>
       <c r="Y63" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3130659638214161</v>
       </c>
       <c r="Z63" s="28">
-        <f t="shared" si="13"/>
-        <v>0.41936313030572953</v>
-      </c>
-      <c r="AA63" s="28">
         <f t="shared" si="14"/>
         <v>0.41936313030572953</v>
       </c>
+      <c r="AA63" s="28">
+        <f t="shared" si="15"/>
+        <v>0.41936313030572953</v>
+      </c>
       <c r="AB63" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.3130659638214161</v>
       </c>
     </row>
@@ -27269,6 +27751,14 @@
       <c r="E64" t="s">
         <v>85</v>
       </c>
+      <c r="F64" s="28">
+        <f t="shared" si="2"/>
+        <v>0.3119153988766723</v>
+      </c>
+      <c r="G64" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.3119153988766723</v>
+      </c>
       <c r="I64" s="23">
         <v>0.15639</v>
       </c>
@@ -27286,40 +27776,40 @@
         <v>85</v>
       </c>
       <c r="S64" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3119153988766723</v>
       </c>
       <c r="T64" s="28"/>
       <c r="U64" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3119153988766723</v>
       </c>
       <c r="V64" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.36954358321077418</v>
       </c>
       <c r="W64" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36954358321077418</v>
       </c>
       <c r="X64" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3119153988766723</v>
       </c>
       <c r="Y64" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3119153988766723</v>
       </c>
       <c r="Z64" s="28">
-        <f t="shared" si="13"/>
-        <v>0.36954358321077418</v>
-      </c>
-      <c r="AA64" s="28">
         <f t="shared" si="14"/>
         <v>0.36954358321077418</v>
       </c>
+      <c r="AA64" s="28">
+        <f t="shared" si="15"/>
+        <v>0.36954358321077418</v>
+      </c>
       <c r="AB64" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.3119153988766723</v>
       </c>
     </row>
@@ -27336,6 +27826,14 @@
       <c r="E65" t="s">
         <v>85</v>
       </c>
+      <c r="F65" s="28">
+        <f t="shared" si="2"/>
+        <v>0.33086580657339631</v>
+      </c>
+      <c r="G65" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.33086580657339631</v>
+      </c>
       <c r="I65" s="26">
         <v>0.14599000000000001</v>
       </c>
@@ -27353,40 +27851,40 @@
         <v>85</v>
       </c>
       <c r="S65" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.33086580657339631</v>
       </c>
       <c r="T65" s="28"/>
       <c r="U65" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33086580657339631</v>
       </c>
       <c r="V65" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37026892593321853</v>
       </c>
       <c r="W65" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37026892593321853</v>
       </c>
       <c r="X65" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.33086580657339631</v>
       </c>
       <c r="Y65" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33086580657339631</v>
       </c>
       <c r="Z65" s="28">
-        <f t="shared" si="13"/>
-        <v>0.37026892593321853</v>
-      </c>
-      <c r="AA65" s="28">
         <f t="shared" si="14"/>
         <v>0.37026892593321853</v>
       </c>
+      <c r="AA65" s="28">
+        <f t="shared" si="15"/>
+        <v>0.37026892593321853</v>
+      </c>
       <c r="AB65" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.33086580657339631</v>
       </c>
     </row>
@@ -27403,6 +27901,14 @@
       <c r="E66" t="s">
         <v>85</v>
       </c>
+      <c r="F66" s="28">
+        <f t="shared" si="2"/>
+        <v>0.37821886122347192</v>
+      </c>
+      <c r="G66" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.37821886122347192</v>
+      </c>
       <c r="I66" s="23">
         <v>0.21615999999999999</v>
       </c>
@@ -27420,40 +27926,40 @@
         <v>85</v>
       </c>
       <c r="S66" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.37821886122347192</v>
       </c>
       <c r="T66" s="28"/>
       <c r="U66" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.37821886122347192</v>
       </c>
       <c r="V66" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39745443176838224</v>
       </c>
       <c r="W66" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39745443176838224</v>
       </c>
       <c r="X66" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.37821886122347192</v>
       </c>
       <c r="Y66" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37821886122347192</v>
       </c>
       <c r="Z66" s="28">
-        <f t="shared" si="13"/>
-        <v>0.39745443176838224</v>
-      </c>
-      <c r="AA66" s="28">
         <f t="shared" si="14"/>
         <v>0.39745443176838224</v>
       </c>
+      <c r="AA66" s="28">
+        <f t="shared" si="15"/>
+        <v>0.39745443176838224</v>
+      </c>
       <c r="AB66" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.37821886122347192</v>
       </c>
     </row>
@@ -27470,6 +27976,14 @@
       <c r="E67" t="s">
         <v>85</v>
       </c>
+      <c r="F67" s="28">
+        <f t="shared" si="2"/>
+        <v>0.36869849629847962</v>
+      </c>
+      <c r="G67" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.36869849629847962</v>
+      </c>
       <c r="I67" s="26">
         <v>0.21323</v>
       </c>
@@ -27487,40 +28001,40 @@
         <v>85</v>
       </c>
       <c r="S67" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.36869849629847962</v>
       </c>
       <c r="T67" s="28"/>
       <c r="U67" s="28">
-        <f t="shared" ref="U67:U82" si="16">+S67</f>
+        <f t="shared" ref="U67:U82" si="17">+S67</f>
         <v>0.36869849629847962</v>
       </c>
       <c r="V67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38982131137548681</v>
       </c>
       <c r="W67" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38982131137548681</v>
       </c>
       <c r="X67" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.36869849629847962</v>
       </c>
       <c r="Y67" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36869849629847962</v>
       </c>
       <c r="Z67" s="28">
-        <f t="shared" si="13"/>
-        <v>0.38982131137548681</v>
-      </c>
-      <c r="AA67" s="28">
         <f t="shared" si="14"/>
         <v>0.38982131137548681</v>
       </c>
+      <c r="AA67" s="28">
+        <f t="shared" si="15"/>
+        <v>0.38982131137548681</v>
+      </c>
       <c r="AB67" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.36869849629847962</v>
       </c>
     </row>
@@ -27537,6 +28051,14 @@
       <c r="E68" t="s">
         <v>85</v>
       </c>
+      <c r="F68" s="28">
+        <f t="shared" ref="F68:F82" si="18">+S68</f>
+        <v>0.34810656235229986</v>
+      </c>
+      <c r="G68" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.34810656235229986</v>
+      </c>
       <c r="I68" s="23">
         <v>0.18953999999999999</v>
       </c>
@@ -27554,40 +28076,40 @@
         <v>85</v>
       </c>
       <c r="S68" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34810656235229986</v>
       </c>
       <c r="T68" s="28"/>
       <c r="U68" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34810656235229986</v>
       </c>
       <c r="V68" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38578621124176921</v>
       </c>
       <c r="W68" s="28">
-        <f t="shared" ref="W68:W82" si="17">+V68</f>
+        <f t="shared" ref="W68:W82" si="19">+V68</f>
         <v>0.38578621124176921</v>
       </c>
       <c r="X68" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.34810656235229986</v>
       </c>
       <c r="Y68" s="28">
-        <f t="shared" ref="Y68:Y82" si="18">+X68</f>
+        <f t="shared" ref="Y68:Y82" si="20">+X68</f>
         <v>0.34810656235229986</v>
       </c>
       <c r="Z68" s="28">
-        <f t="shared" si="13"/>
-        <v>0.38578621124176921</v>
-      </c>
-      <c r="AA68" s="28">
         <f t="shared" si="14"/>
         <v>0.38578621124176921</v>
       </c>
+      <c r="AA68" s="28">
+        <f t="shared" si="15"/>
+        <v>0.38578621124176921</v>
+      </c>
       <c r="AB68" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34810656235229986</v>
       </c>
     </row>
@@ -27604,6 +28126,14 @@
       <c r="E69" t="s">
         <v>85</v>
       </c>
+      <c r="F69" s="28">
+        <f t="shared" si="18"/>
+        <v>0.32861383554560969</v>
+      </c>
+      <c r="G69" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.32861383554560969</v>
+      </c>
       <c r="I69" s="26">
         <v>0.20230999999999999</v>
       </c>
@@ -27621,40 +28151,40 @@
         <v>85</v>
       </c>
       <c r="S69" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.32861383554560969</v>
       </c>
       <c r="T69" s="28"/>
       <c r="U69" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.32861383554560969</v>
       </c>
       <c r="V69" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38455927230153636</v>
       </c>
       <c r="W69" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.38455927230153636</v>
       </c>
       <c r="X69" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32861383554560969</v>
       </c>
       <c r="Y69" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32861383554560969</v>
       </c>
       <c r="Z69" s="28">
-        <f t="shared" si="13"/>
-        <v>0.38455927230153636</v>
-      </c>
-      <c r="AA69" s="28">
         <f t="shared" si="14"/>
         <v>0.38455927230153636</v>
       </c>
+      <c r="AA69" s="28">
+        <f t="shared" si="15"/>
+        <v>0.38455927230153636</v>
+      </c>
       <c r="AB69" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.32861383554560969</v>
       </c>
     </row>
@@ -27671,6 +28201,14 @@
       <c r="E70" t="s">
         <v>85</v>
       </c>
+      <c r="F70" s="28">
+        <f t="shared" si="18"/>
+        <v>0.30968591412981</v>
+      </c>
+      <c r="G70" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.30968591412981</v>
+      </c>
       <c r="I70" s="23">
         <v>0.20780999999999999</v>
       </c>
@@ -27688,40 +28226,40 @@
         <v>85</v>
       </c>
       <c r="S70" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.30968591412981</v>
       </c>
       <c r="T70" s="28"/>
       <c r="U70" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.30968591412981</v>
       </c>
       <c r="V70" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37577278711276341</v>
       </c>
       <c r="W70" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.37577278711276341</v>
       </c>
       <c r="X70" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30968591412981</v>
       </c>
       <c r="Y70" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.30968591412981</v>
       </c>
       <c r="Z70" s="28">
-        <f t="shared" si="13"/>
-        <v>0.37577278711276341</v>
-      </c>
-      <c r="AA70" s="28">
         <f t="shared" si="14"/>
         <v>0.37577278711276341</v>
       </c>
+      <c r="AA70" s="28">
+        <f t="shared" si="15"/>
+        <v>0.37577278711276341</v>
+      </c>
       <c r="AB70" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.30968591412981</v>
       </c>
     </row>
@@ -27738,6 +28276,14 @@
       <c r="E71" t="s">
         <v>85</v>
       </c>
+      <c r="F71" s="28">
+        <f t="shared" si="18"/>
+        <v>0.32026270703997833</v>
+      </c>
+      <c r="G71" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.32026270703997833</v>
+      </c>
       <c r="I71" s="26">
         <v>0.27050000000000002</v>
       </c>
@@ -27755,40 +28301,40 @@
         <v>85</v>
       </c>
       <c r="S71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.32026270703997833</v>
       </c>
       <c r="T71" s="28"/>
       <c r="U71" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.32026270703997833</v>
       </c>
       <c r="V71" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38496176804649979</v>
       </c>
       <c r="W71" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.38496176804649979</v>
       </c>
       <c r="X71" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32026270703997833</v>
       </c>
       <c r="Y71" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32026270703997833</v>
       </c>
       <c r="Z71" s="28">
-        <f t="shared" si="13"/>
-        <v>0.38496176804649979</v>
-      </c>
-      <c r="AA71" s="28">
         <f t="shared" si="14"/>
         <v>0.38496176804649979</v>
       </c>
+      <c r="AA71" s="28">
+        <f t="shared" si="15"/>
+        <v>0.38496176804649979</v>
+      </c>
       <c r="AB71" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.32026270703997833</v>
       </c>
     </row>
@@ -27805,6 +28351,14 @@
       <c r="E72" t="s">
         <v>85</v>
       </c>
+      <c r="F72" s="28">
+        <f t="shared" si="18"/>
+        <v>0.32745693333412318</v>
+      </c>
+      <c r="G72" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.32745693333412318</v>
+      </c>
       <c r="I72" s="23">
         <v>0.23150000000000001</v>
       </c>
@@ -27822,40 +28376,40 @@
         <v>85</v>
       </c>
       <c r="S72" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.32745693333412318</v>
       </c>
       <c r="T72" s="28"/>
       <c r="U72" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.32745693333412318</v>
       </c>
       <c r="V72" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39047657238907701</v>
       </c>
       <c r="W72" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39047657238907701</v>
       </c>
       <c r="X72" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32745693333412318</v>
       </c>
       <c r="Y72" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32745693333412318</v>
       </c>
       <c r="Z72" s="28">
-        <f t="shared" si="13"/>
-        <v>0.39047657238907701</v>
-      </c>
-      <c r="AA72" s="28">
         <f t="shared" si="14"/>
         <v>0.39047657238907701</v>
       </c>
+      <c r="AA72" s="28">
+        <f t="shared" si="15"/>
+        <v>0.39047657238907701</v>
+      </c>
       <c r="AB72" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.32745693333412318</v>
       </c>
     </row>
@@ -27872,6 +28426,14 @@
       <c r="E73" t="s">
         <v>85</v>
       </c>
+      <c r="F73" s="28">
+        <f t="shared" si="18"/>
+        <v>0.57555554212089</v>
+      </c>
+      <c r="G73" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.57555554212089</v>
+      </c>
       <c r="I73" s="26">
         <v>0.19950999999999999</v>
       </c>
@@ -27889,40 +28451,40 @@
         <v>85</v>
       </c>
       <c r="S73" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.57555554212089</v>
       </c>
       <c r="T73" s="28"/>
       <c r="U73" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.57555554212089</v>
       </c>
       <c r="V73" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.33215033847367853</v>
       </c>
       <c r="W73" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.33215033847367853</v>
       </c>
       <c r="X73" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.57555554212089</v>
       </c>
       <c r="Y73" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.57555554212089</v>
       </c>
       <c r="Z73" s="28">
-        <f t="shared" si="13"/>
-        <v>0.33215033847367853</v>
-      </c>
-      <c r="AA73" s="28">
         <f t="shared" si="14"/>
         <v>0.33215033847367853</v>
       </c>
+      <c r="AA73" s="28">
+        <f t="shared" si="15"/>
+        <v>0.33215033847367853</v>
+      </c>
       <c r="AB73" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.57555554212089</v>
       </c>
     </row>
@@ -27939,6 +28501,14 @@
       <c r="E74" t="s">
         <v>85</v>
       </c>
+      <c r="F74" s="28">
+        <f t="shared" si="18"/>
+        <v>0.56304517784615371</v>
+      </c>
+      <c r="G74" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.56304517784615371</v>
+      </c>
       <c r="I74" s="23">
         <v>0.38279999999999997</v>
       </c>
@@ -27956,40 +28526,40 @@
         <v>85</v>
       </c>
       <c r="S74" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.56304517784615371</v>
       </c>
       <c r="T74" s="28"/>
       <c r="U74" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.56304517784615371</v>
       </c>
       <c r="V74" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35001587998773448</v>
       </c>
       <c r="W74" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.35001587998773448</v>
       </c>
       <c r="X74" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.56304517784615371</v>
       </c>
       <c r="Y74" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.56304517784615371</v>
       </c>
       <c r="Z74" s="28">
-        <f t="shared" si="13"/>
-        <v>0.35001587998773448</v>
-      </c>
-      <c r="AA74" s="28">
         <f t="shared" si="14"/>
         <v>0.35001587998773448</v>
       </c>
+      <c r="AA74" s="28">
+        <f t="shared" si="15"/>
+        <v>0.35001587998773448</v>
+      </c>
       <c r="AB74" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.56304517784615371</v>
       </c>
     </row>
@@ -28006,6 +28576,14 @@
       <c r="E75" t="s">
         <v>85</v>
       </c>
+      <c r="F75" s="28">
+        <f t="shared" si="18"/>
+        <v>0.55918543764121331</v>
+      </c>
+      <c r="G75" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.55918543764121331</v>
+      </c>
       <c r="I75" s="26">
         <v>0.36819000000000002</v>
       </c>
@@ -28023,40 +28601,40 @@
         <v>85</v>
       </c>
       <c r="S75" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.55918543764121331</v>
       </c>
       <c r="T75" s="28"/>
       <c r="U75" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55918543764121331</v>
       </c>
       <c r="V75" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35067479658519785</v>
       </c>
       <c r="W75" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.35067479658519785</v>
       </c>
       <c r="X75" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.55918543764121331</v>
       </c>
       <c r="Y75" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.55918543764121331</v>
       </c>
       <c r="Z75" s="28">
-        <f t="shared" si="13"/>
-        <v>0.35067479658519785</v>
-      </c>
-      <c r="AA75" s="28">
         <f t="shared" si="14"/>
         <v>0.35067479658519785</v>
       </c>
+      <c r="AA75" s="28">
+        <f t="shared" si="15"/>
+        <v>0.35067479658519785</v>
+      </c>
       <c r="AB75" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.55918543764121331</v>
       </c>
     </row>
@@ -28073,6 +28651,14 @@
       <c r="E76" t="s">
         <v>85</v>
       </c>
+      <c r="F76" s="28">
+        <f t="shared" si="18"/>
+        <v>0.54662912966292942</v>
+      </c>
+      <c r="G76" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.54662912966292942</v>
+      </c>
       <c r="I76" s="23">
         <v>0.36501</v>
       </c>
@@ -28090,40 +28676,40 @@
         <v>85</v>
       </c>
       <c r="S76" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54662912966292942</v>
       </c>
       <c r="T76" s="28"/>
       <c r="U76" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.54662912966292942</v>
       </c>
       <c r="V76" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35939285856305131</v>
       </c>
       <c r="W76" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.35939285856305131</v>
       </c>
       <c r="X76" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.54662912966292942</v>
       </c>
       <c r="Y76" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.54662912966292942</v>
       </c>
       <c r="Z76" s="28">
-        <f t="shared" si="13"/>
-        <v>0.35939285856305131</v>
-      </c>
-      <c r="AA76" s="28">
         <f t="shared" si="14"/>
         <v>0.35939285856305131</v>
       </c>
+      <c r="AA76" s="28">
+        <f t="shared" si="15"/>
+        <v>0.35939285856305131</v>
+      </c>
       <c r="AB76" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.54662912966292942</v>
       </c>
     </row>
@@ -28140,6 +28726,14 @@
       <c r="E77" t="s">
         <v>85</v>
       </c>
+      <c r="F77" s="28">
+        <f t="shared" si="18"/>
+        <v>0.54952706757150638</v>
+      </c>
+      <c r="G77" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.54952706757150638</v>
+      </c>
       <c r="I77" s="26">
         <v>0.36048999999999998</v>
       </c>
@@ -28157,40 +28751,40 @@
         <v>85</v>
       </c>
       <c r="S77" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54952706757150638</v>
       </c>
       <c r="T77" s="28"/>
       <c r="U77" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.54952706757150638</v>
       </c>
       <c r="V77" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39986718528321008</v>
       </c>
       <c r="W77" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39986718528321008</v>
       </c>
       <c r="X77" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.54952706757150638</v>
       </c>
       <c r="Y77" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.54952706757150638</v>
       </c>
       <c r="Z77" s="28">
-        <f t="shared" si="13"/>
-        <v>0.39986718528321008</v>
-      </c>
-      <c r="AA77" s="28">
         <f t="shared" si="14"/>
         <v>0.39986718528321008</v>
       </c>
+      <c r="AA77" s="28">
+        <f t="shared" si="15"/>
+        <v>0.39986718528321008</v>
+      </c>
       <c r="AB77" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.54952706757150638</v>
       </c>
     </row>
@@ -28207,6 +28801,14 @@
       <c r="E78" t="s">
         <v>85</v>
       </c>
+      <c r="F78" s="28">
+        <f t="shared" si="18"/>
+        <v>0.61415834527414648</v>
+      </c>
+      <c r="G78" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.61415834527414648</v>
+      </c>
       <c r="I78" s="23">
         <v>0.39956999999999998</v>
       </c>
@@ -28224,40 +28826,40 @@
         <v>85</v>
       </c>
       <c r="S78" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.61415834527414648</v>
       </c>
       <c r="T78" s="28"/>
       <c r="U78" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.61415834527414648</v>
       </c>
       <c r="V78" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42972200522784365</v>
       </c>
       <c r="W78" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.42972200522784365</v>
       </c>
       <c r="X78" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.61415834527414648</v>
       </c>
       <c r="Y78" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.61415834527414648</v>
       </c>
       <c r="Z78" s="28">
-        <f t="shared" si="13"/>
-        <v>0.42972200522784365</v>
-      </c>
-      <c r="AA78" s="28">
         <f t="shared" si="14"/>
         <v>0.42972200522784365</v>
       </c>
+      <c r="AA78" s="28">
+        <f t="shared" si="15"/>
+        <v>0.42972200522784365</v>
+      </c>
       <c r="AB78" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.61415834527414648</v>
       </c>
     </row>
@@ -28274,6 +28876,14 @@
       <c r="E79" t="s">
         <v>85</v>
       </c>
+      <c r="F79" s="28">
+        <f t="shared" si="18"/>
+        <v>0.63877084797245176</v>
+      </c>
+      <c r="G79" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.63877084797245176</v>
+      </c>
       <c r="I79" s="26">
         <v>0.42041000000000001</v>
       </c>
@@ -28291,40 +28901,40 @@
         <v>85</v>
       </c>
       <c r="S79" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.63877084797245176</v>
       </c>
       <c r="T79" s="28"/>
       <c r="U79" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.63877084797245176</v>
       </c>
       <c r="V79" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41244304796631842</v>
       </c>
       <c r="W79" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.41244304796631842</v>
       </c>
       <c r="X79" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63877084797245176</v>
       </c>
       <c r="Y79" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.63877084797245176</v>
       </c>
       <c r="Z79" s="28">
-        <f t="shared" si="13"/>
-        <v>0.41244304796631842</v>
-      </c>
-      <c r="AA79" s="28">
         <f t="shared" si="14"/>
         <v>0.41244304796631842</v>
       </c>
+      <c r="AA79" s="28">
+        <f t="shared" si="15"/>
+        <v>0.41244304796631842</v>
+      </c>
       <c r="AB79" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.63877084797245176</v>
       </c>
     </row>
@@ -28341,6 +28951,14 @@
       <c r="E80" t="s">
         <v>85</v>
       </c>
+      <c r="F80" s="28">
+        <f t="shared" si="18"/>
+        <v>0.67028745804277912</v>
+      </c>
+      <c r="G80" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.67028745804277912</v>
+      </c>
       <c r="I80" s="23">
         <v>0.42507</v>
       </c>
@@ -28358,40 +28976,40 @@
         <v>85</v>
       </c>
       <c r="S80" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.67028745804277912</v>
       </c>
       <c r="T80" s="28"/>
       <c r="U80" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.67028745804277912</v>
       </c>
       <c r="V80" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.40978090758248853</v>
       </c>
       <c r="W80" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.40978090758248853</v>
       </c>
       <c r="X80" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.67028745804277912</v>
       </c>
       <c r="Y80" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.67028745804277912</v>
       </c>
       <c r="Z80" s="28">
-        <f t="shared" si="13"/>
-        <v>0.40978090758248853</v>
-      </c>
-      <c r="AA80" s="28">
         <f t="shared" si="14"/>
         <v>0.40978090758248853</v>
       </c>
+      <c r="AA80" s="28">
+        <f t="shared" si="15"/>
+        <v>0.40978090758248853</v>
+      </c>
       <c r="AB80" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.67028745804277912</v>
       </c>
     </row>
@@ -28408,6 +29026,14 @@
       <c r="E81" t="s">
         <v>85</v>
       </c>
+      <c r="F81" s="28">
+        <f t="shared" si="18"/>
+        <v>0.68184647187529401</v>
+      </c>
+      <c r="G81" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.68184647187529401</v>
+      </c>
       <c r="I81" s="26">
         <v>0.40692</v>
       </c>
@@ -28425,40 +29051,40 @@
         <v>85</v>
       </c>
       <c r="S81" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.68184647187529401</v>
       </c>
       <c r="T81" s="28"/>
       <c r="U81" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.68184647187529401</v>
       </c>
       <c r="V81" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41685497065347216</v>
       </c>
       <c r="W81" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.41685497065347216</v>
       </c>
       <c r="X81" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.68184647187529401</v>
       </c>
       <c r="Y81" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.68184647187529401</v>
       </c>
       <c r="Z81" s="28">
-        <f t="shared" si="13"/>
-        <v>0.41685497065347216</v>
-      </c>
-      <c r="AA81" s="28">
         <f t="shared" si="14"/>
         <v>0.41685497065347216</v>
       </c>
+      <c r="AA81" s="28">
+        <f t="shared" si="15"/>
+        <v>0.41685497065347216</v>
+      </c>
       <c r="AB81" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.68184647187529401</v>
       </c>
     </row>
@@ -28475,6 +29101,14 @@
       <c r="E82" t="s">
         <v>85</v>
       </c>
+      <c r="F82" s="28">
+        <f t="shared" si="18"/>
+        <v>0.6600873825860083</v>
+      </c>
+      <c r="G82" s="28">
+        <f>+pwr_af[[#This Row],[IE]]</f>
+        <v>0.6600873825860083</v>
+      </c>
       <c r="I82" s="23">
         <v>0.39445999999999998</v>
       </c>
@@ -28492,40 +29126,40 @@
         <v>85</v>
       </c>
       <c r="S82" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.6600873825860083</v>
       </c>
       <c r="T82" s="28"/>
       <c r="U82" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.6600873825860083</v>
       </c>
       <c r="V82" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41787619211481425</v>
       </c>
       <c r="W82" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.41787619211481425</v>
       </c>
       <c r="X82" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.6600873825860083</v>
       </c>
       <c r="Y82" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.6600873825860083</v>
       </c>
       <c r="Z82" s="28">
-        <f t="shared" si="13"/>
-        <v>0.41787619211481425</v>
-      </c>
-      <c r="AA82" s="28">
         <f t="shared" si="14"/>
         <v>0.41787619211481425</v>
       </c>
+      <c r="AA82" s="28">
+        <f t="shared" si="15"/>
+        <v>0.41787619211481425</v>
+      </c>
       <c r="AB82" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.6600873825860083</v>
       </c>
     </row>
